--- a/output/COMMUNE_MOUGINS_06085.xlsx
+++ b/output/COMMUNE_MOUGINS_06085.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Pivot" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Diagnotics" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8189,4 +8191,8444 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G248"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>meta</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>06085</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>mode</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>source</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>CODE_INSEE</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Code INSEE Commune</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>06085</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>06085</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>COUNT</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>CODE</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>CODE_POSTAL</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Code Postal Commune</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>06250</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>COUNT</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>CODE</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>NOM_COMMUNE</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Nom de Commune</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>MOUGINS</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>COUNT</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>CODE</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>LIBELLE</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Libelle</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Mougins</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>COUNT</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>CODE</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>EPCI</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Code EPCI - Métropole</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>200039915</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>COUNT</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>INTERCO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>LIBEPCI</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Libellé de l'EPCI / Métropole</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>CA Cannes Pays de Lérins</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>COUNT</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>INTERCO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>TYPE_EPCI</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Nature d'EPCI</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>COMMUNE</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>COUNT</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>INTERCO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>EPCI_COMMUNES</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Nombre communes EPCI</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>COUNT</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>INTERCO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>DEP</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Departement</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>COUNT</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>INTERCO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>DEP_NOM</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Nom Departement</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Alpes-Maritimes</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>COUNT</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>INTERCO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>REG</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Region</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>COUNT</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>INTERCO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>REG_NOM</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Nom Région</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Provence-Alpes-Côte d'Azur</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>COUNT</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>INTERCO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>DOSSIER_INSEE</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Dossier Complet INSEE</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>https://www.insee.fr/fr/statistiques/2011101?geo=COM-06085</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://www.insee.fr/fr/statistiques/2011101?geo=COM-06085</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>CUSTOM</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>INSEE</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>P08_POP</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Population en 2008</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>19703</v>
+      </c>
+      <c r="D15" t="n">
+        <v>19703</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>INSEE</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>P13_POP</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Population en 2013</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>18302</v>
+      </c>
+      <c r="D16" t="n">
+        <v>18302</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>INSEE</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>P18_POP</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Population en 2018</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>19489</v>
+      </c>
+      <c r="D17" t="n">
+        <v>19489</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>INSEE</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>P08_LOG</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Nombre de logements en 2008</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>10571</v>
+      </c>
+      <c r="D18" t="n">
+        <v>10571</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>INSEE</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>P13_LOG</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Nombre de logements en 2013</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>10330</v>
+      </c>
+      <c r="D19" t="n">
+        <v>10330</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>INSEE</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>P18_LOG</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Nombre de logements en 2018</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>11016</v>
+      </c>
+      <c r="D20" t="n">
+        <v>11016</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>INSEE</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>P08_RP</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Nombre de résidences principales en 2008</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>8229</v>
+      </c>
+      <c r="D21" t="n">
+        <v>8229</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>INSEE</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>P13_RP</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Nombre de résidences principales en 2013</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>7996</v>
+      </c>
+      <c r="D22" t="n">
+        <v>7996</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>INSEE</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>P18_RP</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Nombre de résidences principales en 2018</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>8416</v>
+      </c>
+      <c r="D23" t="n">
+        <v>8416</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>INSEE</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>P08_RSECOCC</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Nombre de résidences secondaires et logements occasionnels en 2008</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>1735</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1735</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>INSEE</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>P13_RSECOCC</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Nombre de résidences secondaires et logements occasionnels en 2013</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>1748</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1748</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>INSEE</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>P18_RSECOCC</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Nombre de résidences secondaires et logements occasionnels en 2018</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>2063</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2063</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>INSEE</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>P08_LOGVAC</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Nombre de logements vacants en 2008</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>607</v>
+      </c>
+      <c r="D27" t="n">
+        <v>607</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>INSEE</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>P13_LOGVAC</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Nombre de logements vacants en 2013</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>586</v>
+      </c>
+      <c r="D28" t="n">
+        <v>586</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>INSEE</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>P18_LOGVAC</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Nombre de logements vacants en 2018</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>537</v>
+      </c>
+      <c r="D29" t="n">
+        <v>537</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>INSEE</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>P08_MAISON</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Nombre de maisons en 2008</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>5977</v>
+      </c>
+      <c r="D30" t="n">
+        <v>5977</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>INSEE</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>P13_MAISON</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Nombre de maisons en 2013</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>5758</v>
+      </c>
+      <c r="D31" t="n">
+        <v>5758</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>INSEE</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>P18_MAISON</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Nombre de maisons en 2018</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>6299</v>
+      </c>
+      <c r="D32" t="n">
+        <v>6299</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>INSEE</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>P08_APPART</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Nombre d'appartements en 2008</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>4545</v>
+      </c>
+      <c r="D33" t="n">
+        <v>4545</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>INSEE</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>P13_APPART</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Nombre d'appartements en 2013</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>4455</v>
+      </c>
+      <c r="D34" t="n">
+        <v>4455</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>INSEE</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>P18_APPART</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Nombre d'appartements en 2018</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>4662</v>
+      </c>
+      <c r="D35" t="n">
+        <v>4662</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>INSEE</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>C08_MEN</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Nombre de ménages en 2008</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>8229</v>
+      </c>
+      <c r="D36" t="n">
+        <v>8229</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>INSEE</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>C13_MEN</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Nombre de ménages en 2013</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>7996</v>
+      </c>
+      <c r="D37" t="n">
+        <v>7996</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>INSEE</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>C18_MEN</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Nombre de ménages en 2018</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>8417</v>
+      </c>
+      <c r="D38" t="n">
+        <v>8417</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>INSEE</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>C08_PMEN</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Nombre de personnes des ménages en 2008</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>19233</v>
+      </c>
+      <c r="D39" t="n">
+        <v>19233</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>INSEE</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>C13_PMEN</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Nombre de personnes des ménages en 2013</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>17666</v>
+      </c>
+      <c r="D40" t="n">
+        <v>17666</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>INSEE</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>C18_PMEN</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Nombre de personnes des ménages en 2018</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>18804</v>
+      </c>
+      <c r="D41" t="n">
+        <v>18804</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>INSEE</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>P08_RP_PROP</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Nombre de résidences principales occupées par propriétaires en 2008</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>5136</v>
+      </c>
+      <c r="D42" t="n">
+        <v>5136</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>INSEE</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>P13_RP_PROP</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Nombre de résidences principales occupées par propriétaires en 2013</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>4871</v>
+      </c>
+      <c r="D43" t="n">
+        <v>4871</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>INSEE</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>P18_RP_PROP</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Nombre de résidences principales occupées par propriétaires en 2018</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>5253</v>
+      </c>
+      <c r="D44" t="n">
+        <v>5253</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>INSEE</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>P08_RP_LOC</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Nombre de résidences principales occupées par locataires en 2008</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>2653</v>
+      </c>
+      <c r="D45" t="n">
+        <v>2653</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>INSEE</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>P13_RP_LOC</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Nombre de résidences principales occupées par locataires en 2013</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>2726</v>
+      </c>
+      <c r="D46" t="n">
+        <v>2726</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>INSEE</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>P18_RP_LOC</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Nombre de résidences principales occupées par locataires en 2018</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>2766</v>
+      </c>
+      <c r="D47" t="n">
+        <v>2766</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>INSEE</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>NAIS0813</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Nombre de naissances entre 01/01/2008 et 01/01/2013</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>1047</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1047</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>INSEE</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>NAIS1318</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Nombre de naissances entre 01/01/2013 et 01/01/2018</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>950</v>
+      </c>
+      <c r="D49" t="n">
+        <v>950</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>INSEE</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>DECE0813</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Nombre de décès entre 01/01/2008 et 01/01/2013</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>863</v>
+      </c>
+      <c r="D50" t="n">
+        <v>863</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>INSEE</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>DECE1318</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Nombre de décès entre 01/01/2013 et 01/01/2018</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>915</v>
+      </c>
+      <c r="D51" t="n">
+        <v>915</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>INSEE</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>TXPOP_0818</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Taux de Croissance Annuel de la population de 2008 a 2018</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>-0.109</v>
+      </c>
+      <c r="D52" t="n">
+        <v>-0.109</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>CUSTOM</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>PERCENT</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>INSEE</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>TXPOP_0813</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Taux de Croissance Annuel de la population de 2008 a 2013</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>-1.464</v>
+      </c>
+      <c r="D53" t="n">
+        <v>-1.464</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>CUSTOM</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>PERCENT</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>INSEE</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>TXPOP_1318</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Taux de Croissance Annuel de la population de 2013 a 2018</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>1.265</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1.265</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>CUSTOM</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>PERCENT</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>INSEE</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>TM_2008</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Taille des Menages en 2008</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>2.337</v>
+      </c>
+      <c r="D55" t="n">
+        <v>2.337</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>CUSTOM</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>FLOAT</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>INSEE</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>TM_2013</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Taille des Menages en 2013</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>2.209</v>
+      </c>
+      <c r="D56" t="n">
+        <v>2.209</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>CUSTOM</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>FLOAT</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>INSEE</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>TM_2018</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Taille des Menages en 2018</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>2.234</v>
+      </c>
+      <c r="D57" t="n">
+        <v>2.234</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>CUSTOM</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>FLOAT</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>INSEE</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>TXTM_0813</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Taux de Croissance Annuel de la taille des menages de 2008 a 2013</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>-1.12</v>
+      </c>
+      <c r="D58" t="n">
+        <v>-1.12</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>CUSTOM</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>PERCENT</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>INSEE</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>TXTM_1318</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Taux de Croissance Annuel de la taille des menages de 2013 a 2018</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>CUSTOM</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>PERCENT</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>INSEE</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>TXTM_0818</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Taux de Croissance Annuel de la taille des menages de 2008 a 2018</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>-0.45</v>
+      </c>
+      <c r="D60" t="n">
+        <v>-0.45</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>CUSTOM</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>PERCENT</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>INSEE</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>SRU_OBJ_2017_2019</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Objectifs 2017-2019</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>509</v>
+      </c>
+      <c r="D61" t="n">
+        <v>509</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>SRU</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>SRU_LLS_2017</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>NB de LLS au 01/01/2017</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>546</v>
+      </c>
+      <c r="D62" t="n">
+        <v>546</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>SRU</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>SRU_TX_LLS_2017</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>TX de LLS au 01/01/2017</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>0.06519999999999999</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>CUSTOM</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>TAUX</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>SRU</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>SRU_RP_2017</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>NBR RP au 01/01/2017</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>8370</v>
+      </c>
+      <c r="D64" t="n">
+        <v>8370</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>SRU</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>SRU_OBJ_TX</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Taux de LLS à atteindre</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>25</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>IGNORE</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>IGNORE</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>TAUX</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>SRU</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>SRU_OBJ_2020_2022</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Objectifs 2020-2022</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>717</v>
+      </c>
+      <c r="D66" t="n">
+        <v>717</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>SRU</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>SRU_LLS_2020</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>NB de LLS au 01/01/2020</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>906</v>
+      </c>
+      <c r="D67" t="n">
+        <v>906</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>SRU</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>SRU_TX_LLS_2020</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>TX de LLS au 01/01/2020</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>0.1017</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.102</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>CUSTOM</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>TAUX</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>SRU</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>SRU_RP_2020</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>NBR RP au 01/01/2020</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>8909</v>
+      </c>
+      <c r="D69" t="n">
+        <v>8909</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>SRU</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>SRU_CARENCE_2017</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Carence en 2017</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>1547</v>
+      </c>
+      <c r="D70" t="n">
+        <v>1547</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>SRU</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>SRU_CARENCE_2020</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Carence en 2020</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>1321</v>
+      </c>
+      <c r="D71" t="n">
+        <v>1321</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>SRU</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>SRU_LOG3565_2017</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Logements Totaux a Construire en Modele 35/65 sur Objectif 2017</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>945</v>
+      </c>
+      <c r="D72" t="n">
+        <v>945</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>SRU</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>SRU_LOG3565_2020</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Logements Totaux a Construire en Modele 35/65 sur Objectif 2020</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>1332</v>
+      </c>
+      <c r="D73" t="n">
+        <v>1332</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>SRU</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>SRU_LOG3565_TOTAL</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Logements Totaux a Construire en Modele 35/65 sur Carence Totale 2020</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>2453</v>
+      </c>
+      <c r="D74" t="n">
+        <v>2453</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>SRU</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>SRU_EVOL_RP</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Evolution du nombre de Residences Principales</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>539</v>
+      </c>
+      <c r="D75" t="n">
+        <v>539</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>SRU</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>SRU_EVOL_CARENCE</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Evolution de la Carence du aux Residences Principales</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>135</v>
+      </c>
+      <c r="D76" t="n">
+        <v>135</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>SRU</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>SRU_LOG_CONSTRUITS</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Logements Sociaux Construits entre 2017 et 2020</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>361</v>
+      </c>
+      <c r="D77" t="n">
+        <v>361</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>SRU</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>ART_TOTAL</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Total des flux entre NAF et artificialisé sur la période 2009 2020</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>430229</v>
+      </c>
+      <c r="D78" t="n">
+        <v>430229</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>ART</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>ART_HABITAT</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Flux NAF vers artificialisé destiné à l’habitat sur la période 2009 2020</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>347604</v>
+      </c>
+      <c r="D79" t="n">
+        <v>347604</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>ART</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>ART_ACTIVITE</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Flux NAF vers artificialisé destiné à l’activité sur la période 2009 2020</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>75355</v>
+      </c>
+      <c r="D80" t="n">
+        <v>75355</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>ART</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>ART_MIXTE</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Flux NAF vers artificialisé destiné au mixte sur la période 2009 2020</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>7236</v>
+      </c>
+      <c r="D81" t="n">
+        <v>7236</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>ART</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>ART_INCONNUE</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Flux NAF vers artificialisé inconnu sur la période 2009 2020</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>34</v>
+      </c>
+      <c r="D82" t="n">
+        <v>34</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>ART</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>SURFACE_COMMUNE</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Surface communale en m²</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>26019881</v>
+      </c>
+      <c r="D83" t="n">
+        <v>26019881</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>FLOAT</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>ART</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>ART_POURCENT</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Part de surface communale artificialisée (en %)</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="D84" t="n">
+        <v>1.653</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>CUSTOM</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>PERCENT</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>ART</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>ART_POPULATION</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>M² artificialisé par habitant supplémentaire</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>124</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>IGNORE</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>IGNORE</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>ART</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>ART_MENAGE</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>M² artificialisé par menage supplémentaire</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>45</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>IGNORE</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>IGNORE</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>ART</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>ART_EMPLOI_MENAGE</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Nombre de ménages + emplois supplémentaire par ha artificialisé</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>53</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>IGNORE</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>IGNORE</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>ART</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>ART_EMPLOIS_2012</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Nombre d’emplois 2012</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>9436</v>
+      </c>
+      <c r="D88" t="n">
+        <v>9436</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>ART</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>ART_EMPLOIS_2017</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Nombre d’emplois 2017</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>9818</v>
+      </c>
+      <c r="D89" t="n">
+        <v>9818</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>ART</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>ART_EMPLOIS_1217</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Variation des Emplois entre 2012 et 2017</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>382</v>
+      </c>
+      <c r="D90" t="n">
+        <v>382</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>ART</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>ART_MENAGES_2012</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Nombre de menages 2012</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>7733</v>
+      </c>
+      <c r="D91" t="n">
+        <v>7733</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>ART</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>ART_MENAGES_2017</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Nombre de menages 2017</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>8404</v>
+      </c>
+      <c r="D92" t="n">
+        <v>8404</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>ART</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
+        <is>
+          <t>ART_MENAGES_1217</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Variation des Menages entre 2012 et 2017</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>671</v>
+      </c>
+      <c r="D93" t="n">
+        <v>671</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>ART</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
+        <is>
+          <t>ART_POPULATION_2012</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Population en 2012</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>17884</v>
+      </c>
+      <c r="D94" t="n">
+        <v>17884</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>ART</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
+        <is>
+          <t>ART_POPULATION_2017</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Population en 2017</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>19473</v>
+      </c>
+      <c r="D95" t="n">
+        <v>19473</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>ART</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
+        <is>
+          <t>ART_POPULATION_1217</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Variation Population entre 2012 et 2017</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>1589</v>
+      </c>
+      <c r="D96" t="n">
+        <v>1589</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>ART</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
+        <is>
+          <t>PROJ_EPCI_NOM</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Nom EPCI</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Cannes - Pays de Lérins</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Cannes - Pays de Lérins</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>EQUAL</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>PROJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
+        <is>
+          <t>PROJ_EPCI_2013</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Projection Population EPCI 2013</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>159189</v>
+      </c>
+      <c r="D98" t="n">
+        <v>159189</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>EQUAL</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>PROJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="inlineStr">
+        <is>
+          <t>PROJ_EPCI_2030</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Projection Population EPCI 2030</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>168029</v>
+      </c>
+      <c r="D99" t="n">
+        <v>168029</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>EQUAL</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>PROJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr">
+        <is>
+          <t>PROJ_EPCI_2050</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Projection Population EPCI 2050</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>176666</v>
+      </c>
+      <c r="D100" t="n">
+        <v>176666</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>EQUAL</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>PROJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
+        <is>
+          <t>PROJ_EPCI_2040</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Projection Population EPCI 2040</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>172348</v>
+      </c>
+      <c r="D101" t="n">
+        <v>172348</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>EQUAL</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>PROJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="inlineStr">
+        <is>
+          <t>PROJ_EPCI_2020</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Projection Population EPCI 2020</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>163609</v>
+      </c>
+      <c r="D102" t="n">
+        <v>163609</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>EQUAL</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>PROJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="inlineStr">
+        <is>
+          <t>PROJ_SCOT_NOM</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Nom SCOT</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>SCOT Ouest des Alpes-Maritimes</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>SCOT Ouest des Alpes-Maritimes</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>EQUAL</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>PROJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="inlineStr">
+        <is>
+          <t>PROJ_SCOT_2013</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Projection Population SCOT 2013</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>260802</v>
+      </c>
+      <c r="D104" t="n">
+        <v>260802</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>EQUAL</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>PROJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="inlineStr">
+        <is>
+          <t>PROJ_SCOT_2030</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Projection Population SCOT 2030</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>263768</v>
+      </c>
+      <c r="D105" t="n">
+        <v>263768</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>EQUAL</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>PROJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="inlineStr">
+        <is>
+          <t>PROJ_SCOT_2050</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Projection Population SCOT 2050</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>268293</v>
+      </c>
+      <c r="D106" t="n">
+        <v>268293</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>EQUAL</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>PROJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="inlineStr">
+        <is>
+          <t>PROJ_SCOT_2040</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Projection Population SCOT 2040</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>397914</v>
+      </c>
+      <c r="D107" t="n">
+        <v>397914</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>EQUAL</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>PROJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="inlineStr">
+        <is>
+          <t>PROJ_SCOT_2020</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Projection Population SCOT 2020</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>392686</v>
+      </c>
+      <c r="D108" t="n">
+        <v>392686</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>EQUAL</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>PROJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="inlineStr">
+        <is>
+          <t>PROJ_DPT_2013</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Projection Dept 2013</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>1081000</v>
+      </c>
+      <c r="D109" t="n">
+        <v>1081000</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>EQUAL</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>PROJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="inlineStr">
+        <is>
+          <t>PROJ_DPT_2018</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Projection Dept 2018</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>1087000</v>
+      </c>
+      <c r="D110" t="n">
+        <v>1087000</v>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>EQUAL</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>PROJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="inlineStr">
+        <is>
+          <t>PROJ_DPT_TXPOP_1318</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Taux de Croissance Annuel de la population de 2013 a 2018</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>EQUAL</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>PERCENT</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>PROJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="inlineStr">
+        <is>
+          <t>PROJ_DPT_2020</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Projection Dept 2020</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>1089000</v>
+      </c>
+      <c r="D112" t="n">
+        <v>1089000</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>EQUAL</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>PROJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="inlineStr">
+        <is>
+          <t>PROJ_DPT_TXPOP_1820</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Taux de Croissance Annuel de la population de 2018 a 2020</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>0.092</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.092</v>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>EQUAL</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>PERCENT</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>PROJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="inlineStr">
+        <is>
+          <t>PROJ_DPT_TXPOP_1320</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Taux de Croissance Annuel de la population de 2013 a 2020</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>EQUAL</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>PERCENT</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>PROJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="inlineStr">
+        <is>
+          <t>PROJ_DPT_2030</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Projection Dept 2030</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>1100000</v>
+      </c>
+      <c r="D115" t="n">
+        <v>1100000</v>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>EQUAL</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>PROJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="inlineStr">
+        <is>
+          <t>PROJ_DPT_TXPOP_2030</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Taux de Croissance Annuel de la population de 2020 a 2030</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>0.101</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.101</v>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>EQUAL</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>PERCENT</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>PROJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="inlineStr">
+        <is>
+          <t>PROJ_DPT_2040</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Projection Dept 2040</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>1110000</v>
+      </c>
+      <c r="D117" t="n">
+        <v>1110000</v>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>EQUAL</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>PROJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
+        <is>
+          <t>PROJ_DPT_TXPOP_3040</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Taux de Croissance Annuel de la population de 2030 a 2040</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>0.091</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.091</v>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>EQUAL</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>PERCENT</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>PROJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
+        <is>
+          <t>PROJ_DPT_2050</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Projection Dept 2050</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>1118000</v>
+      </c>
+      <c r="D119" t="n">
+        <v>1118000</v>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>EQUAL</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>PROJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="inlineStr">
+        <is>
+          <t>PROJ_DPT_TXPOP_4050</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Taux de Croissance Annuel de la population de 2040 a 2050</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>0.07199999999999999</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0.07199999999999999</v>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>EQUAL</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>PERCENT</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>PROJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="inlineStr">
+        <is>
+          <t>PROJ_REG_2013</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Projection Region 2013</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>4954000</v>
+      </c>
+      <c r="D121" t="n">
+        <v>4954000</v>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>EQUAL</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>PROJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="inlineStr">
+        <is>
+          <t>PROJ_REG_2018</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Projection Region 2018</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>5026000</v>
+      </c>
+      <c r="D122" t="n">
+        <v>5026000</v>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>EQUAL</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>PROJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="inlineStr">
+        <is>
+          <t>PROJ_REG_2020</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Projection Region 2020</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>5053000</v>
+      </c>
+      <c r="D123" t="n">
+        <v>5053000</v>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>EQUAL</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>PROJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="inlineStr">
+        <is>
+          <t>PROJ_REG_2030</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Projection Region 2030</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>5166000</v>
+      </c>
+      <c r="D124" t="n">
+        <v>5166000</v>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>EQUAL</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>PROJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="inlineStr">
+        <is>
+          <t>PROJ_REG_2040</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Projection Region 2040</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>5259000</v>
+      </c>
+      <c r="D125" t="n">
+        <v>5259000</v>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>EQUAL</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>PROJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="inlineStr">
+        <is>
+          <t>PROJ_REG_2050</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Projection Region 2050</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>5328000</v>
+      </c>
+      <c r="D126" t="n">
+        <v>5328000</v>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>EQUAL</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>PROJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="inlineStr">
+        <is>
+          <t>EVOL_DPT_POP08</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Population Dept en 2008</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>1080771</v>
+      </c>
+      <c r="D127" t="n">
+        <v>1080771</v>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>EQUAL</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>PROJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="inlineStr">
+        <is>
+          <t>EVOL_DPT_POP13</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Population Dept en 2013</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>1086219</v>
+      </c>
+      <c r="D128" t="n">
+        <v>1086219</v>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>EQUAL</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>PROJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="inlineStr">
+        <is>
+          <t>EVOL_DPT_POP18</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Population Dept en 2018</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>1089270</v>
+      </c>
+      <c r="D129" t="n">
+        <v>1089270</v>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>EQUAL</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>PROJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="inlineStr">
+        <is>
+          <t>EVOL_DPT_0813</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Taux Evolution Annuel Population Dept entre 2008 et 2013</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="D130" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>EQUAL</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>TAUX</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>PROJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="inlineStr">
+        <is>
+          <t>EVOL_DPT_1318</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Taux Evolution Annuel Population Dept entre 2013 et 2018</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>EQUAL</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>TAUX</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>PROJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="inlineStr">
+        <is>
+          <t>EVOL_DPT_1821</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Taux Evolution Annuel Population Dept entre 2018 et 2021</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>EQUAL</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>TAUX</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>PROJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="inlineStr">
+        <is>
+          <t>EVOL_DPT_POP21</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Population Dept en 2021</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>1089303</v>
+      </c>
+      <c r="D133" t="n">
+        <v>1089303</v>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>EQUAL</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>PROJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="inlineStr">
+        <is>
+          <t>NB_LGT_TOT_CREES</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Logements Autorises</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>2147</v>
+      </c>
+      <c r="D134" t="n">
+        <v>2147</v>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>PROJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="inlineStr">
+        <is>
+          <t>NB_LGT_TOT_COMMENCES</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Logements Commences</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>1668</v>
+      </c>
+      <c r="D135" t="n">
+        <v>1668</v>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>PROJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="inlineStr">
+        <is>
+          <t>NB_LGT_TOT_COMMENCES_1316</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Logements Commences entre 2013 et 2016</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>746</v>
+      </c>
+      <c r="D136" t="n">
+        <v>746</v>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>PROJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="inlineStr">
+        <is>
+          <t>NB_LGT_TOT_COMMENCES_1721</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Logements Commences entre 2017 et 2021</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>922</v>
+      </c>
+      <c r="D137" t="n">
+        <v>922</v>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>PROJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="inlineStr">
+        <is>
+          <t>NB_LGT_TX_REALISATION</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Taux de Logements Commences</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>0.7768979972054029</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0.777</v>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>CUSTOM</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>TAUX</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>PROJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="inlineStr">
+        <is>
+          <t>NB_LGT_RENOUVELLEMENT</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Logements en Renouvellement</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>19</v>
+      </c>
+      <c r="D139" t="n">
+        <v>19</v>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>PROJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="inlineStr">
+        <is>
+          <t>NB_LGT_NOUVEAU</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Logements Nouveau</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>1183</v>
+      </c>
+      <c r="D140" t="n">
+        <v>1183</v>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>PROJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="inlineStr">
+        <is>
+          <t>NB_LGT_PRINCIPAL</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Logements Principal</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>2133</v>
+      </c>
+      <c r="D141" t="n">
+        <v>2133</v>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>PROJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="inlineStr">
+        <is>
+          <t>NB_LGT_SECONDAIRE</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Logements Secondaire</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>19</v>
+      </c>
+      <c r="D142" t="n">
+        <v>19</v>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>PROJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="inlineStr">
+        <is>
+          <t>NB_LGT_IND_CREES</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Nombre de logements individuels créés</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>451</v>
+      </c>
+      <c r="D143" t="n">
+        <v>451</v>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>PROJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="inlineStr">
+        <is>
+          <t>NB_LGT_COL_CREES</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Nombre de logements collectifs créés</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>1696</v>
+      </c>
+      <c r="D144" t="n">
+        <v>1696</v>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>PROJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="inlineStr">
+        <is>
+          <t>NB_LGT_DEMOLIS</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Nombre de logements démolis</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>14</v>
+      </c>
+      <c r="D145" t="n">
+        <v>14</v>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>PROJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="inlineStr">
+        <is>
+          <t>NB_LGT_PRET_LOC_SOCIAL</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Nb de logements locatifs sociaux</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>541</v>
+      </c>
+      <c r="D146" t="n">
+        <v>541</v>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>PROJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="inlineStr">
+        <is>
+          <t>NB_LGT_PRET_LOC_SOCIAL_1316</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Logements Sociaux entre 2013 et 2016</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>378</v>
+      </c>
+      <c r="D147" t="n">
+        <v>378</v>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>PROJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="inlineStr">
+        <is>
+          <t>NB_LGT_PRET_LOC_SOCIAL_1721</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Logements Sociaux entre 2017 et 2021</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>163</v>
+      </c>
+      <c r="D148" t="n">
+        <v>163</v>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>PROJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="inlineStr">
+        <is>
+          <t>SITADEL_SUPERFICIE_TERRAIN</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Superficie du terrain</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>1316764</v>
+      </c>
+      <c r="D149" t="n">
+        <v>1316764</v>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>PROJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="inlineStr">
+        <is>
+          <t>TX_POP_2030</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Taux Evolution de la Population entre 2020 et 2030</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>0.101</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0.101</v>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>CUSTOM</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>PERCENT</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>PROJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="inlineStr">
+        <is>
+          <t>TX_POP_3040</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Taux Evolution de la Population entre 2030 et 2040</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>0.101</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0.101</v>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>CUSTOM</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>PERCENT</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>PROJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="inlineStr">
+        <is>
+          <t>TX_POP_4050</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Taux Evolution de la Population entre 2040 et 2050</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>0.07199999999999999</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0.07199999999999999</v>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>CUSTOM</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>PERCENT</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>PROJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="inlineStr">
+        <is>
+          <t>POP_2020</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Population en 2020</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>19577</v>
+      </c>
+      <c r="D153" t="n">
+        <v>19577</v>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>PROJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="inlineStr">
+        <is>
+          <t>POP_2030</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Population en 2030</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>19776</v>
+      </c>
+      <c r="D154" t="n">
+        <v>19776</v>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>PROJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="inlineStr">
+        <is>
+          <t>POP_2040</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Population en 2040</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>19977</v>
+      </c>
+      <c r="D155" t="n">
+        <v>19977</v>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>PROJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="inlineStr">
+        <is>
+          <t>POP_2050</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Population en 2050</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>20121</v>
+      </c>
+      <c r="D156" t="n">
+        <v>20121</v>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>PROJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="inlineStr">
+        <is>
+          <t>TM_2020</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Taille des Menages en 2020</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>2.244</v>
+      </c>
+      <c r="D157" t="n">
+        <v>2.244</v>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>CUSTOM</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>FLOAT</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>PROJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="inlineStr">
+        <is>
+          <t>TM_2030</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Taille des Menages en 2030</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>2.269</v>
+      </c>
+      <c r="D158" t="n">
+        <v>2.269</v>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>CUSTOM</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>FLOAT</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>PROJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="inlineStr">
+        <is>
+          <t>TM_2040</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Taille des Menages en 2040</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>2.286</v>
+      </c>
+      <c r="D159" t="n">
+        <v>2.286</v>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>CUSTOM</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>FLOAT</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>PROJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="inlineStr">
+        <is>
+          <t>TM_2050</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Taille des Menages en 2050</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>2.299</v>
+      </c>
+      <c r="D160" t="n">
+        <v>2.299</v>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>CUSTOM</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>FLOAT</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>PROJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="inlineStr">
+        <is>
+          <t>LOG_2020</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Besoins en Logements en 2020</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
+        <v>8724</v>
+      </c>
+      <c r="D161" t="n">
+        <v>8724</v>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>PROJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="inlineStr">
+        <is>
+          <t>LOG_2030</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Besoins en Logements en 2030</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>8716</v>
+      </c>
+      <c r="D162" t="n">
+        <v>8716</v>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>PROJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="inlineStr">
+        <is>
+          <t>LOG_2040</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Besoins en Logements en 2040</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>8739</v>
+      </c>
+      <c r="D163" t="n">
+        <v>8739</v>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>PROJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="inlineStr">
+        <is>
+          <t>LOG_2050</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Besoins en Logements en 2050</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>8752</v>
+      </c>
+      <c r="D164" t="n">
+        <v>8752</v>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>PROJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="inlineStr">
+        <is>
+          <t>P20_RP</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Logements en 2020</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>8724</v>
+      </c>
+      <c r="D165" t="n">
+        <v>8724</v>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>CALC</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="inlineStr">
+        <is>
+          <t>TX_RES_SEC_18</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Taux de Residences Secondaires en 2018</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>0.1873</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0.1873</v>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>CUSTOM</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>TAUX</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>CALC</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="inlineStr">
+        <is>
+          <t>TX_RES_VAC_18</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Taux de Residences Vacantes en 2018</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>0.0487</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0.0487</v>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>CUSTOM</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>TAUX</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>CALC</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="inlineStr">
+        <is>
+          <t>P20_RSECOCC</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Residences Secondaires en 2020</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
+        <v>2138</v>
+      </c>
+      <c r="D168" t="n">
+        <v>2138</v>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>CALC</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="inlineStr">
+        <is>
+          <t>P20_LOGVAC</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Residences Vacantes en 2020</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
+        <v>557</v>
+      </c>
+      <c r="D169" t="n">
+        <v>557</v>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>CALC</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="inlineStr">
+        <is>
+          <t>P30_RSECOCC</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Residences Secondaires en 2030</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
+        <v>2138</v>
+      </c>
+      <c r="D170" t="n">
+        <v>2138</v>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>CALC</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="inlineStr">
+        <is>
+          <t>P30_LOGVAC</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Residences Vacantes en 2030</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
+        <v>557</v>
+      </c>
+      <c r="D171" t="n">
+        <v>557</v>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>CALC</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="inlineStr">
+        <is>
+          <t>NOUV_LOG_0813</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Nouveaux Logements (RP+RS+VAC) entre 2008 et 2013 (5 ans)</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
+        <v>-241</v>
+      </c>
+      <c r="D172" t="n">
+        <v>-241</v>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>CALC</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="inlineStr">
+        <is>
+          <t>NOUV_LOG_1318</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Nouveaux Logements (RP+RS+VAC) entre 2013 et 2018 (5 ans)</t>
+        </is>
+      </c>
+      <c r="C173" t="n">
+        <v>686</v>
+      </c>
+      <c r="D173" t="n">
+        <v>686</v>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>CALC</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="inlineStr">
+        <is>
+          <t>NOUV_LOG_1820</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Nouveaux Logements (RP+RS+VAC) entre 2018 et 2020 (2 ans)</t>
+        </is>
+      </c>
+      <c r="C174" t="n">
+        <v>403</v>
+      </c>
+      <c r="D174" t="n">
+        <v>403</v>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>CALC</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="inlineStr">
+        <is>
+          <t>NOUV_LOG_1320</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Nouveaux Logements (RP+RS+VAC) entre 2013 et 2020 (7 ans)</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
+        <v>1089</v>
+      </c>
+      <c r="D175" t="n">
+        <v>1089</v>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>CALC</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="inlineStr">
+        <is>
+          <t>NOUV_LOG_0820</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Nouveaux Logements (RP+RS+VAC) entre 2008 et 2020 (12 ans)</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
+        <v>848</v>
+      </c>
+      <c r="D176" t="n">
+        <v>848</v>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>CALC</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="inlineStr">
+        <is>
+          <t>EXCES_BESOINS_0820</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Exces en Logements Construits par rapport aux besoins entre 2008 et 2020 (12 ans)</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>932</v>
+      </c>
+      <c r="D177" t="n">
+        <v>932</v>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>CALC</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="inlineStr">
+        <is>
+          <t>EXCES_BESOINS_1320</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Exces en Logements Construits par rapport aux besoins entre 2013 et 2020 (7 ans)</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>940</v>
+      </c>
+      <c r="D178" t="n">
+        <v>940</v>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>CALC</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="inlineStr">
+        <is>
+          <t>BESOINS_0813</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Besoins en Logements entre 2013 et 2020 (7 ans)</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>-233</v>
+      </c>
+      <c r="D179" t="n">
+        <v>-233</v>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>CALC</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="inlineStr">
+        <is>
+          <t>BESOINS_1320</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Besoins en Logements entre 2013 et 2020 (7 ans)</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>728</v>
+      </c>
+      <c r="D180" t="n">
+        <v>728</v>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>CALC</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="inlineStr">
+        <is>
+          <t>BESOINS_0820</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Besoins en Logements entre 2008 et 2020 (12 ans)</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>495</v>
+      </c>
+      <c r="D181" t="n">
+        <v>495</v>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>CALC</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="inlineStr">
+        <is>
+          <t>NOUV_RESSEC_1320</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Nouvelles Residences Secondaires entre 2013 et 2020  (8 ans)</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>390</v>
+      </c>
+      <c r="D182" t="n">
+        <v>390</v>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>CALC</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="inlineStr">
+        <is>
+          <t>NOUV_LOGVAC_1320</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Nouvelles Residences Vacantes entre 2013 et 2020  (8 ans)</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>-49</v>
+      </c>
+      <c r="D183" t="n">
+        <v>-49</v>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>CALC</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="inlineStr">
+        <is>
+          <t>NOUV_RESSEC_1318</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Nouvelles Residences Secondaires entre 2013 et 2018  (8 ans)</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>315</v>
+      </c>
+      <c r="D184" t="n">
+        <v>315</v>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>CALC</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="inlineStr">
+        <is>
+          <t>NOUV_LOGVAC_1318</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Nouvelles Residences Vacantes entre 2013 et 2018  (8 ans)</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>-49</v>
+      </c>
+      <c r="D185" t="n">
+        <v>-49</v>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>CALC</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="inlineStr">
+        <is>
+          <t>NB_LGT_TOT_COMMENCES_1321</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Logements Construits entre 2013 et 2021  (8 ans)</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>1668</v>
+      </c>
+      <c r="D186" t="n">
+        <v>1668</v>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>CALC</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="inlineStr">
+        <is>
+          <t>NB_LGT_PRET_LOC_SOCIAL_1321</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Logements Sociaux Construits entre 2013 et 2020  (8 ans)</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>541</v>
+      </c>
+      <c r="D187" t="n">
+        <v>541</v>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>CALC</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="inlineStr">
+        <is>
+          <t>TX_LGT_PRET_LOC_SOCIAL_1321</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Taux de Construction de LS entre 2013 et 2020  (8 ans)</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>0.3243405275779376</v>
+      </c>
+      <c r="D188" t="n">
+        <v>0.3243</v>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>CUSTOM</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>TAUX</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>CALC</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="inlineStr">
+        <is>
+          <t>TX_LGT_PRET_LOC_SOCIAL_1316</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Taux de Construction de LS entre 2013 et 2016  (8 ans)</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
+        <v>0.5067</v>
+      </c>
+      <c r="D189" t="n">
+        <v>0.5067</v>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>CUSTOM</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>TAUX</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>CALC</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="inlineStr">
+        <is>
+          <t>TX_LGT_PRET_LOC_SOCIAL_1721</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Taux de Construction de LS  entre 2017 et 2021  (8 ans)</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
+        <v>0.1768</v>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>CUSTOM not Implemented</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>CUSTOM</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>TAUX</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>CALC</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="inlineStr">
+        <is>
+          <t>LOG_NON_VENDUS_1320</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Logements Construits non encore vendus en 2020</t>
+        </is>
+      </c>
+      <c r="C191" t="n">
+        <v>579</v>
+      </c>
+      <c r="D191" t="n">
+        <v>579</v>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>CALC</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="inlineStr">
+        <is>
+          <t>HELLO</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>HELLO</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Hello Test</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>Hello Test</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>EQUAL</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
+      </c>
+      <c r="C193" t="n">
+        <v>5</v>
+      </c>
+      <c r="D193" t="n">
+        <v>5</v>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>EQUAL</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="inlineStr">
+        <is>
+          <t>TEST2</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>TEST2</t>
+        </is>
+      </c>
+      <c r="C194" t="n">
+        <v>10</v>
+      </c>
+      <c r="D194" t="n">
+        <v>10</v>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="inlineStr">
+        <is>
+          <t>REGREG</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Projection Region 2050</t>
+        </is>
+      </c>
+      <c r="C195" t="n">
+        <v>93</v>
+      </c>
+      <c r="D195" t="n">
+        <v>93</v>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>EQUAL</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>PROJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="inlineStr">
+        <is>
+          <t>SITADEL_LOCAUX_SUPERFICIE_TERRAIN</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Superficie des Terrains a Destination des Activites</t>
+        </is>
+      </c>
+      <c r="C196" t="n">
+        <v>1915111</v>
+      </c>
+      <c r="D196" t="n">
+        <v>1915111</v>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>SIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="inlineStr">
+        <is>
+          <t>SITADEL_LOCAUX_CHAMBRES</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Nombre de chambres d'hebergement crees</t>
+        </is>
+      </c>
+      <c r="C197" t="n">
+        <v>69</v>
+      </c>
+      <c r="D197" t="n">
+        <v>69</v>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>SIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="inlineStr">
+        <is>
+          <t>SITADEL_LOCAUX_NOUVEAUX</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Nombre de Locaux Nouveaux</t>
+        </is>
+      </c>
+      <c r="C198" t="n">
+        <v>0</v>
+      </c>
+      <c r="D198" t="n">
+        <v>0</v>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>SIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="inlineStr">
+        <is>
+          <t>SITADEL_LOCAUX_SURF_HAB_AVANT</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Surface de plancher de la destination ' Habitation ' existante avant travaux</t>
+        </is>
+      </c>
+      <c r="C199" t="n">
+        <v>9664</v>
+      </c>
+      <c r="D199" t="n">
+        <v>9664</v>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>SIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="inlineStr">
+        <is>
+          <t>SITADEL_LOCAUX_SURF_HAB_CREEE</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Surface de plancher de la destination ' Habitation ' nouvelle construite</t>
+        </is>
+      </c>
+      <c r="C200" t="n">
+        <v>36440</v>
+      </c>
+      <c r="D200" t="n">
+        <v>36440</v>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>SIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="inlineStr">
+        <is>
+          <t>SITADEL_LOCAUX_SURF_HAB_ISSUE_TRANSFO</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Surface de plancher de la destination ' Habitation ' créée par changement de destination</t>
+        </is>
+      </c>
+      <c r="C201" t="n">
+        <v>0</v>
+      </c>
+      <c r="D201" t="n">
+        <v>0</v>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>SIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="inlineStr">
+        <is>
+          <t>SITADEL_LOCAUX_SURF_HAB_DEMOLIE</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Surface de plancher de la destination ' Habitation ' supprimée (démolie)</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>2096</v>
+      </c>
+      <c r="D202" t="n">
+        <v>2096</v>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>SIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="inlineStr">
+        <is>
+          <t>SITADEL_LOCAUX_SURF_HAB_TRANSFORMEE</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Surface de plancher de la destination ' Habitation ' supprimée par changement de destination</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>1993</v>
+      </c>
+      <c r="D203" t="n">
+        <v>1993</v>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>SIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="inlineStr">
+        <is>
+          <t>SITADEL_LOCAUX_SURF_LOC_AVANT</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Surface de plancher de locaux non résidentiels (i.e. autres que d'habitation) existante avant travaux</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>214862</v>
+      </c>
+      <c r="D204" t="n">
+        <v>214862</v>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>SIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="inlineStr">
+        <is>
+          <t>SITADEL_LOCAUX_SURF_LOC_CREEE</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Surface de plancher de locaux non résidentiels (i.e. autres que d'habitation) nouvelle construite</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>84172</v>
+      </c>
+      <c r="D205" t="n">
+        <v>84172</v>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>SIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="inlineStr">
+        <is>
+          <t>SITADEL_LOCAUX_SURF_LOC_ISSUE_TRANSFO</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Surface de plancher de locaux non résidentiels (i.e. autres que d'habitation) créée par changement de destination</t>
+        </is>
+      </c>
+      <c r="C206" t="n">
+        <v>9950</v>
+      </c>
+      <c r="D206" t="n">
+        <v>9950</v>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>SIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="inlineStr">
+        <is>
+          <t>SITADEL_LOCAUX_SURF_LOC_DEMOLIE</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Surface de plancher de locaux non résidentiels (i.e. autres que d'habitation) démolie</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
+        <v>3561</v>
+      </c>
+      <c r="D207" t="n">
+        <v>3561</v>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>SIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="inlineStr">
+        <is>
+          <t>SITADEL_LOCAUX_SURF_LOC_TRANSFORMEE</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Surface de plancher de locaux non résidentiels (i.e. autres que d'habitation) supprimée par changement de destination</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
+        <v>7957</v>
+      </c>
+      <c r="D208" t="n">
+        <v>7957</v>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>SIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="inlineStr">
+        <is>
+          <t>SITADEL_LOCAUX_SURF_HEB_AVANT</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Surface de plancher de la destination ' Hébergement hôtelier ' existante avant travaux</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
+        <v>9492</v>
+      </c>
+      <c r="D209" t="n">
+        <v>9492</v>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>SIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="inlineStr">
+        <is>
+          <t>SITADEL_LOCAUX_SURF_HEB_CREEE</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Surface de plancher de la destination ' Hébergement hôtelier ' nouvelle construite</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>11225</v>
+      </c>
+      <c r="D210" t="n">
+        <v>11225</v>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>SIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="inlineStr">
+        <is>
+          <t>SITADEL_LOCAUX_SURF_HEB_ISSUE_TRANSFO</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Surface de plancher de la destination ' Hébergement hôtelier ' créée par changement de destination</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
+        <v>765</v>
+      </c>
+      <c r="D211" t="n">
+        <v>765</v>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>SIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="inlineStr">
+        <is>
+          <t>SITADEL_LOCAUX_SURF_HEB_DEMOLIE</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Surface de plancher de la destination ' Hébergement hôtelier ' démolie</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>546</v>
+      </c>
+      <c r="D212" t="n">
+        <v>546</v>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>SIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="inlineStr">
+        <is>
+          <t>SITADEL_LOCAUX_SURF_HEB_TRANSFORMEE</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Surface de plancher de la destination ' Hébergement hôtelier ' supprimée par changement de destination</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>237</v>
+      </c>
+      <c r="D213" t="n">
+        <v>237</v>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>SIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="inlineStr">
+        <is>
+          <t>SITADEL_LOCAUX_SURF_BUR_AVANT</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Surface de plancher de la destination ' Bureau ' existante avant travaux</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>14450</v>
+      </c>
+      <c r="D214" t="n">
+        <v>14450</v>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>SIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="inlineStr">
+        <is>
+          <t>SITADEL_LOCAUX_SURF_BUR_CREEE</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Surface de plancher de la destination ' Bureau ' nouvelle construite</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>9589</v>
+      </c>
+      <c r="D215" t="n">
+        <v>9589</v>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>SIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="inlineStr">
+        <is>
+          <t>SITADEL_LOCAUX_SURF_BUR_ISSUE_TRANSFO</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Surface de plancher de la destination ' Bureau ' créée par changement de destination</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
+        <v>1013</v>
+      </c>
+      <c r="D216" t="n">
+        <v>1013</v>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>SIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="inlineStr">
+        <is>
+          <t>SITADEL_LOCAUX_SURF_BUR_DEMOLIE</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Surface de plancher de la destination ' Bureau ' démolie</t>
+        </is>
+      </c>
+      <c r="C217" t="n">
+        <v>68</v>
+      </c>
+      <c r="D217" t="n">
+        <v>68</v>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>SIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="inlineStr">
+        <is>
+          <t>SITADEL_LOCAUX_SURF_BUR_TRANSFORMEE</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Surface de plancher de la destination ' Bureau ' supprimée par changement de destination</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>263</v>
+      </c>
+      <c r="D218" t="n">
+        <v>263</v>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>SIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="inlineStr">
+        <is>
+          <t>SITADEL_LOCAUX_SURF_COM_AVANT</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Surface de plancher de la destination ' Commerce ' existante avant travaux</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
+        <v>10266</v>
+      </c>
+      <c r="D219" t="n">
+        <v>10266</v>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>SIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="inlineStr">
+        <is>
+          <t>SITADEL_LOCAUX_SURF_COM_CREEE</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Surface de plancher de la destination ' Commerce ' nouvelle construite</t>
+        </is>
+      </c>
+      <c r="C220" t="n">
+        <v>22103</v>
+      </c>
+      <c r="D220" t="n">
+        <v>22103</v>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>SIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="inlineStr">
+        <is>
+          <t>SITADEL_LOCAUX_SURF_COM_ISSUE_TRANSFO</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Surface de plancher de la destination ' Commerce ' créée par changement de destination</t>
+        </is>
+      </c>
+      <c r="C221" t="n">
+        <v>6375</v>
+      </c>
+      <c r="D221" t="n">
+        <v>6375</v>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>SIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="inlineStr">
+        <is>
+          <t>SITADEL_LOCAUX_SURF_COM_DEMOLIE</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Surface de plancher de la destination ' Commerce ' démolie</t>
+        </is>
+      </c>
+      <c r="C222" t="n">
+        <v>0</v>
+      </c>
+      <c r="D222" t="n">
+        <v>0</v>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>SIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="inlineStr">
+        <is>
+          <t>SITADEL_LOCAUX_SURF_COM_TRANSFORMEE</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Surface de plancher de la destination ' Commerce ' supprimée par changement de destination</t>
+        </is>
+      </c>
+      <c r="C223" t="n">
+        <v>542</v>
+      </c>
+      <c r="D223" t="n">
+        <v>542</v>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>SIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="inlineStr">
+        <is>
+          <t>SITADEL_LOCAUX_SURF_ART_AVANT</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Surface de plancher de la destination ' Artisanat ' existante avant travaux</t>
+        </is>
+      </c>
+      <c r="C224" t="n">
+        <v>13002</v>
+      </c>
+      <c r="D224" t="n">
+        <v>13002</v>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>SIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="inlineStr">
+        <is>
+          <t>SITADEL_LOCAUX_SURF_ART_CREEE</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Surface de plancher de la destination ' Artisanat ' nouvelle construite</t>
+        </is>
+      </c>
+      <c r="C225" t="n">
+        <v>9282</v>
+      </c>
+      <c r="D225" t="n">
+        <v>9282</v>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>SIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="inlineStr">
+        <is>
+          <t>SITADEL_LOCAUX_SURF_ART_ISSUE_TRANSFO</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Surface de plancher de la destination ' Artisanat ' créée par changement de destination</t>
+        </is>
+      </c>
+      <c r="C226" t="n">
+        <v>371</v>
+      </c>
+      <c r="D226" t="n">
+        <v>371</v>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>SIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="inlineStr">
+        <is>
+          <t>SITADEL_LOCAUX_SURF_ART_DEMOLIE</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Surface de plancher de la destination ' Artisanat ' démolie</t>
+        </is>
+      </c>
+      <c r="C227" t="n">
+        <v>0</v>
+      </c>
+      <c r="D227" t="n">
+        <v>0</v>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>SIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="inlineStr">
+        <is>
+          <t>SITADEL_LOCAUX_SURF_ART_TRANSFORMEE</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Surface de plancher de la destination ' Artisanat ' supprimée par changement de destination</t>
+        </is>
+      </c>
+      <c r="C228" t="n">
+        <v>0</v>
+      </c>
+      <c r="D228" t="n">
+        <v>0</v>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>SIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="inlineStr">
+        <is>
+          <t>SITADEL_LOCAUX_SURF_IND_AVANT</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Surface de plancher de la destination ' Industrie ' existante avant travaux</t>
+        </is>
+      </c>
+      <c r="C229" t="n">
+        <v>2788</v>
+      </c>
+      <c r="D229" t="n">
+        <v>2788</v>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>SIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="inlineStr">
+        <is>
+          <t>SITADEL_LOCAUX_SURF_IND_CREEE</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Surface de plancher de la destination ' Industrie ' nouvelle construite</t>
+        </is>
+      </c>
+      <c r="C230" t="n">
+        <v>217</v>
+      </c>
+      <c r="D230" t="n">
+        <v>217</v>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>SIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="inlineStr">
+        <is>
+          <t>SITADEL_LOCAUX_SURF_IND_ISSUE_TRANSFO</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Surface de plancher de la destination ' Industrie ' créée par changement de destination</t>
+        </is>
+      </c>
+      <c r="C231" t="n">
+        <v>0</v>
+      </c>
+      <c r="D231" t="n">
+        <v>0</v>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>SIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="inlineStr">
+        <is>
+          <t>SITADEL_LOCAUX_SURF_IND_DEMOLIE</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Surface de plancher de la destination ' Industrie ' démolie</t>
+        </is>
+      </c>
+      <c r="C232" t="n">
+        <v>2237</v>
+      </c>
+      <c r="D232" t="n">
+        <v>2237</v>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>SIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="inlineStr">
+        <is>
+          <t>SITADEL_LOCAUX_SURF_IND_TRANSFORMEE</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Surface de plancher de la destination ' Industrie ' supprimée par changement de destination</t>
+        </is>
+      </c>
+      <c r="C233" t="n">
+        <v>0</v>
+      </c>
+      <c r="D233" t="n">
+        <v>0</v>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>SIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="inlineStr">
+        <is>
+          <t>SITADEL_LOCAUX_SURF_AGR_AVANT</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Surface de plancher de la destination ' Exploitation agricole ou forestière ' existante avant travaux</t>
+        </is>
+      </c>
+      <c r="C234" t="n">
+        <v>478</v>
+      </c>
+      <c r="D234" t="n">
+        <v>478</v>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>SIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="inlineStr">
+        <is>
+          <t>SITADEL_LOCAUX_SURF_AGR_CREEE</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Surface de plancher de la destination ' Exploitation agricole ou forestière ' nouvelle construite</t>
+        </is>
+      </c>
+      <c r="C235" t="n">
+        <v>1053</v>
+      </c>
+      <c r="D235" t="n">
+        <v>1053</v>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>SIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="inlineStr">
+        <is>
+          <t>SITADEL_LOCAUX_SURF_AGR_ISSUE_TRANSFO</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Surface de plancher de la destination ' Exploitation agricole ou forestière ' créée par changement de destination</t>
+        </is>
+      </c>
+      <c r="C236" t="n">
+        <v>0</v>
+      </c>
+      <c r="D236" t="n">
+        <v>0</v>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>SIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="inlineStr">
+        <is>
+          <t>SITADEL_LOCAUX_SURF_AGR_DEMOLIE</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Surface de plancher de la destination ' Exploitation agricole ou forestière ' démolie</t>
+        </is>
+      </c>
+      <c r="C237" t="n">
+        <v>0</v>
+      </c>
+      <c r="D237" t="n">
+        <v>0</v>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>SIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="inlineStr">
+        <is>
+          <t>SITADEL_LOCAUX_SURF_AGR_TRANSFORMEE</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Surface de plancher de la destination ' Exploitation agricole ou forestière ' supprimée par changement de destination</t>
+        </is>
+      </c>
+      <c r="C238" t="n">
+        <v>395</v>
+      </c>
+      <c r="D238" t="n">
+        <v>395</v>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>SIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="inlineStr">
+        <is>
+          <t>SITADEL_LOCAUX_SURF_ENT_AVANT</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Surface de plancher de la destination ' Entrepôt ' existante avant travaux</t>
+        </is>
+      </c>
+      <c r="C239" t="n">
+        <v>27672</v>
+      </c>
+      <c r="D239" t="n">
+        <v>27672</v>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>SIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="inlineStr">
+        <is>
+          <t>SITADEL_LOCAUX_SURF_ENT_CREEE</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Surface de plancher de la destination ' Entrepôt ' nouvelle construite</t>
+        </is>
+      </c>
+      <c r="C240" t="n">
+        <v>18166</v>
+      </c>
+      <c r="D240" t="n">
+        <v>18166</v>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>SIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="inlineStr">
+        <is>
+          <t>SITADEL_LOCAUX_SURF_ENT_ISSUE_TRANSFO</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Surface de plancher de la destination ' Entrepôt ' créée par changement de destination</t>
+        </is>
+      </c>
+      <c r="C241" t="n">
+        <v>352</v>
+      </c>
+      <c r="D241" t="n">
+        <v>352</v>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>SIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="inlineStr">
+        <is>
+          <t>SITADEL_LOCAUX_SURF_ENT_DEMOLIE</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Surface de plancher de la destination ' Entrepôt ' démolie</t>
+        </is>
+      </c>
+      <c r="C242" t="n">
+        <v>24</v>
+      </c>
+      <c r="D242" t="n">
+        <v>24</v>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>SIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="inlineStr">
+        <is>
+          <t>SITADEL_LOCAUX_SURF_ENT_TRANSFORMEE</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Surface de plancher de la destination ' Entrepôt ' supprimée par changement de destination</t>
+        </is>
+      </c>
+      <c r="C243" t="n">
+        <v>5889</v>
+      </c>
+      <c r="D243" t="n">
+        <v>5889</v>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>SIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="inlineStr">
+        <is>
+          <t>SITADEL_LOCAUX_SURF_PUB_AVANT</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Surface de plancher de la destination ' Services publics ou d'intérêt collectif' existante avant travaux</t>
+        </is>
+      </c>
+      <c r="C244" t="n">
+        <v>136727</v>
+      </c>
+      <c r="D244" t="n">
+        <v>136727</v>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>SIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="inlineStr">
+        <is>
+          <t>SITADEL_LOCAUX_SURF_PUB_CREEE</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Surface de plancher de la destination ' Services publics ou d'intérêt collectif ' nouvelle construite</t>
+        </is>
+      </c>
+      <c r="C245" t="n">
+        <v>12537</v>
+      </c>
+      <c r="D245" t="n">
+        <v>12537</v>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>SIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="inlineStr">
+        <is>
+          <t>SITADEL_LOCAUX_SURF_PUB_ISSUE_TRANSFO</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Surface de plancher de la destination ' Services publics ou d'intérêt collectif ' créée par changement de destination</t>
+        </is>
+      </c>
+      <c r="C246" t="n">
+        <v>1074</v>
+      </c>
+      <c r="D246" t="n">
+        <v>1074</v>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>SIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="inlineStr">
+        <is>
+          <t>SITADEL_LOCAUX_SURF_PUB_DEMOLIE</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Surface de plancher de la destination ' Services publics ou d'intérêt collectif ' démolie</t>
+        </is>
+      </c>
+      <c r="C247" t="n">
+        <v>686</v>
+      </c>
+      <c r="D247" t="n">
+        <v>686</v>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>SIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="inlineStr">
+        <is>
+          <t>SITADEL_LOCAUX_SURF_PUB_TRANSFORMEE</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Surface de plancher de la destination ' Services publics ou d'intérêt collectif ' supprimée par changement de destination</t>
+        </is>
+      </c>
+      <c r="C248" t="n">
+        <v>631</v>
+      </c>
+      <c r="D248" t="n">
+        <v>631</v>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>SIT</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>key</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>message</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>VALIDATE</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Test Diagnostic</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Test Diagnostic OK</t>
+        </is>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>TEST2</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Test2 Diagnostic2</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Test Diagnostic NOK</t>
+        </is>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>TEST4</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Test2 Diagnostic4</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>(5+6)==11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>C'est 11</t>
+        </is>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>TEST_REG</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Test Region</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>REG=="93"</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>En Paca</t>
+        </is>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>TEST_POP</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Test Population</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>P08_POP&gt;15000</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>15000</t>
+        </is>
+      </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/output/COMMUNE_MOUGINS_06085.xlsx
+++ b/output/COMMUNE_MOUGINS_06085.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IN7"/>
+  <dimension ref="A1:JH8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1403,272 +1403,372 @@
       </c>
       <c r="GM1" s="1" t="inlineStr">
         <is>
-          <t>REGREG</t>
+          <t>SRU_MOD3565_2017</t>
         </is>
       </c>
       <c r="GN1" s="1" t="inlineStr">
         <is>
+          <t>SRU_MOD3565_2020</t>
+        </is>
+      </c>
+      <c r="GO1" s="1" t="inlineStr">
+        <is>
+          <t>SRU_MOD3565_CARENCE</t>
+        </is>
+      </c>
+      <c r="GP1" s="1" t="inlineStr">
+        <is>
+          <t>SRU_EVOLUTION_EN_RP</t>
+        </is>
+      </c>
+      <c r="GQ1" s="1" t="inlineStr">
+        <is>
+          <t>SRU_EVOLUTION_CARENCE</t>
+        </is>
+      </c>
+      <c r="GR1" s="1" t="inlineStr">
+        <is>
+          <t>SRU_LOGEMENTS_SRU_CONSTRUITS</t>
+        </is>
+      </c>
+      <c r="GS1" s="1" t="inlineStr">
+        <is>
+          <t>SRU_EN_CARENCE</t>
+        </is>
+      </c>
+      <c r="GT1" s="1" t="inlineStr">
+        <is>
+          <t>LATITUDE</t>
+        </is>
+      </c>
+      <c r="GU1" s="1" t="inlineStr">
+        <is>
+          <t>LONGITUDE</t>
+        </is>
+      </c>
+      <c r="GV1" s="1" t="inlineStr">
+        <is>
+          <t>URL_CARTE</t>
+        </is>
+      </c>
+      <c r="GW1" s="1" t="inlineStr">
+        <is>
+          <t>URL_CARTE_ADMINISTRATIVE</t>
+        </is>
+      </c>
+      <c r="GX1" s="1" t="inlineStr">
+        <is>
+          <t>URL_CARTE_URBANISME</t>
+        </is>
+      </c>
+      <c r="GY1" s="1" t="inlineStr">
+        <is>
+          <t>URL_CARTE_SITADEL</t>
+        </is>
+      </c>
+      <c r="GZ1" s="1" t="inlineStr">
+        <is>
+          <t>URL_CARTE_VIGIBATI</t>
+        </is>
+      </c>
+      <c r="HA1" s="1" t="inlineStr">
+        <is>
+          <t>URL_CARTE_LOGEMENT_SOCIAL</t>
+        </is>
+      </c>
+      <c r="HB1" s="1" t="inlineStr">
+        <is>
           <t>SITADEL_LOCAUX_SUPERFICIE_TERRAIN</t>
         </is>
       </c>
-      <c r="GO1" s="1" t="inlineStr">
+      <c r="HC1" s="1" t="inlineStr">
         <is>
           <t>SITADEL_LOCAUX_CHAMBRES</t>
         </is>
       </c>
-      <c r="GP1" s="1" t="inlineStr">
+      <c r="HD1" s="1" t="inlineStr">
         <is>
           <t>SITADEL_LOCAUX_NOUVEAUX</t>
         </is>
       </c>
-      <c r="GQ1" s="1" t="inlineStr">
+      <c r="HE1" s="1" t="inlineStr">
         <is>
           <t>SITADEL_LOCAUX_SURF_HAB_AVANT</t>
         </is>
       </c>
-      <c r="GR1" s="1" t="inlineStr">
+      <c r="HF1" s="1" t="inlineStr">
         <is>
           <t>SITADEL_LOCAUX_SURF_HAB_CREEE</t>
         </is>
       </c>
-      <c r="GS1" s="1" t="inlineStr">
+      <c r="HG1" s="1" t="inlineStr">
         <is>
           <t>SITADEL_LOCAUX_SURF_HAB_ISSUE_TRANSFO</t>
         </is>
       </c>
-      <c r="GT1" s="1" t="inlineStr">
+      <c r="HH1" s="1" t="inlineStr">
         <is>
           <t>SITADEL_LOCAUX_SURF_HAB_DEMOLIE</t>
         </is>
       </c>
-      <c r="GU1" s="1" t="inlineStr">
+      <c r="HI1" s="1" t="inlineStr">
         <is>
           <t>SITADEL_LOCAUX_SURF_HAB_TRANSFORMEE</t>
         </is>
       </c>
-      <c r="GV1" s="1" t="inlineStr">
+      <c r="HJ1" s="1" t="inlineStr">
         <is>
           <t>SITADEL_LOCAUX_SURF_LOC_AVANT</t>
         </is>
       </c>
-      <c r="GW1" s="1" t="inlineStr">
+      <c r="HK1" s="1" t="inlineStr">
         <is>
           <t>SITADEL_LOCAUX_SURF_LOC_CREEE</t>
         </is>
       </c>
-      <c r="GX1" s="1" t="inlineStr">
+      <c r="HL1" s="1" t="inlineStr">
         <is>
           <t>SITADEL_LOCAUX_SURF_LOC_ISSUE_TRANSFO</t>
         </is>
       </c>
-      <c r="GY1" s="1" t="inlineStr">
+      <c r="HM1" s="1" t="inlineStr">
         <is>
           <t>SITADEL_LOCAUX_SURF_LOC_DEMOLIE</t>
         </is>
       </c>
-      <c r="GZ1" s="1" t="inlineStr">
+      <c r="HN1" s="1" t="inlineStr">
         <is>
           <t>SITADEL_LOCAUX_SURF_LOC_TRANSFORMEE</t>
         </is>
       </c>
-      <c r="HA1" s="1" t="inlineStr">
+      <c r="HO1" s="1" t="inlineStr">
         <is>
           <t>SITADEL_LOCAUX_SURF_HEB_AVANT</t>
         </is>
       </c>
-      <c r="HB1" s="1" t="inlineStr">
+      <c r="HP1" s="1" t="inlineStr">
         <is>
           <t>SITADEL_LOCAUX_SURF_HEB_CREEE</t>
         </is>
       </c>
-      <c r="HC1" s="1" t="inlineStr">
+      <c r="HQ1" s="1" t="inlineStr">
         <is>
           <t>SITADEL_LOCAUX_SURF_HEB_ISSUE_TRANSFO</t>
         </is>
       </c>
-      <c r="HD1" s="1" t="inlineStr">
+      <c r="HR1" s="1" t="inlineStr">
         <is>
           <t>SITADEL_LOCAUX_SURF_HEB_DEMOLIE</t>
         </is>
       </c>
-      <c r="HE1" s="1" t="inlineStr">
+      <c r="HS1" s="1" t="inlineStr">
         <is>
           <t>SITADEL_LOCAUX_SURF_HEB_TRANSFORMEE</t>
         </is>
       </c>
-      <c r="HF1" s="1" t="inlineStr">
+      <c r="HT1" s="1" t="inlineStr">
         <is>
           <t>SITADEL_LOCAUX_SURF_BUR_AVANT</t>
         </is>
       </c>
-      <c r="HG1" s="1" t="inlineStr">
+      <c r="HU1" s="1" t="inlineStr">
         <is>
           <t>SITADEL_LOCAUX_SURF_BUR_CREEE</t>
         </is>
       </c>
-      <c r="HH1" s="1" t="inlineStr">
+      <c r="HV1" s="1" t="inlineStr">
         <is>
           <t>SITADEL_LOCAUX_SURF_BUR_ISSUE_TRANSFO</t>
         </is>
       </c>
-      <c r="HI1" s="1" t="inlineStr">
+      <c r="HW1" s="1" t="inlineStr">
         <is>
           <t>SITADEL_LOCAUX_SURF_BUR_DEMOLIE</t>
         </is>
       </c>
-      <c r="HJ1" s="1" t="inlineStr">
+      <c r="HX1" s="1" t="inlineStr">
         <is>
           <t>SITADEL_LOCAUX_SURF_BUR_TRANSFORMEE</t>
         </is>
       </c>
-      <c r="HK1" s="1" t="inlineStr">
+      <c r="HY1" s="1" t="inlineStr">
         <is>
           <t>SITADEL_LOCAUX_SURF_COM_AVANT</t>
         </is>
       </c>
-      <c r="HL1" s="1" t="inlineStr">
+      <c r="HZ1" s="1" t="inlineStr">
         <is>
           <t>SITADEL_LOCAUX_SURF_COM_CREEE</t>
         </is>
       </c>
-      <c r="HM1" s="1" t="inlineStr">
+      <c r="IA1" s="1" t="inlineStr">
         <is>
           <t>SITADEL_LOCAUX_SURF_COM_ISSUE_TRANSFO</t>
         </is>
       </c>
-      <c r="HN1" s="1" t="inlineStr">
+      <c r="IB1" s="1" t="inlineStr">
         <is>
           <t>SITADEL_LOCAUX_SURF_COM_DEMOLIE</t>
         </is>
       </c>
-      <c r="HO1" s="1" t="inlineStr">
+      <c r="IC1" s="1" t="inlineStr">
         <is>
           <t>SITADEL_LOCAUX_SURF_COM_TRANSFORMEE</t>
         </is>
       </c>
-      <c r="HP1" s="1" t="inlineStr">
+      <c r="ID1" s="1" t="inlineStr">
         <is>
           <t>SITADEL_LOCAUX_SURF_ART_AVANT</t>
         </is>
       </c>
-      <c r="HQ1" s="1" t="inlineStr">
+      <c r="IE1" s="1" t="inlineStr">
         <is>
           <t>SITADEL_LOCAUX_SURF_ART_CREEE</t>
         </is>
       </c>
-      <c r="HR1" s="1" t="inlineStr">
+      <c r="IF1" s="1" t="inlineStr">
         <is>
           <t>SITADEL_LOCAUX_SURF_ART_ISSUE_TRANSFO</t>
         </is>
       </c>
-      <c r="HS1" s="1" t="inlineStr">
+      <c r="IG1" s="1" t="inlineStr">
         <is>
           <t>SITADEL_LOCAUX_SURF_ART_DEMOLIE</t>
         </is>
       </c>
-      <c r="HT1" s="1" t="inlineStr">
+      <c r="IH1" s="1" t="inlineStr">
         <is>
           <t>SITADEL_LOCAUX_SURF_ART_TRANSFORMEE</t>
         </is>
       </c>
-      <c r="HU1" s="1" t="inlineStr">
+      <c r="II1" s="1" t="inlineStr">
         <is>
           <t>SITADEL_LOCAUX_SURF_IND_AVANT</t>
         </is>
       </c>
-      <c r="HV1" s="1" t="inlineStr">
+      <c r="IJ1" s="1" t="inlineStr">
         <is>
           <t>SITADEL_LOCAUX_SURF_IND_CREEE</t>
         </is>
       </c>
-      <c r="HW1" s="1" t="inlineStr">
+      <c r="IK1" s="1" t="inlineStr">
         <is>
           <t>SITADEL_LOCAUX_SURF_IND_ISSUE_TRANSFO</t>
         </is>
       </c>
-      <c r="HX1" s="1" t="inlineStr">
+      <c r="IL1" s="1" t="inlineStr">
         <is>
           <t>SITADEL_LOCAUX_SURF_IND_DEMOLIE</t>
         </is>
       </c>
-      <c r="HY1" s="1" t="inlineStr">
+      <c r="IM1" s="1" t="inlineStr">
         <is>
           <t>SITADEL_LOCAUX_SURF_IND_TRANSFORMEE</t>
         </is>
       </c>
-      <c r="HZ1" s="1" t="inlineStr">
+      <c r="IN1" s="1" t="inlineStr">
         <is>
           <t>SITADEL_LOCAUX_SURF_AGR_AVANT</t>
         </is>
       </c>
-      <c r="IA1" s="1" t="inlineStr">
+      <c r="IO1" s="1" t="inlineStr">
         <is>
           <t>SITADEL_LOCAUX_SURF_AGR_CREEE</t>
         </is>
       </c>
-      <c r="IB1" s="1" t="inlineStr">
+      <c r="IP1" s="1" t="inlineStr">
         <is>
           <t>SITADEL_LOCAUX_SURF_AGR_ISSUE_TRANSFO</t>
         </is>
       </c>
-      <c r="IC1" s="1" t="inlineStr">
+      <c r="IQ1" s="1" t="inlineStr">
         <is>
           <t>SITADEL_LOCAUX_SURF_AGR_DEMOLIE</t>
         </is>
       </c>
-      <c r="ID1" s="1" t="inlineStr">
+      <c r="IR1" s="1" t="inlineStr">
         <is>
           <t>SITADEL_LOCAUX_SURF_AGR_TRANSFORMEE</t>
         </is>
       </c>
-      <c r="IE1" s="1" t="inlineStr">
+      <c r="IS1" s="1" t="inlineStr">
         <is>
           <t>SITADEL_LOCAUX_SURF_ENT_AVANT</t>
         </is>
       </c>
-      <c r="IF1" s="1" t="inlineStr">
+      <c r="IT1" s="1" t="inlineStr">
         <is>
           <t>SITADEL_LOCAUX_SURF_ENT_CREEE</t>
         </is>
       </c>
-      <c r="IG1" s="1" t="inlineStr">
+      <c r="IU1" s="1" t="inlineStr">
         <is>
           <t>SITADEL_LOCAUX_SURF_ENT_ISSUE_TRANSFO</t>
         </is>
       </c>
-      <c r="IH1" s="1" t="inlineStr">
+      <c r="IV1" s="1" t="inlineStr">
         <is>
           <t>SITADEL_LOCAUX_SURF_ENT_DEMOLIE</t>
         </is>
       </c>
-      <c r="II1" s="1" t="inlineStr">
+      <c r="IW1" s="1" t="inlineStr">
         <is>
           <t>SITADEL_LOCAUX_SURF_ENT_TRANSFORMEE</t>
         </is>
       </c>
-      <c r="IJ1" s="1" t="inlineStr">
+      <c r="IX1" s="1" t="inlineStr">
         <is>
           <t>SITADEL_LOCAUX_SURF_PUB_AVANT</t>
         </is>
       </c>
-      <c r="IK1" s="1" t="inlineStr">
+      <c r="IY1" s="1" t="inlineStr">
         <is>
           <t>SITADEL_LOCAUX_SURF_PUB_CREEE</t>
         </is>
       </c>
-      <c r="IL1" s="1" t="inlineStr">
+      <c r="IZ1" s="1" t="inlineStr">
         <is>
           <t>SITADEL_LOCAUX_SURF_PUB_ISSUE_TRANSFO</t>
         </is>
       </c>
-      <c r="IM1" s="1" t="inlineStr">
+      <c r="JA1" s="1" t="inlineStr">
         <is>
           <t>SITADEL_LOCAUX_SURF_PUB_DEMOLIE</t>
         </is>
       </c>
-      <c r="IN1" s="1" t="inlineStr">
+      <c r="JB1" s="1" t="inlineStr">
         <is>
           <t>SITADEL_LOCAUX_SURF_PUB_TRANSFORMEE</t>
+        </is>
+      </c>
+      <c r="JC1" s="1" t="inlineStr">
+        <is>
+          <t>URL_SOURCE_ARTIFICIALISATION</t>
+        </is>
+      </c>
+      <c r="JD1" s="1" t="inlineStr">
+        <is>
+          <t>URL_SOURCE_SRU</t>
+        </is>
+      </c>
+      <c r="JE1" s="1" t="inlineStr">
+        <is>
+          <t>URL_SOURCE_SITADEL</t>
+        </is>
+      </c>
+      <c r="JF1" s="1" t="inlineStr">
+        <is>
+          <t>URL_SOURCE_COMMUNES</t>
+        </is>
+      </c>
+      <c r="JG1" s="1" t="inlineStr">
+        <is>
+          <t>URL_SOURCE_PROJECTIONS</t>
+        </is>
+      </c>
+      <c r="JH1" s="1" t="inlineStr">
+        <is>
+          <t>URL_SOURCE_PROJECTIONS_PACA</t>
         </is>
       </c>
     </row>
@@ -2645,272 +2745,372 @@
       </c>
       <c r="GM2" t="inlineStr">
         <is>
-          <t>Projection Region 2050</t>
+          <t>Logements a Construire en Modele 35%/65% sur les objectifs SRU de 2017</t>
         </is>
       </c>
       <c r="GN2" t="inlineStr">
         <is>
+          <t>Logements a Construire en Modele 35%/65% sur les objectifs SRU de 2020</t>
+        </is>
+      </c>
+      <c r="GO2" t="inlineStr">
+        <is>
+          <t>Logements a Construire en Modele 35%/65% pour combler la carence SRU</t>
+        </is>
+      </c>
+      <c r="GP2" t="inlineStr">
+        <is>
+          <t>Evolution du nombre de RP entre 2017 et 2020</t>
+        </is>
+      </c>
+      <c r="GQ2" t="inlineStr">
+        <is>
+          <t>Evolution de la carence SRU 2017 et 2020</t>
+        </is>
+      </c>
+      <c r="GR2" t="inlineStr">
+        <is>
+          <t>Logements SRU Construits</t>
+        </is>
+      </c>
+      <c r="GS2" t="inlineStr">
+        <is>
+          <t>Nombre de Communes en Carence.</t>
+        </is>
+      </c>
+      <c r="GT2" t="inlineStr">
+        <is>
+          <t>Latitude Commune</t>
+        </is>
+      </c>
+      <c r="GU2" t="inlineStr">
+        <is>
+          <t>Longitude Commune</t>
+        </is>
+      </c>
+      <c r="GV2" t="inlineStr">
+        <is>
+          <t>Lien pour la Carte</t>
+        </is>
+      </c>
+      <c r="GW2" t="inlineStr">
+        <is>
+          <t>Lien pour la Carte Administrative</t>
+        </is>
+      </c>
+      <c r="GX2" t="inlineStr">
+        <is>
+          <t>Lien pour la Carte Geoportail Urbanisme</t>
+        </is>
+      </c>
+      <c r="GY2" t="inlineStr">
+        <is>
+          <t>Lien pour la Carte Sitadel Koumoul</t>
+        </is>
+      </c>
+      <c r="GZ2" t="inlineStr">
+        <is>
+          <t>Lien pour la Carte Sitadel Vigibati</t>
+        </is>
+      </c>
+      <c r="HA2" t="inlineStr">
+        <is>
+          <t>Lien pour la Carte Logement Social</t>
+        </is>
+      </c>
+      <c r="HB2" t="inlineStr">
+        <is>
           <t>Superficie des Terrains a Destination des Activites</t>
         </is>
       </c>
-      <c r="GO2" t="inlineStr">
+      <c r="HC2" t="inlineStr">
         <is>
           <t>Nombre de chambres d'hebergement crees</t>
         </is>
       </c>
-      <c r="GP2" t="inlineStr">
+      <c r="HD2" t="inlineStr">
         <is>
           <t>Nombre de Locaux Nouveaux</t>
         </is>
       </c>
-      <c r="GQ2" t="inlineStr">
+      <c r="HE2" t="inlineStr">
         <is>
           <t>Surface de plancher de la destination ' Habitation ' existante avant travaux</t>
         </is>
       </c>
-      <c r="GR2" t="inlineStr">
+      <c r="HF2" t="inlineStr">
         <is>
           <t>Surface de plancher de la destination ' Habitation ' nouvelle construite</t>
         </is>
       </c>
-      <c r="GS2" t="inlineStr">
+      <c r="HG2" t="inlineStr">
         <is>
           <t>Surface de plancher de la destination ' Habitation ' créée par changement de destination</t>
         </is>
       </c>
-      <c r="GT2" t="inlineStr">
+      <c r="HH2" t="inlineStr">
         <is>
           <t>Surface de plancher de la destination ' Habitation ' supprimée (démolie)</t>
         </is>
       </c>
-      <c r="GU2" t="inlineStr">
+      <c r="HI2" t="inlineStr">
         <is>
           <t>Surface de plancher de la destination ' Habitation ' supprimée par changement de destination</t>
         </is>
       </c>
-      <c r="GV2" t="inlineStr">
+      <c r="HJ2" t="inlineStr">
         <is>
           <t>Surface de plancher de locaux non résidentiels (i.e. autres que d'habitation) existante avant travaux</t>
         </is>
       </c>
-      <c r="GW2" t="inlineStr">
+      <c r="HK2" t="inlineStr">
         <is>
           <t>Surface de plancher de locaux non résidentiels (i.e. autres que d'habitation) nouvelle construite</t>
         </is>
       </c>
-      <c r="GX2" t="inlineStr">
+      <c r="HL2" t="inlineStr">
         <is>
           <t>Surface de plancher de locaux non résidentiels (i.e. autres que d'habitation) créée par changement de destination</t>
         </is>
       </c>
-      <c r="GY2" t="inlineStr">
+      <c r="HM2" t="inlineStr">
         <is>
           <t>Surface de plancher de locaux non résidentiels (i.e. autres que d'habitation) démolie</t>
         </is>
       </c>
-      <c r="GZ2" t="inlineStr">
+      <c r="HN2" t="inlineStr">
         <is>
           <t>Surface de plancher de locaux non résidentiels (i.e. autres que d'habitation) supprimée par changement de destination</t>
         </is>
       </c>
-      <c r="HA2" t="inlineStr">
+      <c r="HO2" t="inlineStr">
         <is>
           <t>Surface de plancher de la destination ' Hébergement hôtelier ' existante avant travaux</t>
         </is>
       </c>
-      <c r="HB2" t="inlineStr">
+      <c r="HP2" t="inlineStr">
         <is>
           <t>Surface de plancher de la destination ' Hébergement hôtelier ' nouvelle construite</t>
         </is>
       </c>
-      <c r="HC2" t="inlineStr">
+      <c r="HQ2" t="inlineStr">
         <is>
           <t>Surface de plancher de la destination ' Hébergement hôtelier ' créée par changement de destination</t>
         </is>
       </c>
-      <c r="HD2" t="inlineStr">
+      <c r="HR2" t="inlineStr">
         <is>
           <t>Surface de plancher de la destination ' Hébergement hôtelier ' démolie</t>
         </is>
       </c>
-      <c r="HE2" t="inlineStr">
+      <c r="HS2" t="inlineStr">
         <is>
           <t>Surface de plancher de la destination ' Hébergement hôtelier ' supprimée par changement de destination</t>
         </is>
       </c>
-      <c r="HF2" t="inlineStr">
+      <c r="HT2" t="inlineStr">
         <is>
           <t>Surface de plancher de la destination ' Bureau ' existante avant travaux</t>
         </is>
       </c>
-      <c r="HG2" t="inlineStr">
+      <c r="HU2" t="inlineStr">
         <is>
           <t>Surface de plancher de la destination ' Bureau ' nouvelle construite</t>
         </is>
       </c>
-      <c r="HH2" t="inlineStr">
+      <c r="HV2" t="inlineStr">
         <is>
           <t>Surface de plancher de la destination ' Bureau ' créée par changement de destination</t>
         </is>
       </c>
-      <c r="HI2" t="inlineStr">
+      <c r="HW2" t="inlineStr">
         <is>
           <t>Surface de plancher de la destination ' Bureau ' démolie</t>
         </is>
       </c>
-      <c r="HJ2" t="inlineStr">
+      <c r="HX2" t="inlineStr">
         <is>
           <t>Surface de plancher de la destination ' Bureau ' supprimée par changement de destination</t>
         </is>
       </c>
-      <c r="HK2" t="inlineStr">
+      <c r="HY2" t="inlineStr">
         <is>
           <t>Surface de plancher de la destination ' Commerce ' existante avant travaux</t>
         </is>
       </c>
-      <c r="HL2" t="inlineStr">
+      <c r="HZ2" t="inlineStr">
         <is>
           <t>Surface de plancher de la destination ' Commerce ' nouvelle construite</t>
         </is>
       </c>
-      <c r="HM2" t="inlineStr">
+      <c r="IA2" t="inlineStr">
         <is>
           <t>Surface de plancher de la destination ' Commerce ' créée par changement de destination</t>
         </is>
       </c>
-      <c r="HN2" t="inlineStr">
+      <c r="IB2" t="inlineStr">
         <is>
           <t>Surface de plancher de la destination ' Commerce ' démolie</t>
         </is>
       </c>
-      <c r="HO2" t="inlineStr">
+      <c r="IC2" t="inlineStr">
         <is>
           <t>Surface de plancher de la destination ' Commerce ' supprimée par changement de destination</t>
         </is>
       </c>
-      <c r="HP2" t="inlineStr">
+      <c r="ID2" t="inlineStr">
         <is>
           <t>Surface de plancher de la destination ' Artisanat ' existante avant travaux</t>
         </is>
       </c>
-      <c r="HQ2" t="inlineStr">
+      <c r="IE2" t="inlineStr">
         <is>
           <t>Surface de plancher de la destination ' Artisanat ' nouvelle construite</t>
         </is>
       </c>
-      <c r="HR2" t="inlineStr">
+      <c r="IF2" t="inlineStr">
         <is>
           <t>Surface de plancher de la destination ' Artisanat ' créée par changement de destination</t>
         </is>
       </c>
-      <c r="HS2" t="inlineStr">
+      <c r="IG2" t="inlineStr">
         <is>
           <t>Surface de plancher de la destination ' Artisanat ' démolie</t>
         </is>
       </c>
-      <c r="HT2" t="inlineStr">
+      <c r="IH2" t="inlineStr">
         <is>
           <t>Surface de plancher de la destination ' Artisanat ' supprimée par changement de destination</t>
         </is>
       </c>
-      <c r="HU2" t="inlineStr">
+      <c r="II2" t="inlineStr">
         <is>
           <t>Surface de plancher de la destination ' Industrie ' existante avant travaux</t>
         </is>
       </c>
-      <c r="HV2" t="inlineStr">
+      <c r="IJ2" t="inlineStr">
         <is>
           <t>Surface de plancher de la destination ' Industrie ' nouvelle construite</t>
         </is>
       </c>
-      <c r="HW2" t="inlineStr">
+      <c r="IK2" t="inlineStr">
         <is>
           <t>Surface de plancher de la destination ' Industrie ' créée par changement de destination</t>
         </is>
       </c>
-      <c r="HX2" t="inlineStr">
+      <c r="IL2" t="inlineStr">
         <is>
           <t>Surface de plancher de la destination ' Industrie ' démolie</t>
         </is>
       </c>
-      <c r="HY2" t="inlineStr">
+      <c r="IM2" t="inlineStr">
         <is>
           <t>Surface de plancher de la destination ' Industrie ' supprimée par changement de destination</t>
         </is>
       </c>
-      <c r="HZ2" t="inlineStr">
+      <c r="IN2" t="inlineStr">
         <is>
           <t>Surface de plancher de la destination ' Exploitation agricole ou forestière ' existante avant travaux</t>
         </is>
       </c>
-      <c r="IA2" t="inlineStr">
+      <c r="IO2" t="inlineStr">
         <is>
           <t>Surface de plancher de la destination ' Exploitation agricole ou forestière ' nouvelle construite</t>
         </is>
       </c>
-      <c r="IB2" t="inlineStr">
+      <c r="IP2" t="inlineStr">
         <is>
           <t>Surface de plancher de la destination ' Exploitation agricole ou forestière ' créée par changement de destination</t>
         </is>
       </c>
-      <c r="IC2" t="inlineStr">
+      <c r="IQ2" t="inlineStr">
         <is>
           <t>Surface de plancher de la destination ' Exploitation agricole ou forestière ' démolie</t>
         </is>
       </c>
-      <c r="ID2" t="inlineStr">
+      <c r="IR2" t="inlineStr">
         <is>
           <t>Surface de plancher de la destination ' Exploitation agricole ou forestière ' supprimée par changement de destination</t>
         </is>
       </c>
-      <c r="IE2" t="inlineStr">
+      <c r="IS2" t="inlineStr">
         <is>
           <t>Surface de plancher de la destination ' Entrepôt ' existante avant travaux</t>
         </is>
       </c>
-      <c r="IF2" t="inlineStr">
+      <c r="IT2" t="inlineStr">
         <is>
           <t>Surface de plancher de la destination ' Entrepôt ' nouvelle construite</t>
         </is>
       </c>
-      <c r="IG2" t="inlineStr">
+      <c r="IU2" t="inlineStr">
         <is>
           <t>Surface de plancher de la destination ' Entrepôt ' créée par changement de destination</t>
         </is>
       </c>
-      <c r="IH2" t="inlineStr">
+      <c r="IV2" t="inlineStr">
         <is>
           <t>Surface de plancher de la destination ' Entrepôt ' démolie</t>
         </is>
       </c>
-      <c r="II2" t="inlineStr">
+      <c r="IW2" t="inlineStr">
         <is>
           <t>Surface de plancher de la destination ' Entrepôt ' supprimée par changement de destination</t>
         </is>
       </c>
-      <c r="IJ2" t="inlineStr">
+      <c r="IX2" t="inlineStr">
         <is>
           <t>Surface de plancher de la destination ' Services publics ou d'intérêt collectif' existante avant travaux</t>
         </is>
       </c>
-      <c r="IK2" t="inlineStr">
+      <c r="IY2" t="inlineStr">
         <is>
           <t>Surface de plancher de la destination ' Services publics ou d'intérêt collectif ' nouvelle construite</t>
         </is>
       </c>
-      <c r="IL2" t="inlineStr">
+      <c r="IZ2" t="inlineStr">
         <is>
           <t>Surface de plancher de la destination ' Services publics ou d'intérêt collectif ' créée par changement de destination</t>
         </is>
       </c>
-      <c r="IM2" t="inlineStr">
+      <c r="JA2" t="inlineStr">
         <is>
           <t>Surface de plancher de la destination ' Services publics ou d'intérêt collectif ' démolie</t>
         </is>
       </c>
-      <c r="IN2" t="inlineStr">
+      <c r="JB2" t="inlineStr">
         <is>
           <t>Surface de plancher de la destination ' Services publics ou d'intérêt collectif ' supprimée par changement de destination</t>
+        </is>
+      </c>
+      <c r="JC2" t="inlineStr">
+        <is>
+          <t>Dossier Cerema - Artificialisation</t>
+        </is>
+      </c>
+      <c r="JD2" t="inlineStr">
+        <is>
+          <t>Dossier Dreal - Logements Sociaux</t>
+        </is>
+      </c>
+      <c r="JE2" t="inlineStr">
+        <is>
+          <t>Dossier Sitadel - Logements Construits</t>
+        </is>
+      </c>
+      <c r="JF2" t="inlineStr">
+        <is>
+          <t>Dossier Insee - Donnees Communes</t>
+        </is>
+      </c>
+      <c r="JG2" t="inlineStr">
+        <is>
+          <t>Dossier Insee - Projections 2050</t>
+        </is>
+      </c>
+      <c r="JH2" t="inlineStr">
+        <is>
+          <t>Dossier Omphale - Projections Paca</t>
         </is>
       </c>
     </row>
@@ -3507,7 +3707,7 @@
         <v>541</v>
       </c>
       <c r="GF3" t="n">
-        <v>0.3243405275779376</v>
+        <v>0.3243405275779379</v>
       </c>
       <c r="GG3" t="n">
         <v>0.5067</v>
@@ -3530,166 +3730,254 @@
         <v>10</v>
       </c>
       <c r="GM3" t="n">
-        <v>93</v>
+        <v>1454</v>
       </c>
       <c r="GN3" t="n">
+        <v>2049</v>
+      </c>
+      <c r="GO3" t="n">
+        <v>3774</v>
+      </c>
+      <c r="GP3" t="n">
+        <v>539</v>
+      </c>
+      <c r="GQ3" t="n">
+        <v>135</v>
+      </c>
+      <c r="GR3" t="n">
+        <v>361</v>
+      </c>
+      <c r="GS3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GT3" t="inlineStr">
+        <is>
+          <t>43.5961410556</t>
+        </is>
+      </c>
+      <c r="GU3" t="inlineStr">
+        <is>
+          <t>7.00129444919</t>
+        </is>
+      </c>
+      <c r="GV3" t="inlineStr">
+        <is>
+          <t>https://www.geoportail.gouv.fr/embed/visu.html?c=7.00129444919,43.5961410556&amp;amp;z=0.00012136999453139198&amp;amp;l=ORTHOIMAGERY.ORTHOPHOTOS::GEOPORTAIL:OGC:WMTS(1)&amp;amp;l=CADASTRALPARCELS.PARCELS::GEOPORTAIL:OGC:WMTS(1)&amp;amp;l=ADMINISTRATIVEUNITS.BOUNDARIES::GEOPORTAIL:OGC:WMTS(1)&amp;amp;permalink=yes</t>
+        </is>
+      </c>
+      <c r="GW3" t="inlineStr">
+        <is>
+          <t>https://www.geoportail.gouv.fr/carte?c=7.00129444919,43.5961410556&amp;z=14&amp;l0=ORTHOIMAGERY.ORTHOPHOTOS::GEOPORTAIL:OGC:WMTS(1)&amp;l1=LIMITES_ADMINISTRATIVES_EXPRESS.LATEST::GEOPORTAIL:OGC:WMTS(1)&amp;permalink=yes</t>
+        </is>
+      </c>
+      <c r="GX3" t="inlineStr">
+        <is>
+          <t>https://www.geoportail-urbanisme.gouv.fr/map/#tile=1&amp;lon=7.00129444919&amp;lat=43.5961410556&amp;zoom=13&amp;mlon=7.00129444919&amp;mlat=43.5961410556</t>
+        </is>
+      </c>
+      <c r="GY3" t="inlineStr">
+        <is>
+          <t>https://opendata.koumoul.com/data-fair/app/sitadel-logements?embed=true</t>
+        </is>
+      </c>
+      <c r="GZ3" t="inlineStr">
+        <is>
+          <t>https://vigibati.fr/?map.z=14&amp;map.c=12022302133321312221231&amp;map.f=1&amp;location.fx=7.00129444919&amp;location.tx=7.00129444919&amp;location.fy=43.5961410556&amp;location.ty=43.5961410556</t>
+        </is>
+      </c>
+      <c r="HA3" t="inlineStr">
+        <is>
+          <t>https://www.geoportail.gouv.fr/carte?c=7.00129444919,43.5961410556&amp;z=12&amp;l0=ORTHOIMAGERY.ORTHOPHOTOS::GEOPORTAIL:OGC:WMTS(1)&amp;l1=LIMITES_ADMINISTRATIVES_EXPRESS.LATEST::GEOPORTAIL:OGC:WMTS(1)&amp;l2=INSEE.FILOSOFI.PART.LOGEMENTS.SOCIAUX.SECRET::GEOPORTAIL:OGC:WMTS(0.8)&amp;permalink=yes</t>
+        </is>
+      </c>
+      <c r="HB3" t="n">
         <v>1915111</v>
       </c>
-      <c r="GO3" t="n">
+      <c r="HC3" t="n">
         <v>69</v>
       </c>
-      <c r="GP3" t="n">
+      <c r="HD3" t="n">
         <v>0</v>
       </c>
-      <c r="GQ3" t="n">
+      <c r="HE3" t="n">
         <v>9664</v>
       </c>
-      <c r="GR3" t="n">
+      <c r="HF3" t="n">
         <v>36440</v>
       </c>
-      <c r="GS3" t="n">
+      <c r="HG3" t="n">
         <v>0</v>
       </c>
-      <c r="GT3" t="n">
+      <c r="HH3" t="n">
         <v>2096</v>
       </c>
-      <c r="GU3" t="n">
+      <c r="HI3" t="n">
         <v>1993</v>
       </c>
-      <c r="GV3" t="n">
+      <c r="HJ3" t="n">
         <v>214862</v>
       </c>
-      <c r="GW3" t="n">
+      <c r="HK3" t="n">
         <v>84172</v>
       </c>
-      <c r="GX3" t="n">
+      <c r="HL3" t="n">
         <v>9950</v>
       </c>
-      <c r="GY3" t="n">
+      <c r="HM3" t="n">
         <v>3561</v>
       </c>
-      <c r="GZ3" t="n">
+      <c r="HN3" t="n">
         <v>7957</v>
       </c>
-      <c r="HA3" t="n">
+      <c r="HO3" t="n">
         <v>9492</v>
       </c>
-      <c r="HB3" t="n">
+      <c r="HP3" t="n">
         <v>11225</v>
       </c>
-      <c r="HC3" t="n">
+      <c r="HQ3" t="n">
         <v>765</v>
       </c>
-      <c r="HD3" t="n">
+      <c r="HR3" t="n">
         <v>546</v>
       </c>
-      <c r="HE3" t="n">
+      <c r="HS3" t="n">
         <v>237</v>
       </c>
-      <c r="HF3" t="n">
+      <c r="HT3" t="n">
         <v>14450</v>
       </c>
-      <c r="HG3" t="n">
+      <c r="HU3" t="n">
         <v>9589</v>
       </c>
-      <c r="HH3" t="n">
+      <c r="HV3" t="n">
         <v>1013</v>
       </c>
-      <c r="HI3" t="n">
+      <c r="HW3" t="n">
         <v>68</v>
       </c>
-      <c r="HJ3" t="n">
+      <c r="HX3" t="n">
         <v>263</v>
       </c>
-      <c r="HK3" t="n">
+      <c r="HY3" t="n">
         <v>10266</v>
       </c>
-      <c r="HL3" t="n">
+      <c r="HZ3" t="n">
         <v>22103</v>
       </c>
-      <c r="HM3" t="n">
+      <c r="IA3" t="n">
         <v>6375</v>
-      </c>
-      <c r="HN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO3" t="n">
-        <v>542</v>
-      </c>
-      <c r="HP3" t="n">
-        <v>13002</v>
-      </c>
-      <c r="HQ3" t="n">
-        <v>9282</v>
-      </c>
-      <c r="HR3" t="n">
-        <v>371</v>
-      </c>
-      <c r="HS3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU3" t="n">
-        <v>2788</v>
-      </c>
-      <c r="HV3" t="n">
-        <v>217</v>
-      </c>
-      <c r="HW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX3" t="n">
-        <v>2237</v>
-      </c>
-      <c r="HY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HZ3" t="n">
-        <v>478</v>
-      </c>
-      <c r="IA3" t="n">
-        <v>1053</v>
       </c>
       <c r="IB3" t="n">
         <v>0</v>
       </c>
       <c r="IC3" t="n">
+        <v>542</v>
+      </c>
+      <c r="ID3" t="n">
+        <v>13002</v>
+      </c>
+      <c r="IE3" t="n">
+        <v>9282</v>
+      </c>
+      <c r="IF3" t="n">
+        <v>371</v>
+      </c>
+      <c r="IG3" t="n">
         <v>0</v>
       </c>
-      <c r="ID3" t="n">
+      <c r="IH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="II3" t="n">
+        <v>2788</v>
+      </c>
+      <c r="IJ3" t="n">
+        <v>217</v>
+      </c>
+      <c r="IK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL3" t="n">
+        <v>2237</v>
+      </c>
+      <c r="IM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN3" t="n">
+        <v>478</v>
+      </c>
+      <c r="IO3" t="n">
+        <v>1053</v>
+      </c>
+      <c r="IP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR3" t="n">
         <v>395</v>
       </c>
-      <c r="IE3" t="n">
+      <c r="IS3" t="n">
         <v>27672</v>
       </c>
-      <c r="IF3" t="n">
+      <c r="IT3" t="n">
         <v>18166</v>
       </c>
-      <c r="IG3" t="n">
+      <c r="IU3" t="n">
         <v>352</v>
       </c>
-      <c r="IH3" t="n">
+      <c r="IV3" t="n">
         <v>24</v>
       </c>
-      <c r="II3" t="n">
+      <c r="IW3" t="n">
         <v>5889</v>
       </c>
-      <c r="IJ3" t="n">
+      <c r="IX3" t="n">
         <v>136727</v>
       </c>
-      <c r="IK3" t="n">
+      <c r="IY3" t="n">
         <v>12537</v>
       </c>
-      <c r="IL3" t="n">
+      <c r="IZ3" t="n">
         <v>1074</v>
       </c>
-      <c r="IM3" t="n">
+      <c r="JA3" t="n">
         <v>686</v>
       </c>
-      <c r="IN3" t="n">
+      <c r="JB3" t="n">
         <v>631</v>
+      </c>
+      <c r="JC3" t="inlineStr">
+        <is>
+          <t>https://artificialisation.biodiversitetousvivants.fr/les-donnees-au-1er-janvier-2020</t>
+        </is>
+      </c>
+      <c r="JD3" t="inlineStr">
+        <is>
+          <t>http://www.paca.developpement-durable.gouv.fr/periode-triennale-2020-2022-a13129.html</t>
+        </is>
+      </c>
+      <c r="JE3" t="inlineStr">
+        <is>
+          <t>https://www.data.gouv.fr/es/datasets/base-des-permis-de-construire-et-autres-autorisations-durbanisme-sitadel</t>
+        </is>
+      </c>
+      <c r="JF3" t="inlineStr">
+        <is>
+          <t>https://www.insee.fr/fr/statistiques/5359146</t>
+        </is>
+      </c>
+      <c r="JG3" t="inlineStr">
+        <is>
+          <t>https://www.insee.fr/fr/statistiques/2859843</t>
+        </is>
+      </c>
+      <c r="JH3" t="inlineStr">
+        <is>
+          <t>https://www.insee.fr/fr/statistiques/3202958?sommaire=3203271</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -3703,14 +3991,18 @@
           <t>06085</t>
         </is>
       </c>
-      <c r="C4" t="n">
-        <v>1</v>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>06250</t>
+        </is>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
-      <c r="E4" t="n">
-        <v>1</v>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Mougins</t>
+        </is>
       </c>
       <c r="F4" t="n">
         <v>1</v>
@@ -4300,166 +4592,254 @@
         <v>10</v>
       </c>
       <c r="GM4" t="n">
-        <v>93</v>
+        <v>1454</v>
       </c>
       <c r="GN4" t="n">
+        <v>2049</v>
+      </c>
+      <c r="GO4" t="n">
+        <v>3774</v>
+      </c>
+      <c r="GP4" t="n">
+        <v>539</v>
+      </c>
+      <c r="GQ4" t="n">
+        <v>135</v>
+      </c>
+      <c r="GR4" t="n">
+        <v>361</v>
+      </c>
+      <c r="GS4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GT4" t="inlineStr">
+        <is>
+          <t>43.5961410556</t>
+        </is>
+      </c>
+      <c r="GU4" t="inlineStr">
+        <is>
+          <t>7.00129444919</t>
+        </is>
+      </c>
+      <c r="GV4" t="inlineStr">
+        <is>
+          <t>https://www.geoportail.gouv.fr/embed/visu.html?c=7.00129444919,43.5961410556&amp;amp;z=0.00012136999453139198&amp;amp;l=ORTHOIMAGERY.ORTHOPHOTOS::GEOPORTAIL:OGC:WMTS(1)&amp;amp;l=CADASTRALPARCELS.PARCELS::GEOPORTAIL:OGC:WMTS(1)&amp;amp;l=ADMINISTRATIVEUNITS.BOUNDARIES::GEOPORTAIL:OGC:WMTS(1)&amp;amp;permalink=yes</t>
+        </is>
+      </c>
+      <c r="GW4" t="inlineStr">
+        <is>
+          <t>https://www.geoportail.gouv.fr/carte?c=7.00129444919,43.5961410556&amp;z=14&amp;l0=ORTHOIMAGERY.ORTHOPHOTOS::GEOPORTAIL:OGC:WMTS(1)&amp;l1=LIMITES_ADMINISTRATIVES_EXPRESS.LATEST::GEOPORTAIL:OGC:WMTS(1)&amp;permalink=yes</t>
+        </is>
+      </c>
+      <c r="GX4" t="inlineStr">
+        <is>
+          <t>https://www.geoportail-urbanisme.gouv.fr/map/#tile=1&amp;lon=7.00129444919&amp;lat=43.5961410556&amp;zoom=13&amp;mlon=7.00129444919&amp;mlat=43.5961410556</t>
+        </is>
+      </c>
+      <c r="GY4" t="inlineStr">
+        <is>
+          <t>https://opendata.koumoul.com/data-fair/app/sitadel-logements?embed=true</t>
+        </is>
+      </c>
+      <c r="GZ4" t="inlineStr">
+        <is>
+          <t>https://vigibati.fr/?map.z=14&amp;map.c=12022302133321312221231&amp;map.f=1&amp;location.fx=7.00129444919&amp;location.tx=7.00129444919&amp;location.fy=43.5961410556&amp;location.ty=43.5961410556</t>
+        </is>
+      </c>
+      <c r="HA4" t="inlineStr">
+        <is>
+          <t>https://www.geoportail.gouv.fr/carte?c=7.00129444919,43.5961410556&amp;z=12&amp;l0=ORTHOIMAGERY.ORTHOPHOTOS::GEOPORTAIL:OGC:WMTS(1)&amp;l1=LIMITES_ADMINISTRATIVES_EXPRESS.LATEST::GEOPORTAIL:OGC:WMTS(1)&amp;l2=INSEE.FILOSOFI.PART.LOGEMENTS.SOCIAUX.SECRET::GEOPORTAIL:OGC:WMTS(0.8)&amp;permalink=yes</t>
+        </is>
+      </c>
+      <c r="HB4" t="n">
         <v>1915111</v>
       </c>
-      <c r="GO4" t="n">
+      <c r="HC4" t="n">
         <v>69</v>
       </c>
-      <c r="GP4" t="n">
+      <c r="HD4" t="n">
         <v>0</v>
       </c>
-      <c r="GQ4" t="n">
+      <c r="HE4" t="n">
         <v>9664</v>
       </c>
-      <c r="GR4" t="n">
+      <c r="HF4" t="n">
         <v>36440</v>
       </c>
-      <c r="GS4" t="n">
+      <c r="HG4" t="n">
         <v>0</v>
       </c>
-      <c r="GT4" t="n">
+      <c r="HH4" t="n">
         <v>2096</v>
       </c>
-      <c r="GU4" t="n">
+      <c r="HI4" t="n">
         <v>1993</v>
       </c>
-      <c r="GV4" t="n">
+      <c r="HJ4" t="n">
         <v>214862</v>
       </c>
-      <c r="GW4" t="n">
+      <c r="HK4" t="n">
         <v>84172</v>
       </c>
-      <c r="GX4" t="n">
+      <c r="HL4" t="n">
         <v>9950</v>
       </c>
-      <c r="GY4" t="n">
+      <c r="HM4" t="n">
         <v>3561</v>
       </c>
-      <c r="GZ4" t="n">
+      <c r="HN4" t="n">
         <v>7957</v>
       </c>
-      <c r="HA4" t="n">
+      <c r="HO4" t="n">
         <v>9492</v>
       </c>
-      <c r="HB4" t="n">
+      <c r="HP4" t="n">
         <v>11225</v>
       </c>
-      <c r="HC4" t="n">
+      <c r="HQ4" t="n">
         <v>765</v>
       </c>
-      <c r="HD4" t="n">
+      <c r="HR4" t="n">
         <v>546</v>
       </c>
-      <c r="HE4" t="n">
+      <c r="HS4" t="n">
         <v>237</v>
       </c>
-      <c r="HF4" t="n">
+      <c r="HT4" t="n">
         <v>14450</v>
       </c>
-      <c r="HG4" t="n">
+      <c r="HU4" t="n">
         <v>9589</v>
       </c>
-      <c r="HH4" t="n">
+      <c r="HV4" t="n">
         <v>1013</v>
       </c>
-      <c r="HI4" t="n">
+      <c r="HW4" t="n">
         <v>68</v>
       </c>
-      <c r="HJ4" t="n">
+      <c r="HX4" t="n">
         <v>263</v>
       </c>
-      <c r="HK4" t="n">
+      <c r="HY4" t="n">
         <v>10266</v>
       </c>
-      <c r="HL4" t="n">
+      <c r="HZ4" t="n">
         <v>22103</v>
       </c>
-      <c r="HM4" t="n">
+      <c r="IA4" t="n">
         <v>6375</v>
-      </c>
-      <c r="HN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO4" t="n">
-        <v>542</v>
-      </c>
-      <c r="HP4" t="n">
-        <v>13002</v>
-      </c>
-      <c r="HQ4" t="n">
-        <v>9282</v>
-      </c>
-      <c r="HR4" t="n">
-        <v>371</v>
-      </c>
-      <c r="HS4" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT4" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU4" t="n">
-        <v>2788</v>
-      </c>
-      <c r="HV4" t="n">
-        <v>217</v>
-      </c>
-      <c r="HW4" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX4" t="n">
-        <v>2237</v>
-      </c>
-      <c r="HY4" t="n">
-        <v>0</v>
-      </c>
-      <c r="HZ4" t="n">
-        <v>478</v>
-      </c>
-      <c r="IA4" t="n">
-        <v>1053</v>
       </c>
       <c r="IB4" t="n">
         <v>0</v>
       </c>
       <c r="IC4" t="n">
+        <v>542</v>
+      </c>
+      <c r="ID4" t="n">
+        <v>13002</v>
+      </c>
+      <c r="IE4" t="n">
+        <v>9282</v>
+      </c>
+      <c r="IF4" t="n">
+        <v>371</v>
+      </c>
+      <c r="IG4" t="n">
         <v>0</v>
       </c>
-      <c r="ID4" t="n">
+      <c r="IH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="II4" t="n">
+        <v>2788</v>
+      </c>
+      <c r="IJ4" t="n">
+        <v>217</v>
+      </c>
+      <c r="IK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL4" t="n">
+        <v>2237</v>
+      </c>
+      <c r="IM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN4" t="n">
+        <v>478</v>
+      </c>
+      <c r="IO4" t="n">
+        <v>1053</v>
+      </c>
+      <c r="IP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR4" t="n">
         <v>395</v>
       </c>
-      <c r="IE4" t="n">
+      <c r="IS4" t="n">
         <v>27672</v>
       </c>
-      <c r="IF4" t="n">
+      <c r="IT4" t="n">
         <v>18166</v>
       </c>
-      <c r="IG4" t="n">
+      <c r="IU4" t="n">
         <v>352</v>
       </c>
-      <c r="IH4" t="n">
+      <c r="IV4" t="n">
         <v>24</v>
       </c>
-      <c r="II4" t="n">
+      <c r="IW4" t="n">
         <v>5889</v>
       </c>
-      <c r="IJ4" t="n">
+      <c r="IX4" t="n">
         <v>136727</v>
       </c>
-      <c r="IK4" t="n">
+      <c r="IY4" t="n">
         <v>12537</v>
       </c>
-      <c r="IL4" t="n">
+      <c r="IZ4" t="n">
         <v>1074</v>
       </c>
-      <c r="IM4" t="n">
+      <c r="JA4" t="n">
         <v>686</v>
       </c>
-      <c r="IN4" t="n">
+      <c r="JB4" t="n">
         <v>631</v>
+      </c>
+      <c r="JC4" t="inlineStr">
+        <is>
+          <t>https://artificialisation.biodiversitetousvivants.fr/les-donnees-au-1er-janvier-2020</t>
+        </is>
+      </c>
+      <c r="JD4" t="inlineStr">
+        <is>
+          <t>http://www.paca.developpement-durable.gouv.fr/periode-triennale-2020-2022-a13129.html</t>
+        </is>
+      </c>
+      <c r="JE4" t="inlineStr">
+        <is>
+          <t>https://www.data.gouv.fr/es/datasets/base-des-permis-de-construire-et-autres-autorisations-durbanisme-sitadel</t>
+        </is>
+      </c>
+      <c r="JF4" t="inlineStr">
+        <is>
+          <t>https://www.insee.fr/fr/statistiques/5359146</t>
+        </is>
+      </c>
+      <c r="JG4" t="inlineStr">
+        <is>
+          <t>https://www.insee.fr/fr/statistiques/2859843</t>
+        </is>
+      </c>
+      <c r="JH4" t="inlineStr">
+        <is>
+          <t>https://www.insee.fr/fr/statistiques/3202958?sommaire=3203271</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -4475,59 +4855,59 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>EQUAL</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>COUNT</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>COUNT</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>COUNT</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>COUNT</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>COUNT</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>COUNT</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>COUNT</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>COUNT</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>COUNT</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>COUNT</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>COUNT</t>
-        </is>
-      </c>
       <c r="N5" t="inlineStr">
         <is>
           <t>CUSTOM</t>
@@ -5435,77 +5815,77 @@
       </c>
       <c r="GM5" t="inlineStr">
         <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="GN5" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="GO5" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="GP5" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="GQ5" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="GR5" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="GS5" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="GT5" t="inlineStr">
+        <is>
           <t>EQUAL</t>
         </is>
       </c>
-      <c r="GN5" t="inlineStr">
-        <is>
-          <t>SUM</t>
-        </is>
-      </c>
-      <c r="GO5" t="inlineStr">
-        <is>
-          <t>SUM</t>
-        </is>
-      </c>
-      <c r="GP5" t="inlineStr">
-        <is>
-          <t>SUM</t>
-        </is>
-      </c>
-      <c r="GQ5" t="inlineStr">
-        <is>
-          <t>SUM</t>
-        </is>
-      </c>
-      <c r="GR5" t="inlineStr">
-        <is>
-          <t>SUM</t>
-        </is>
-      </c>
-      <c r="GS5" t="inlineStr">
-        <is>
-          <t>SUM</t>
-        </is>
-      </c>
-      <c r="GT5" t="inlineStr">
-        <is>
-          <t>SUM</t>
-        </is>
-      </c>
       <c r="GU5" t="inlineStr">
         <is>
-          <t>SUM</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="GV5" t="inlineStr">
         <is>
-          <t>SUM</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="GW5" t="inlineStr">
         <is>
-          <t>SUM</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="GX5" t="inlineStr">
         <is>
-          <t>SUM</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="GY5" t="inlineStr">
         <is>
-          <t>SUM</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="GZ5" t="inlineStr">
         <is>
-          <t>SUM</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="HA5" t="inlineStr">
         <is>
-          <t>SUM</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="HB5" t="inlineStr">
@@ -5701,6 +6081,106 @@
       <c r="IN5" t="inlineStr">
         <is>
           <t>SUM</t>
+        </is>
+      </c>
+      <c r="IO5" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="IP5" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="IQ5" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="IR5" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="IS5" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="IT5" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="IU5" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="IV5" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="IW5" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="IX5" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="IY5" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="IZ5" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="JA5" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="JB5" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="JC5" t="inlineStr">
+        <is>
+          <t>EQUAL</t>
+        </is>
+      </c>
+      <c r="JD5" t="inlineStr">
+        <is>
+          <t>EQUAL</t>
+        </is>
+      </c>
+      <c r="JE5" t="inlineStr">
+        <is>
+          <t>EQUAL</t>
+        </is>
+      </c>
+      <c r="JF5" t="inlineStr">
+        <is>
+          <t>EQUAL</t>
+        </is>
+      </c>
+      <c r="JG5" t="inlineStr">
+        <is>
+          <t>EQUAL</t>
+        </is>
+      </c>
+      <c r="JH5" t="inlineStr">
+        <is>
+          <t>EQUAL</t>
         </is>
       </c>
     </row>
@@ -6712,42 +7192,42 @@
       </c>
       <c r="GT6" t="inlineStr">
         <is>
-          <t>INT</t>
+          <t>STR</t>
         </is>
       </c>
       <c r="GU6" t="inlineStr">
         <is>
-          <t>INT</t>
+          <t>STR</t>
         </is>
       </c>
       <c r="GV6" t="inlineStr">
         <is>
-          <t>INT</t>
+          <t>STR</t>
         </is>
       </c>
       <c r="GW6" t="inlineStr">
         <is>
-          <t>INT</t>
+          <t>STR</t>
         </is>
       </c>
       <c r="GX6" t="inlineStr">
         <is>
-          <t>INT</t>
+          <t>STR</t>
         </is>
       </c>
       <c r="GY6" t="inlineStr">
         <is>
-          <t>INT</t>
+          <t>STR</t>
         </is>
       </c>
       <c r="GZ6" t="inlineStr">
         <is>
-          <t>INT</t>
+          <t>STR</t>
         </is>
       </c>
       <c r="HA6" t="inlineStr">
         <is>
-          <t>INT</t>
+          <t>STR</t>
         </is>
       </c>
       <c r="HB6" t="inlineStr">
@@ -6943,6 +7423,106 @@
       <c r="IN6" t="inlineStr">
         <is>
           <t>INT</t>
+        </is>
+      </c>
+      <c r="IO6" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="IP6" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="IQ6" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="IR6" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="IS6" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="IT6" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="IU6" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="IV6" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="IW6" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="IX6" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="IY6" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="IZ6" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="JA6" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="JB6" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="JC6" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+      <c r="JD6" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+      <c r="JE6" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+      <c r="JF6" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+      <c r="JG6" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+      <c r="JH6" t="inlineStr">
+        <is>
+          <t>STR</t>
         </is>
       </c>
     </row>
@@ -7919,272 +8499,1714 @@
       </c>
       <c r="GM7" t="inlineStr">
         <is>
-          <t>PROJ</t>
+          <t>SRU</t>
         </is>
       </c>
       <c r="GN7" t="inlineStr">
         <is>
+          <t>SRU</t>
+        </is>
+      </c>
+      <c r="GO7" t="inlineStr">
+        <is>
+          <t>SRU</t>
+        </is>
+      </c>
+      <c r="GP7" t="inlineStr">
+        <is>
+          <t>SRU</t>
+        </is>
+      </c>
+      <c r="GQ7" t="inlineStr">
+        <is>
+          <t>SRU</t>
+        </is>
+      </c>
+      <c r="GR7" t="inlineStr">
+        <is>
+          <t>SRU</t>
+        </is>
+      </c>
+      <c r="GS7" t="inlineStr">
+        <is>
+          <t>SRU</t>
+        </is>
+      </c>
+      <c r="GT7" t="inlineStr">
+        <is>
+          <t>CODE</t>
+        </is>
+      </c>
+      <c r="GU7" t="inlineStr">
+        <is>
+          <t>CODE</t>
+        </is>
+      </c>
+      <c r="GV7" t="inlineStr">
+        <is>
+          <t>CODE</t>
+        </is>
+      </c>
+      <c r="GW7" t="inlineStr">
+        <is>
+          <t>CODE</t>
+        </is>
+      </c>
+      <c r="GX7" t="inlineStr">
+        <is>
+          <t>CODE</t>
+        </is>
+      </c>
+      <c r="GY7" t="inlineStr">
+        <is>
+          <t>CODE</t>
+        </is>
+      </c>
+      <c r="GZ7" t="inlineStr">
+        <is>
+          <t>CODE</t>
+        </is>
+      </c>
+      <c r="HA7" t="inlineStr">
+        <is>
+          <t>CODE</t>
+        </is>
+      </c>
+      <c r="HB7" t="inlineStr">
+        <is>
           <t>SIT</t>
         </is>
       </c>
-      <c r="GO7" t="inlineStr">
+      <c r="HC7" t="inlineStr">
         <is>
           <t>SIT</t>
         </is>
       </c>
-      <c r="GP7" t="inlineStr">
+      <c r="HD7" t="inlineStr">
         <is>
           <t>SIT</t>
         </is>
       </c>
-      <c r="GQ7" t="inlineStr">
+      <c r="HE7" t="inlineStr">
         <is>
           <t>SIT</t>
         </is>
       </c>
-      <c r="GR7" t="inlineStr">
+      <c r="HF7" t="inlineStr">
         <is>
           <t>SIT</t>
         </is>
       </c>
-      <c r="GS7" t="inlineStr">
+      <c r="HG7" t="inlineStr">
         <is>
           <t>SIT</t>
         </is>
       </c>
-      <c r="GT7" t="inlineStr">
+      <c r="HH7" t="inlineStr">
         <is>
           <t>SIT</t>
         </is>
       </c>
-      <c r="GU7" t="inlineStr">
+      <c r="HI7" t="inlineStr">
         <is>
           <t>SIT</t>
         </is>
       </c>
-      <c r="GV7" t="inlineStr">
+      <c r="HJ7" t="inlineStr">
         <is>
           <t>SIT</t>
         </is>
       </c>
-      <c r="GW7" t="inlineStr">
+      <c r="HK7" t="inlineStr">
         <is>
           <t>SIT</t>
         </is>
       </c>
-      <c r="GX7" t="inlineStr">
+      <c r="HL7" t="inlineStr">
         <is>
           <t>SIT</t>
         </is>
       </c>
-      <c r="GY7" t="inlineStr">
+      <c r="HM7" t="inlineStr">
         <is>
           <t>SIT</t>
         </is>
       </c>
-      <c r="GZ7" t="inlineStr">
+      <c r="HN7" t="inlineStr">
         <is>
           <t>SIT</t>
         </is>
       </c>
-      <c r="HA7" t="inlineStr">
+      <c r="HO7" t="inlineStr">
         <is>
           <t>SIT</t>
         </is>
       </c>
-      <c r="HB7" t="inlineStr">
+      <c r="HP7" t="inlineStr">
         <is>
           <t>SIT</t>
         </is>
       </c>
-      <c r="HC7" t="inlineStr">
+      <c r="HQ7" t="inlineStr">
         <is>
           <t>SIT</t>
         </is>
       </c>
-      <c r="HD7" t="inlineStr">
+      <c r="HR7" t="inlineStr">
         <is>
           <t>SIT</t>
         </is>
       </c>
-      <c r="HE7" t="inlineStr">
+      <c r="HS7" t="inlineStr">
         <is>
           <t>SIT</t>
         </is>
       </c>
-      <c r="HF7" t="inlineStr">
+      <c r="HT7" t="inlineStr">
         <is>
           <t>SIT</t>
         </is>
       </c>
-      <c r="HG7" t="inlineStr">
+      <c r="HU7" t="inlineStr">
         <is>
           <t>SIT</t>
         </is>
       </c>
-      <c r="HH7" t="inlineStr">
+      <c r="HV7" t="inlineStr">
         <is>
           <t>SIT</t>
         </is>
       </c>
-      <c r="HI7" t="inlineStr">
+      <c r="HW7" t="inlineStr">
         <is>
           <t>SIT</t>
         </is>
       </c>
-      <c r="HJ7" t="inlineStr">
+      <c r="HX7" t="inlineStr">
         <is>
           <t>SIT</t>
         </is>
       </c>
-      <c r="HK7" t="inlineStr">
+      <c r="HY7" t="inlineStr">
         <is>
           <t>SIT</t>
         </is>
       </c>
-      <c r="HL7" t="inlineStr">
+      <c r="HZ7" t="inlineStr">
         <is>
           <t>SIT</t>
         </is>
       </c>
-      <c r="HM7" t="inlineStr">
+      <c r="IA7" t="inlineStr">
         <is>
           <t>SIT</t>
         </is>
       </c>
-      <c r="HN7" t="inlineStr">
+      <c r="IB7" t="inlineStr">
         <is>
           <t>SIT</t>
         </is>
       </c>
-      <c r="HO7" t="inlineStr">
+      <c r="IC7" t="inlineStr">
         <is>
           <t>SIT</t>
         </is>
       </c>
-      <c r="HP7" t="inlineStr">
+      <c r="ID7" t="inlineStr">
         <is>
           <t>SIT</t>
         </is>
       </c>
-      <c r="HQ7" t="inlineStr">
+      <c r="IE7" t="inlineStr">
         <is>
           <t>SIT</t>
         </is>
       </c>
-      <c r="HR7" t="inlineStr">
+      <c r="IF7" t="inlineStr">
         <is>
           <t>SIT</t>
         </is>
       </c>
-      <c r="HS7" t="inlineStr">
+      <c r="IG7" t="inlineStr">
         <is>
           <t>SIT</t>
         </is>
       </c>
-      <c r="HT7" t="inlineStr">
+      <c r="IH7" t="inlineStr">
         <is>
           <t>SIT</t>
         </is>
       </c>
-      <c r="HU7" t="inlineStr">
+      <c r="II7" t="inlineStr">
         <is>
           <t>SIT</t>
         </is>
       </c>
-      <c r="HV7" t="inlineStr">
+      <c r="IJ7" t="inlineStr">
         <is>
           <t>SIT</t>
         </is>
       </c>
-      <c r="HW7" t="inlineStr">
+      <c r="IK7" t="inlineStr">
         <is>
           <t>SIT</t>
         </is>
       </c>
-      <c r="HX7" t="inlineStr">
+      <c r="IL7" t="inlineStr">
         <is>
           <t>SIT</t>
         </is>
       </c>
-      <c r="HY7" t="inlineStr">
+      <c r="IM7" t="inlineStr">
         <is>
           <t>SIT</t>
         </is>
       </c>
-      <c r="HZ7" t="inlineStr">
+      <c r="IN7" t="inlineStr">
         <is>
           <t>SIT</t>
         </is>
       </c>
-      <c r="IA7" t="inlineStr">
+      <c r="IO7" t="inlineStr">
         <is>
           <t>SIT</t>
         </is>
       </c>
-      <c r="IB7" t="inlineStr">
+      <c r="IP7" t="inlineStr">
         <is>
           <t>SIT</t>
         </is>
       </c>
-      <c r="IC7" t="inlineStr">
+      <c r="IQ7" t="inlineStr">
         <is>
           <t>SIT</t>
         </is>
       </c>
-      <c r="ID7" t="inlineStr">
+      <c r="IR7" t="inlineStr">
         <is>
           <t>SIT</t>
         </is>
       </c>
-      <c r="IE7" t="inlineStr">
+      <c r="IS7" t="inlineStr">
         <is>
           <t>SIT</t>
         </is>
       </c>
-      <c r="IF7" t="inlineStr">
+      <c r="IT7" t="inlineStr">
         <is>
           <t>SIT</t>
         </is>
       </c>
-      <c r="IG7" t="inlineStr">
+      <c r="IU7" t="inlineStr">
         <is>
           <t>SIT</t>
         </is>
       </c>
-      <c r="IH7" t="inlineStr">
+      <c r="IV7" t="inlineStr">
         <is>
           <t>SIT</t>
         </is>
       </c>
-      <c r="II7" t="inlineStr">
+      <c r="IW7" t="inlineStr">
         <is>
           <t>SIT</t>
         </is>
       </c>
-      <c r="IJ7" t="inlineStr">
+      <c r="IX7" t="inlineStr">
         <is>
           <t>SIT</t>
         </is>
       </c>
-      <c r="IK7" t="inlineStr">
+      <c r="IY7" t="inlineStr">
         <is>
           <t>SIT</t>
         </is>
       </c>
-      <c r="IL7" t="inlineStr">
+      <c r="IZ7" t="inlineStr">
         <is>
           <t>SIT</t>
         </is>
       </c>
-      <c r="IM7" t="inlineStr">
+      <c r="JA7" t="inlineStr">
         <is>
           <t>SIT</t>
         </is>
       </c>
-      <c r="IN7" t="inlineStr">
+      <c r="JB7" t="inlineStr">
         <is>
           <t>SIT</t>
+        </is>
+      </c>
+      <c r="JC7" t="inlineStr">
+        <is>
+          <t>DATA</t>
+        </is>
+      </c>
+      <c r="JD7" t="inlineStr">
+        <is>
+          <t>DATA</t>
+        </is>
+      </c>
+      <c r="JE7" t="inlineStr">
+        <is>
+          <t>DATA</t>
+        </is>
+      </c>
+      <c r="JF7" t="inlineStr">
+        <is>
+          <t>DATA</t>
+        </is>
+      </c>
+      <c r="JG7" t="inlineStr">
+        <is>
+          <t>DATA</t>
+        </is>
+      </c>
+      <c r="JH7" t="inlineStr">
+        <is>
+          <t>DATA</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>expr</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AL8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AM8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AN8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AP8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AQ8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AR8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AS8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AT8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AU8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AV8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AW8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AX8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AY8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AZ8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="BA8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="BB8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="BC8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="BD8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="BE8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="BF8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="BG8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="BH8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="BI8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="BJ8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="BK8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="BL8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="BM8" t="inlineStr">
+        <is>
+          <t>get_sru2020("Taux de LLS à atteindre", CODE_INSEE, rounding=2)</t>
+        </is>
+      </c>
+      <c r="BN8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="BO8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="BP8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="BQ8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="BR8" t="inlineStr">
+        <is>
+          <t>round0(SRU_RP_2017 * (0.25 - SRU_TX_LLS_2017), 4)</t>
+        </is>
+      </c>
+      <c r="BS8" t="inlineStr">
+        <is>
+          <t>round0(SRU_RP_2020 * (0.25 - SRU_TX_LLS_2020), 4)</t>
+        </is>
+      </c>
+      <c r="BT8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="BU8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="BV8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="BW8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="BX8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="BY8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="BZ8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="CA8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="CB8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="CC8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="CD8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="CE8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="CF8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="CG8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="CH8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="CI8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="CJ8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="CK8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="CL8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="CM8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="CN8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="CO8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="CP8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="CQ8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="CR8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="CS8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="CT8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="CU8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="CV8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="CW8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="CX8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="CY8" t="inlineStr">
+        <is>
+          <t>p_scot["Unnamed: 2"].iloc[0]  if (p_epci.shape[0] == 1) else self.get("EPCI")</t>
+        </is>
+      </c>
+      <c r="CZ8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="DA8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="DB8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="DC8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="DD8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="DE8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="DF8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="DG8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="DH8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="DI8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="DJ8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="DK8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="DL8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="DM8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="DN8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="DO8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="DP8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="DQ8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="DR8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="DS8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="DT8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="DU8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="DV8" t="inlineStr">
+        <is>
+          <t>projectionsREG["Unnamed: 39"][ REG ] * 1000</t>
+        </is>
+      </c>
+      <c r="DW8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="DX8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="DY8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="DZ8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="EA8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="EB8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="EC8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="ED8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="EE8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="EF8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="EG8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="EH8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="EI8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="EJ8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="EK8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="EL8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="EM8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="EN8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="EO8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="EP8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="EQ8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="ER8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="ES8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="ET8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="EU8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="EV8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="EW8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="EX8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="EY8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="EZ8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="FA8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="FB8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="FC8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="FD8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="FE8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="FF8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="FG8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="FH8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="FI8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="FJ8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="FK8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="FL8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="FM8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="FN8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="FO8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="FP8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="FQ8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="FR8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="FS8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="FT8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="FU8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="FV8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="FW8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="FX8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="FY8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="FZ8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="GA8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="GB8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="GC8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="GD8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="GE8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="GF8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="GG8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="GH8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="GI8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="GJ8" t="inlineStr">
+        <is>
+          <t>"Hello Test"</t>
+        </is>
+      </c>
+      <c r="GK8" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="GL8" t="inlineStr">
+        <is>
+          <t>TEST + 5</t>
+        </is>
+      </c>
+      <c r="GM8" t="inlineStr">
+        <is>
+          <t>round(SRU_OBJ_2017_2019/35*100, 0)</t>
+        </is>
+      </c>
+      <c r="GN8" t="inlineStr">
+        <is>
+          <t>round(SRU_OBJ_2020_2022/35*100, 0)</t>
+        </is>
+      </c>
+      <c r="GO8" t="inlineStr">
+        <is>
+          <t>round(SRU_CARENCE_2020/35*100, 0)</t>
+        </is>
+      </c>
+      <c r="GP8" t="inlineStr">
+        <is>
+          <t>round(SRU_RP_2020-SRU_RP_2017, 0)</t>
+        </is>
+      </c>
+      <c r="GQ8" t="inlineStr">
+        <is>
+          <t>round((SRU_RP_2020 -SRU_RP_2017) * 0.25, 0)</t>
+        </is>
+      </c>
+      <c r="GR8" t="inlineStr">
+        <is>
+          <t>round(SRU_CARENCE_2017 + SRU_EVOLUTION_CARENCE - SRU_CARENCE_2020, 0)</t>
+        </is>
+      </c>
+      <c r="GS8" t="inlineStr">
+        <is>
+          <t>1 if (SRU_CARENCE_2020 &gt; 0) else 0</t>
+        </is>
+      </c>
+      <c r="GT8" t="inlineStr">
+        <is>
+          <t>get_gps_lat_insee(CODE_INSEE)</t>
+        </is>
+      </c>
+      <c r="GU8" t="inlineStr">
+        <is>
+          <t>get_gps_long_insee(CODE_INSEE)</t>
+        </is>
+      </c>
+      <c r="GV8" t="inlineStr">
+        <is>
+          <t>"https://www.geoportail.gouv.fr/embed/visu.html?c="+LONGITUDE+","+LATITUDE+"&amp;amp;z=0.00012136999453139198&amp;amp;l=ORTHOIMAGERY.ORTHOPHOTOS::GEOPORTAIL:OGC:WMTS(1)&amp;amp;l=CADASTRALPARCELS.PARCELS::GEOPORTAIL:OGC:WMTS(1)&amp;amp;l=ADMINISTRATIVEUNITS.BOUNDARIES::GEOPORTAIL:OGC:WMTS(1)&amp;amp;permalink=yes"</t>
+        </is>
+      </c>
+      <c r="GW8" t="inlineStr">
+        <is>
+          <t>"https://www.geoportail.gouv.fr/carte?c="+LONGITUDE+","+LATITUDE+"&amp;z=14&amp;l0=ORTHOIMAGERY.ORTHOPHOTOS::GEOPORTAIL:OGC:WMTS(1)&amp;l1=LIMITES_ADMINISTRATIVES_EXPRESS.LATEST::GEOPORTAIL:OGC:WMTS(1)&amp;permalink=yes"</t>
+        </is>
+      </c>
+      <c r="GX8" t="inlineStr">
+        <is>
+          <t>"https://www.geoportail-urbanisme.gouv.fr/map/#tile=1&amp;lon="+LONGITUDE+"&amp;lat="+LATITUDE+"&amp;zoom=13&amp;mlon="+LONGITUDE+"&amp;mlat="+LATITUDE+""</t>
+        </is>
+      </c>
+      <c r="GY8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">"https://opendata.koumoul.com/data-fair/app/sitadel-logements?embed=true" </t>
+        </is>
+      </c>
+      <c r="GZ8" t="inlineStr">
+        <is>
+          <t>"https://vigibati.fr/?map.z=14&amp;map.c=12022302133321312221231&amp;map.f=1&amp;location.fx="+LONGITUDE+"&amp;location.tx="+LONGITUDE+"&amp;location.fy="+LATITUDE+"&amp;location.ty="+LATITUDE+""</t>
+        </is>
+      </c>
+      <c r="HA8" t="inlineStr">
+        <is>
+          <t>"https://www.geoportail.gouv.fr/carte?c="+LONGITUDE+","+LATITUDE+"&amp;z=12&amp;l0=ORTHOIMAGERY.ORTHOPHOTOS::GEOPORTAIL:OGC:WMTS(1)&amp;l1=LIMITES_ADMINISTRATIVES_EXPRESS.LATEST::GEOPORTAIL:OGC:WMTS(1)&amp;l2=INSEE.FILOSOFI.PART.LOGEMENTS.SOCIAUX.SECRET::GEOPORTAIL:OGC:WMTS(0.8)&amp;permalink=yes"</t>
+        </is>
+      </c>
+      <c r="HB8" t="inlineStr">
+        <is>
+          <t>com_sitadelLocaux['SUPERFICIE_TERRAIN'].sum()</t>
+        </is>
+      </c>
+      <c r="HC8" t="inlineStr">
+        <is>
+          <t>com_sitadelLocaux['NB_CHAMBRES'].sum()</t>
+        </is>
+      </c>
+      <c r="HD8" t="inlineStr">
+        <is>
+          <t>loc_nouveau['NATURE_PROJET'].count()</t>
+        </is>
+      </c>
+      <c r="HE8" t="inlineStr">
+        <is>
+          <t>com_sitadelLocaux['SURF_HAB_AVANT'].sum()</t>
+        </is>
+      </c>
+      <c r="HF8" t="inlineStr">
+        <is>
+          <t>com_sitadelLocaux['SURF_HAB_CREEE'].sum()</t>
+        </is>
+      </c>
+      <c r="HG8" t="inlineStr">
+        <is>
+          <t>com_sitadelLocaux['SURF_HAB_ISSUE_TRANSFO'].sum()</t>
+        </is>
+      </c>
+      <c r="HH8" t="inlineStr">
+        <is>
+          <t>com_sitadelLocaux['SURF_HAB_DEMOLIE'].sum()</t>
+        </is>
+      </c>
+      <c r="HI8" t="inlineStr">
+        <is>
+          <t>com_sitadelLocaux['SURF_HAB_TRANSFORMEE'].sum()</t>
+        </is>
+      </c>
+      <c r="HJ8" t="inlineStr">
+        <is>
+          <t>com_sitadelLocaux['SURF_LOC_AVANT'].sum()</t>
+        </is>
+      </c>
+      <c r="HK8" t="inlineStr">
+        <is>
+          <t>com_sitadelLocaux['SURF_LOC_CREEE'].sum()</t>
+        </is>
+      </c>
+      <c r="HL8" t="inlineStr">
+        <is>
+          <t>com_sitadelLocaux['SURF_LOC_ISSUE_TRANSFO'].sum()</t>
+        </is>
+      </c>
+      <c r="HM8" t="inlineStr">
+        <is>
+          <t>com_sitadelLocaux['SURF_LOC_DEMOLIE'].sum()</t>
+        </is>
+      </c>
+      <c r="HN8" t="inlineStr">
+        <is>
+          <t>com_sitadelLocaux['SURF_LOC_TRANSFORMEE'].sum()</t>
+        </is>
+      </c>
+      <c r="HO8" t="inlineStr">
+        <is>
+          <t>com_sitadelLocaux['SURF_HEB_AVANT'].sum()</t>
+        </is>
+      </c>
+      <c r="HP8" t="inlineStr">
+        <is>
+          <t>com_sitadelLocaux['SURF_HEB_CREEE'].sum()</t>
+        </is>
+      </c>
+      <c r="HQ8" t="inlineStr">
+        <is>
+          <t>com_sitadelLocaux['SURF_HEB_ISSUE_TRANSFO'].sum()</t>
+        </is>
+      </c>
+      <c r="HR8" t="inlineStr">
+        <is>
+          <t>com_sitadelLocaux['SURF_HEB_DEMOLIE'].sum()</t>
+        </is>
+      </c>
+      <c r="HS8" t="inlineStr">
+        <is>
+          <t>com_sitadelLocaux['SURF_HEB_TRANSFORMEE'].sum()</t>
+        </is>
+      </c>
+      <c r="HT8" t="inlineStr">
+        <is>
+          <t>com_sitadelLocaux['SURF_BUR_AVANT'].sum()</t>
+        </is>
+      </c>
+      <c r="HU8" t="inlineStr">
+        <is>
+          <t>com_sitadelLocaux['SURF_BUR_CREEE'].sum()</t>
+        </is>
+      </c>
+      <c r="HV8" t="inlineStr">
+        <is>
+          <t>com_sitadelLocaux['SURF_BUR_ISSUE_TRANSFO'].sum()</t>
+        </is>
+      </c>
+      <c r="HW8" t="inlineStr">
+        <is>
+          <t>com_sitadelLocaux['SURF_BUR_DEMOLIE'].sum()</t>
+        </is>
+      </c>
+      <c r="HX8" t="inlineStr">
+        <is>
+          <t>com_sitadelLocaux['SURF_BUR_TRANSFORMEE'].sum()</t>
+        </is>
+      </c>
+      <c r="HY8" t="inlineStr">
+        <is>
+          <t>com_sitadelLocaux['SURF_COM_AVANT'].sum()</t>
+        </is>
+      </c>
+      <c r="HZ8" t="inlineStr">
+        <is>
+          <t>com_sitadelLocaux['SURF_COM_CREEE'].sum()</t>
+        </is>
+      </c>
+      <c r="IA8" t="inlineStr">
+        <is>
+          <t>com_sitadelLocaux['SURF_COM_ISSUE_TRANSFO'].sum()</t>
+        </is>
+      </c>
+      <c r="IB8" t="inlineStr">
+        <is>
+          <t>com_sitadelLocaux['SURF_COM_DEMOLIE'].sum()</t>
+        </is>
+      </c>
+      <c r="IC8" t="inlineStr">
+        <is>
+          <t>com_sitadelLocaux['SURF_COM_TRANSFORMEE'].sum()</t>
+        </is>
+      </c>
+      <c r="ID8" t="inlineStr">
+        <is>
+          <t>com_sitadelLocaux['SURF_ART_AVANT'].sum()</t>
+        </is>
+      </c>
+      <c r="IE8" t="inlineStr">
+        <is>
+          <t>com_sitadelLocaux['SURF_ART_CREEE'].sum()</t>
+        </is>
+      </c>
+      <c r="IF8" t="inlineStr">
+        <is>
+          <t>com_sitadelLocaux['SURF_ART_ISSUE_TRANSFO'].sum()</t>
+        </is>
+      </c>
+      <c r="IG8" t="inlineStr">
+        <is>
+          <t>com_sitadelLocaux['SURF_ART_DEMOLIE'].sum()</t>
+        </is>
+      </c>
+      <c r="IH8" t="inlineStr">
+        <is>
+          <t>com_sitadelLocaux['SURF_ART_TRANSFORMEE'].sum()</t>
+        </is>
+      </c>
+      <c r="II8" t="inlineStr">
+        <is>
+          <t>com_sitadelLocaux['SURF_IND_AVANT'].sum()</t>
+        </is>
+      </c>
+      <c r="IJ8" t="inlineStr">
+        <is>
+          <t>com_sitadelLocaux['SURF_IND_CREEE'].sum()</t>
+        </is>
+      </c>
+      <c r="IK8" t="inlineStr">
+        <is>
+          <t>com_sitadelLocaux['SURF_IND_ISSUE_TRANSFO'].sum()</t>
+        </is>
+      </c>
+      <c r="IL8" t="inlineStr">
+        <is>
+          <t>com_sitadelLocaux['SURF_IND_DEMOLIE'].sum()</t>
+        </is>
+      </c>
+      <c r="IM8" t="inlineStr">
+        <is>
+          <t>com_sitadelLocaux['SURF_IND_TRANSFORMEE'].sum()</t>
+        </is>
+      </c>
+      <c r="IN8" t="inlineStr">
+        <is>
+          <t>com_sitadelLocaux['SURF_AGR_AVANT'].sum()</t>
+        </is>
+      </c>
+      <c r="IO8" t="inlineStr">
+        <is>
+          <t>com_sitadelLocaux['SURF_AGR_CREEE'].sum()</t>
+        </is>
+      </c>
+      <c r="IP8" t="inlineStr">
+        <is>
+          <t>com_sitadelLocaux['SURF_AGR_ISSUE_TRANSFO'].sum()</t>
+        </is>
+      </c>
+      <c r="IQ8" t="inlineStr">
+        <is>
+          <t>com_sitadelLocaux['SURF_AGR_DEMOLIE'].sum()</t>
+        </is>
+      </c>
+      <c r="IR8" t="inlineStr">
+        <is>
+          <t>com_sitadelLocaux['SURF_AGR_TRANSFORMEE'].sum()</t>
+        </is>
+      </c>
+      <c r="IS8" t="inlineStr">
+        <is>
+          <t>com_sitadelLocaux['SURF_ENT_AVANT'].sum()</t>
+        </is>
+      </c>
+      <c r="IT8" t="inlineStr">
+        <is>
+          <t>com_sitadelLocaux['SURF_ENT_CREEE'].sum()</t>
+        </is>
+      </c>
+      <c r="IU8" t="inlineStr">
+        <is>
+          <t>com_sitadelLocaux['SURF_ENT_ISSUE_TRANSFO'].sum()</t>
+        </is>
+      </c>
+      <c r="IV8" t="inlineStr">
+        <is>
+          <t>com_sitadelLocaux['SURF_ENT_DEMOLIE'].sum()</t>
+        </is>
+      </c>
+      <c r="IW8" t="inlineStr">
+        <is>
+          <t>com_sitadelLocaux['SURF_ENT_TRANSFORMEE'].sum()</t>
+        </is>
+      </c>
+      <c r="IX8" t="inlineStr">
+        <is>
+          <t>com_sitadelLocaux['SURF_PUB_AVANT'].sum()</t>
+        </is>
+      </c>
+      <c r="IY8" t="inlineStr">
+        <is>
+          <t>com_sitadelLocaux['SURF_PUB_CREEE'].sum()</t>
+        </is>
+      </c>
+      <c r="IZ8" t="inlineStr">
+        <is>
+          <t>com_sitadelLocaux['SURF_PUB_ISSUE_TRANSFO'].sum()</t>
+        </is>
+      </c>
+      <c r="JA8" t="inlineStr">
+        <is>
+          <t>com_sitadelLocaux['SURF_PUB_DEMOLIE'].sum()</t>
+        </is>
+      </c>
+      <c r="JB8" t="inlineStr">
+        <is>
+          <t>com_sitadelLocaux['SURF_PUB_TRANSFORMEE'].sum()</t>
+        </is>
+      </c>
+      <c r="JC8" t="inlineStr">
+        <is>
+          <t>artificialisationSourcePage</t>
+        </is>
+      </c>
+      <c r="JD8" t="inlineStr">
+        <is>
+          <t>sru2020SourcePage</t>
+        </is>
+      </c>
+      <c r="JE8" t="inlineStr">
+        <is>
+          <t>sitadelSourcePage</t>
+        </is>
+      </c>
+      <c r="JF8" t="inlineStr">
+        <is>
+          <t>metaDossierSourcePage</t>
+        </is>
+      </c>
+      <c r="JG8" t="inlineStr">
+        <is>
+          <t>projectionsSourcePage</t>
+        </is>
+      </c>
+      <c r="JH8" t="inlineStr">
+        <is>
+          <t>projectionsPacaSourcePage</t>
         </is>
       </c>
     </row>
@@ -8199,7 +10221,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G248"/>
+  <dimension ref="A1:H268"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8238,6 +10260,11 @@
           <t>source</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>expr</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -8275,6 +10302,11 @@
           <t>CODE</t>
         </is>
       </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -8292,12 +10324,14 @@
           <t>06250</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>1</v>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>06250</t>
+        </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>COUNT</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -8308,6 +10342,11 @@
       <c r="G3" t="inlineStr">
         <is>
           <t>CODE</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -8345,6 +10384,11 @@
           <t>CODE</t>
         </is>
       </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -8362,8 +10406,10 @@
           <t>Mougins</t>
         </is>
       </c>
-      <c r="D5" t="n">
-        <v>1</v>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Mougins</t>
+        </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -8378,6 +10424,11 @@
       <c r="G5" t="inlineStr">
         <is>
           <t>CODE</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -8415,6 +10466,11 @@
           <t>INTERCO</t>
         </is>
       </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -8450,6 +10506,11 @@
           <t>INTERCO</t>
         </is>
       </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -8487,6 +10548,11 @@
           <t>INTERCO</t>
         </is>
       </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -8520,6 +10586,11 @@
           <t>INTERCO</t>
         </is>
       </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -8555,6 +10626,11 @@
           <t>INTERCO</t>
         </is>
       </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -8590,6 +10666,11 @@
           <t>INTERCO</t>
         </is>
       </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -8625,6 +10706,11 @@
           <t>INTERCO</t>
         </is>
       </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -8660,6 +10746,11 @@
           <t>INTERCO</t>
         </is>
       </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -8697,6 +10788,11 @@
           <t>INSEE</t>
         </is>
       </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -8730,6 +10826,11 @@
           <t>INSEE</t>
         </is>
       </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -8763,6 +10864,11 @@
           <t>INSEE</t>
         </is>
       </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -8796,6 +10902,11 @@
           <t>INSEE</t>
         </is>
       </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -8829,6 +10940,11 @@
           <t>INSEE</t>
         </is>
       </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -8862,6 +10978,11 @@
           <t>INSEE</t>
         </is>
       </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -8895,6 +11016,11 @@
           <t>INSEE</t>
         </is>
       </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -8928,6 +11054,11 @@
           <t>INSEE</t>
         </is>
       </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -8961,6 +11092,11 @@
           <t>INSEE</t>
         </is>
       </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -8994,6 +11130,11 @@
           <t>INSEE</t>
         </is>
       </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -9027,6 +11168,11 @@
           <t>INSEE</t>
         </is>
       </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -9060,6 +11206,11 @@
           <t>INSEE</t>
         </is>
       </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -9093,6 +11244,11 @@
           <t>INSEE</t>
         </is>
       </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -9126,6 +11282,11 @@
           <t>INSEE</t>
         </is>
       </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -9159,6 +11320,11 @@
           <t>INSEE</t>
         </is>
       </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -9192,6 +11358,11 @@
           <t>INSEE</t>
         </is>
       </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -9225,6 +11396,11 @@
           <t>INSEE</t>
         </is>
       </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -9258,6 +11434,11 @@
           <t>INSEE</t>
         </is>
       </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -9291,6 +11472,11 @@
           <t>INSEE</t>
         </is>
       </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -9324,6 +11510,11 @@
           <t>INSEE</t>
         </is>
       </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -9357,6 +11548,11 @@
           <t>INSEE</t>
         </is>
       </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -9390,6 +11586,11 @@
           <t>INSEE</t>
         </is>
       </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -9423,6 +11624,11 @@
           <t>INSEE</t>
         </is>
       </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -9456,6 +11662,11 @@
           <t>INSEE</t>
         </is>
       </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -9489,6 +11700,11 @@
           <t>INSEE</t>
         </is>
       </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -9522,6 +11738,11 @@
           <t>INSEE</t>
         </is>
       </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -9555,6 +11776,11 @@
           <t>INSEE</t>
         </is>
       </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -9588,6 +11814,11 @@
           <t>INSEE</t>
         </is>
       </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -9621,6 +11852,11 @@
           <t>INSEE</t>
         </is>
       </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -9654,6 +11890,11 @@
           <t>INSEE</t>
         </is>
       </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -9687,6 +11928,11 @@
           <t>INSEE</t>
         </is>
       </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -9720,6 +11966,11 @@
           <t>INSEE</t>
         </is>
       </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -9753,6 +12004,11 @@
           <t>INSEE</t>
         </is>
       </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -9786,6 +12042,11 @@
           <t>INSEE</t>
         </is>
       </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -9819,6 +12080,11 @@
           <t>INSEE</t>
         </is>
       </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -9852,6 +12118,11 @@
           <t>INSEE</t>
         </is>
       </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -9885,6 +12156,11 @@
           <t>INSEE</t>
         </is>
       </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -9918,6 +12194,11 @@
           <t>INSEE</t>
         </is>
       </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -9951,6 +12232,11 @@
           <t>INSEE</t>
         </is>
       </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -9984,6 +12270,11 @@
           <t>INSEE</t>
         </is>
       </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -10017,6 +12308,11 @@
           <t>INSEE</t>
         </is>
       </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -10050,6 +12346,11 @@
           <t>INSEE</t>
         </is>
       </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -10083,6 +12384,11 @@
           <t>INSEE</t>
         </is>
       </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -10116,6 +12422,11 @@
           <t>INSEE</t>
         </is>
       </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -10149,6 +12460,11 @@
           <t>INSEE</t>
         </is>
       </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -10182,6 +12498,11 @@
           <t>INSEE</t>
         </is>
       </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -10215,6 +12536,11 @@
           <t>INSEE</t>
         </is>
       </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
@@ -10248,6 +12574,11 @@
           <t>SRU</t>
         </is>
       </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -10281,6 +12612,11 @@
           <t>SRU</t>
         </is>
       </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
@@ -10314,6 +12650,11 @@
           <t>SRU</t>
         </is>
       </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
@@ -10347,6 +12688,11 @@
           <t>SRU</t>
         </is>
       </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
@@ -10382,6 +12728,11 @@
           <t>SRU</t>
         </is>
       </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>get_sru2020("Taux de LLS à atteindre", CODE_INSEE, rounding=2)</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -10415,6 +12766,11 @@
           <t>SRU</t>
         </is>
       </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
@@ -10448,6 +12804,11 @@
           <t>SRU</t>
         </is>
       </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
@@ -10481,6 +12842,11 @@
           <t>SRU</t>
         </is>
       </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
@@ -10514,6 +12880,11 @@
           <t>SRU</t>
         </is>
       </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
@@ -10547,6 +12918,11 @@
           <t>SRU</t>
         </is>
       </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>round0(SRU_RP_2017 * (0.25 - SRU_TX_LLS_2017), 4)</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
@@ -10580,6 +12956,11 @@
           <t>SRU</t>
         </is>
       </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>round0(SRU_RP_2020 * (0.25 - SRU_TX_LLS_2020), 4)</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
@@ -10613,6 +12994,11 @@
           <t>SRU</t>
         </is>
       </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
@@ -10646,6 +13032,11 @@
           <t>SRU</t>
         </is>
       </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
@@ -10679,6 +13070,11 @@
           <t>SRU</t>
         </is>
       </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
@@ -10712,6 +13108,11 @@
           <t>SRU</t>
         </is>
       </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
@@ -10745,6 +13146,11 @@
           <t>SRU</t>
         </is>
       </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
@@ -10778,6 +13184,11 @@
           <t>SRU</t>
         </is>
       </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
@@ -10811,6 +13222,11 @@
           <t>ART</t>
         </is>
       </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
@@ -10844,6 +13260,11 @@
           <t>ART</t>
         </is>
       </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
@@ -10877,6 +13298,11 @@
           <t>ART</t>
         </is>
       </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
@@ -10910,6 +13336,11 @@
           <t>ART</t>
         </is>
       </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
@@ -10943,6 +13374,11 @@
           <t>ART</t>
         </is>
       </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
@@ -10976,6 +13412,11 @@
           <t>ART</t>
         </is>
       </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
@@ -11009,6 +13450,11 @@
           <t>ART</t>
         </is>
       </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
@@ -11044,6 +13490,11 @@
           <t>ART</t>
         </is>
       </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
@@ -11079,6 +13530,11 @@
           <t>ART</t>
         </is>
       </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
@@ -11114,6 +13570,11 @@
           <t>ART</t>
         </is>
       </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
@@ -11147,6 +13608,11 @@
           <t>ART</t>
         </is>
       </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
@@ -11180,6 +13646,11 @@
           <t>ART</t>
         </is>
       </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
@@ -11213,6 +13684,11 @@
           <t>ART</t>
         </is>
       </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
@@ -11246,6 +13722,11 @@
           <t>ART</t>
         </is>
       </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
@@ -11279,6 +13760,11 @@
           <t>ART</t>
         </is>
       </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
@@ -11312,6 +13798,11 @@
           <t>ART</t>
         </is>
       </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
@@ -11345,6 +13836,11 @@
           <t>ART</t>
         </is>
       </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
@@ -11378,6 +13874,11 @@
           <t>ART</t>
         </is>
       </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
@@ -11411,6 +13912,11 @@
           <t>ART</t>
         </is>
       </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
@@ -11448,6 +13954,11 @@
           <t>PROJ</t>
         </is>
       </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
@@ -11481,6 +13992,11 @@
           <t>PROJ</t>
         </is>
       </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
@@ -11514,6 +14030,11 @@
           <t>PROJ</t>
         </is>
       </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
@@ -11547,6 +14068,11 @@
           <t>PROJ</t>
         </is>
       </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
@@ -11580,6 +14106,11 @@
           <t>PROJ</t>
         </is>
       </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
@@ -11613,6 +14144,11 @@
           <t>PROJ</t>
         </is>
       </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
@@ -11650,6 +14186,11 @@
           <t>PROJ</t>
         </is>
       </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>p_scot["Unnamed: 2"].iloc[0]  if (p_epci.shape[0] == 1) else self.get("EPCI")</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
@@ -11683,6 +14224,11 @@
           <t>PROJ</t>
         </is>
       </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
@@ -11716,6 +14262,11 @@
           <t>PROJ</t>
         </is>
       </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
@@ -11749,6 +14300,11 @@
           <t>PROJ</t>
         </is>
       </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
@@ -11782,6 +14338,11 @@
           <t>PROJ</t>
         </is>
       </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
@@ -11815,6 +14376,11 @@
           <t>PROJ</t>
         </is>
       </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
@@ -11848,6 +14414,11 @@
           <t>PROJ</t>
         </is>
       </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
@@ -11881,6 +14452,11 @@
           <t>PROJ</t>
         </is>
       </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
@@ -11914,6 +14490,11 @@
           <t>PROJ</t>
         </is>
       </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
@@ -11947,6 +14528,11 @@
           <t>PROJ</t>
         </is>
       </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
@@ -11980,6 +14566,11 @@
           <t>PROJ</t>
         </is>
       </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
@@ -12013,6 +14604,11 @@
           <t>PROJ</t>
         </is>
       </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
@@ -12046,6 +14642,11 @@
           <t>PROJ</t>
         </is>
       </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
@@ -12079,6 +14680,11 @@
           <t>PROJ</t>
         </is>
       </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
@@ -12112,6 +14718,11 @@
           <t>PROJ</t>
         </is>
       </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
@@ -12145,6 +14756,11 @@
           <t>PROJ</t>
         </is>
       </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
@@ -12178,6 +14794,11 @@
           <t>PROJ</t>
         </is>
       </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
@@ -12211,6 +14832,11 @@
           <t>PROJ</t>
         </is>
       </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
@@ -12244,6 +14870,11 @@
           <t>PROJ</t>
         </is>
       </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
@@ -12277,6 +14908,11 @@
           <t>PROJ</t>
         </is>
       </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
@@ -12310,6 +14946,11 @@
           <t>PROJ</t>
         </is>
       </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
@@ -12343,6 +14984,11 @@
           <t>PROJ</t>
         </is>
       </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
@@ -12376,6 +15022,11 @@
           <t>PROJ</t>
         </is>
       </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
@@ -12409,6 +15060,11 @@
           <t>PROJ</t>
         </is>
       </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>projectionsREG["Unnamed: 39"][ REG ] * 1000</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
@@ -12442,6 +15098,11 @@
           <t>PROJ</t>
         </is>
       </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
@@ -12475,6 +15136,11 @@
           <t>PROJ</t>
         </is>
       </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
@@ -12508,6 +15174,11 @@
           <t>PROJ</t>
         </is>
       </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
@@ -12541,6 +15212,11 @@
           <t>PROJ</t>
         </is>
       </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
@@ -12574,6 +15250,11 @@
           <t>PROJ</t>
         </is>
       </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
@@ -12607,6 +15288,11 @@
           <t>PROJ</t>
         </is>
       </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
@@ -12640,6 +15326,11 @@
           <t>PROJ</t>
         </is>
       </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
@@ -12673,6 +15364,11 @@
           <t>PROJ</t>
         </is>
       </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
@@ -12706,6 +15402,11 @@
           <t>PROJ</t>
         </is>
       </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
@@ -12739,6 +15440,11 @@
           <t>PROJ</t>
         </is>
       </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
@@ -12772,6 +15478,11 @@
           <t>PROJ</t>
         </is>
       </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
@@ -12805,6 +15516,11 @@
           <t>PROJ</t>
         </is>
       </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
@@ -12838,6 +15554,11 @@
           <t>PROJ</t>
         </is>
       </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
@@ -12871,6 +15592,11 @@
           <t>PROJ</t>
         </is>
       </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
@@ -12904,6 +15630,11 @@
           <t>PROJ</t>
         </is>
       </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
@@ -12937,6 +15668,11 @@
           <t>PROJ</t>
         </is>
       </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
@@ -12970,6 +15706,11 @@
           <t>PROJ</t>
         </is>
       </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
@@ -13003,6 +15744,11 @@
           <t>PROJ</t>
         </is>
       </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
@@ -13036,6 +15782,11 @@
           <t>PROJ</t>
         </is>
       </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
@@ -13069,6 +15820,11 @@
           <t>PROJ</t>
         </is>
       </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
@@ -13102,6 +15858,11 @@
           <t>PROJ</t>
         </is>
       </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
@@ -13135,6 +15896,11 @@
           <t>PROJ</t>
         </is>
       </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
@@ -13168,6 +15934,11 @@
           <t>PROJ</t>
         </is>
       </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
@@ -13201,6 +15972,11 @@
           <t>PROJ</t>
         </is>
       </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
@@ -13234,6 +16010,11 @@
           <t>PROJ</t>
         </is>
       </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
@@ -13267,6 +16048,11 @@
           <t>PROJ</t>
         </is>
       </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
@@ -13300,6 +16086,11 @@
           <t>PROJ</t>
         </is>
       </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
@@ -13333,6 +16124,11 @@
           <t>PROJ</t>
         </is>
       </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
@@ -13366,6 +16162,11 @@
           <t>PROJ</t>
         </is>
       </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
@@ -13399,6 +16200,11 @@
           <t>PROJ</t>
         </is>
       </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
@@ -13432,6 +16238,11 @@
           <t>PROJ</t>
         </is>
       </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
@@ -13465,6 +16276,11 @@
           <t>PROJ</t>
         </is>
       </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
@@ -13498,6 +16314,11 @@
           <t>PROJ</t>
         </is>
       </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
@@ -13531,6 +16352,11 @@
           <t>PROJ</t>
         </is>
       </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
@@ -13564,6 +16390,11 @@
           <t>PROJ</t>
         </is>
       </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
@@ -13597,6 +16428,11 @@
           <t>PROJ</t>
         </is>
       </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
@@ -13630,6 +16466,11 @@
           <t>PROJ</t>
         </is>
       </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
@@ -13663,6 +16504,11 @@
           <t>PROJ</t>
         </is>
       </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
@@ -13696,6 +16542,11 @@
           <t>CALC</t>
         </is>
       </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
@@ -13729,6 +16580,11 @@
           <t>CALC</t>
         </is>
       </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
@@ -13762,6 +16618,11 @@
           <t>CALC</t>
         </is>
       </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
@@ -13795,6 +16656,11 @@
           <t>CALC</t>
         </is>
       </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
@@ -13828,6 +16694,11 @@
           <t>CALC</t>
         </is>
       </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
@@ -13861,6 +16732,11 @@
           <t>CALC</t>
         </is>
       </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
@@ -13894,6 +16770,11 @@
           <t>CALC</t>
         </is>
       </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
@@ -13927,6 +16808,11 @@
           <t>CALC</t>
         </is>
       </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
@@ -13960,6 +16846,11 @@
           <t>CALC</t>
         </is>
       </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
@@ -13993,6 +16884,11 @@
           <t>CALC</t>
         </is>
       </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
@@ -14026,6 +16922,11 @@
           <t>CALC</t>
         </is>
       </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
@@ -14059,6 +16960,11 @@
           <t>CALC</t>
         </is>
       </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
@@ -14092,6 +16998,11 @@
           <t>CALC</t>
         </is>
       </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
@@ -14125,6 +17036,11 @@
           <t>CALC</t>
         </is>
       </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
@@ -14158,6 +17074,11 @@
           <t>CALC</t>
         </is>
       </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
@@ -14191,6 +17112,11 @@
           <t>CALC</t>
         </is>
       </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
@@ -14224,6 +17150,11 @@
           <t>CALC</t>
         </is>
       </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
@@ -14257,6 +17188,11 @@
           <t>CALC</t>
         </is>
       </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
@@ -14290,6 +17226,11 @@
           <t>CALC</t>
         </is>
       </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
@@ -14323,6 +17264,11 @@
           <t>CALC</t>
         </is>
       </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
@@ -14356,6 +17302,11 @@
           <t>CALC</t>
         </is>
       </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
@@ -14389,6 +17340,11 @@
           <t>CALC</t>
         </is>
       </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
@@ -14422,6 +17378,11 @@
           <t>CALC</t>
         </is>
       </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
@@ -14435,7 +17396,7 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>0.3243405275779376</v>
+        <v>0.3243405275779379</v>
       </c>
       <c r="D188" t="n">
         <v>0.3243</v>
@@ -14455,6 +17416,11 @@
           <t>CALC</t>
         </is>
       </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
@@ -14488,6 +17454,11 @@
           <t>CALC</t>
         </is>
       </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
@@ -14523,6 +17494,11 @@
           <t>CALC</t>
         </is>
       </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
@@ -14556,6 +17532,11 @@
           <t>CALC</t>
         </is>
       </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
@@ -14593,6 +17574,11 @@
           <t>TEST</t>
         </is>
       </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>"Hello Test"</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
@@ -14626,6 +17612,11 @@
           <t>TEST</t>
         </is>
       </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
@@ -14659,27 +17650,32 @@
           <t>TEST</t>
         </is>
       </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>TEST + 5</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>REGREG</t>
+          <t>SRU_MOD3565_2017</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Projection Region 2050</t>
+          <t>Logements a Construire en Modele 35%/65% sur les objectifs SRU de 2017</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>93</v>
+        <v>1454</v>
       </c>
       <c r="D195" t="n">
-        <v>93</v>
+        <v>1454</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>EQUAL</t>
+          <t>SUM</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
@@ -14689,26 +17685,31 @@
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>PROJ</t>
+          <t>SRU</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>round(SRU_OBJ_2017_2019/35*100, 0)</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>SITADEL_LOCAUX_SUPERFICIE_TERRAIN</t>
+          <t>SRU_MOD3565_2020</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Superficie des Terrains a Destination des Activites</t>
+          <t>Logements a Construire en Modele 35%/65% sur les objectifs SRU de 2020</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>1915111</v>
+        <v>2049</v>
       </c>
       <c r="D196" t="n">
-        <v>1915111</v>
+        <v>2049</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
@@ -14722,26 +17723,31 @@
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>SIT</t>
+          <t>SRU</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>round(SRU_OBJ_2020_2022/35*100, 0)</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>SITADEL_LOCAUX_CHAMBRES</t>
+          <t>SRU_MOD3565_CARENCE</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Nombre de chambres d'hebergement crees</t>
+          <t>Logements a Construire en Modele 35%/65% pour combler la carence SRU</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>69</v>
+        <v>3774</v>
       </c>
       <c r="D197" t="n">
-        <v>69</v>
+        <v>3774</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
@@ -14755,26 +17761,31 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>SIT</t>
+          <t>SRU</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>round(SRU_CARENCE_2020/35*100, 0)</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>SITADEL_LOCAUX_NOUVEAUX</t>
+          <t>SRU_EVOLUTION_EN_RP</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Nombre de Locaux Nouveaux</t>
+          <t>Evolution du nombre de RP entre 2017 et 2020</t>
         </is>
       </c>
       <c r="C198" t="n">
-        <v>0</v>
+        <v>539</v>
       </c>
       <c r="D198" t="n">
-        <v>0</v>
+        <v>539</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
@@ -14788,26 +17799,31 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>SIT</t>
+          <t>SRU</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>round(SRU_RP_2020-SRU_RP_2017, 0)</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>SITADEL_LOCAUX_SURF_HAB_AVANT</t>
+          <t>SRU_EVOLUTION_CARENCE</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Surface de plancher de la destination ' Habitation ' existante avant travaux</t>
+          <t>Evolution de la carence SRU 2017 et 2020</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>9664</v>
+        <v>135</v>
       </c>
       <c r="D199" t="n">
-        <v>9664</v>
+        <v>135</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
@@ -14821,26 +17837,31 @@
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>SIT</t>
+          <t>SRU</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>round((SRU_RP_2020 -SRU_RP_2017) * 0.25, 0)</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>SITADEL_LOCAUX_SURF_HAB_CREEE</t>
+          <t>SRU_LOGEMENTS_SRU_CONSTRUITS</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Surface de plancher de la destination ' Habitation ' nouvelle construite</t>
+          <t>Logements SRU Construits</t>
         </is>
       </c>
       <c r="C200" t="n">
-        <v>36440</v>
+        <v>361</v>
       </c>
       <c r="D200" t="n">
-        <v>36440</v>
+        <v>361</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
@@ -14854,26 +17875,31 @@
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>SIT</t>
+          <t>SRU</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>round(SRU_CARENCE_2017 + SRU_EVOLUTION_CARENCE - SRU_CARENCE_2020, 0)</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>SITADEL_LOCAUX_SURF_HAB_ISSUE_TRANSFO</t>
+          <t>SRU_EN_CARENCE</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Surface de plancher de la destination ' Habitation ' créée par changement de destination</t>
+          <t>Nombre de Communes en Carence.</t>
         </is>
       </c>
       <c r="C201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
@@ -14887,290 +17913,367 @@
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>SIT</t>
+          <t>SRU</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>1 if (SRU_CARENCE_2020 &gt; 0) else 0</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>SITADEL_LOCAUX_SURF_HAB_DEMOLIE</t>
+          <t>LATITUDE</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Surface de plancher de la destination ' Habitation ' supprimée (démolie)</t>
-        </is>
-      </c>
-      <c r="C202" t="n">
-        <v>2096</v>
-      </c>
-      <c r="D202" t="n">
-        <v>2096</v>
+          <t>Latitude Commune</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>43.5961410556</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>43.5961410556</t>
+        </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>SUM</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>INT</t>
+          <t>STR</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>SIT</t>
+          <t>CODE</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>get_gps_lat_insee(CODE_INSEE)</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>SITADEL_LOCAUX_SURF_HAB_TRANSFORMEE</t>
+          <t>LONGITUDE</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Surface de plancher de la destination ' Habitation ' supprimée par changement de destination</t>
-        </is>
-      </c>
-      <c r="C203" t="n">
-        <v>1993</v>
-      </c>
-      <c r="D203" t="n">
-        <v>1993</v>
+          <t>Longitude Commune</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>7.00129444919</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>7.00129444919</t>
+        </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>SUM</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>INT</t>
+          <t>STR</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>SIT</t>
+          <t>CODE</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>get_gps_long_insee(CODE_INSEE)</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>SITADEL_LOCAUX_SURF_LOC_AVANT</t>
+          <t>URL_CARTE</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Surface de plancher de locaux non résidentiels (i.e. autres que d'habitation) existante avant travaux</t>
-        </is>
-      </c>
-      <c r="C204" t="n">
-        <v>214862</v>
-      </c>
-      <c r="D204" t="n">
-        <v>214862</v>
+          <t>Lien pour la Carte</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>https://www.geoportail.gouv.fr/embed/visu.html?c=7.00129444919,43.5961410556&amp;amp;z=0.00012136999453139198&amp;amp;l=ORTHOIMAGERY.ORTHOPHOTOS::GEOPORTAIL:OGC:WMTS(1)&amp;amp;l=CADASTRALPARCELS.PARCELS::GEOPORTAIL:OGC:WMTS(1)&amp;amp;l=ADMINISTRATIVEUNITS.BOUNDARIES::GEOPORTAIL:OGC:WMTS(1)&amp;amp;permalink=yes</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>https://www.geoportail.gouv.fr/embed/visu.html?c=7.00129444919,43.5961410556&amp;amp;z=0.00012136999453139198&amp;amp;l=ORTHOIMAGERY.ORTHOPHOTOS::GEOPORTAIL:OGC:WMTS(1)&amp;amp;l=CADASTRALPARCELS.PARCELS::GEOPORTAIL:OGC:WMTS(1)&amp;amp;l=ADMINISTRATIVEUNITS.BOUNDARIES::GEOPORTAIL:OGC:WMTS(1)&amp;amp;permalink=yes</t>
+        </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>SUM</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>INT</t>
+          <t>STR</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>SIT</t>
+          <t>CODE</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>"https://www.geoportail.gouv.fr/embed/visu.html?c="+LONGITUDE+","+LATITUDE+"&amp;amp;z=0.00012136999453139198&amp;amp;l=ORTHOIMAGERY.ORTHOPHOTOS::GEOPORTAIL:OGC:WMTS(1)&amp;amp;l=CADASTRALPARCELS.PARCELS::GEOPORTAIL:OGC:WMTS(1)&amp;amp;l=ADMINISTRATIVEUNITS.BOUNDARIES::GEOPORTAIL:OGC:WMTS(1)&amp;amp;permalink=yes"</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>SITADEL_LOCAUX_SURF_LOC_CREEE</t>
+          <t>URL_CARTE_ADMINISTRATIVE</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Surface de plancher de locaux non résidentiels (i.e. autres que d'habitation) nouvelle construite</t>
-        </is>
-      </c>
-      <c r="C205" t="n">
-        <v>84172</v>
-      </c>
-      <c r="D205" t="n">
-        <v>84172</v>
+          <t>Lien pour la Carte Administrative</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>https://www.geoportail.gouv.fr/carte?c=7.00129444919,43.5961410556&amp;z=14&amp;l0=ORTHOIMAGERY.ORTHOPHOTOS::GEOPORTAIL:OGC:WMTS(1)&amp;l1=LIMITES_ADMINISTRATIVES_EXPRESS.LATEST::GEOPORTAIL:OGC:WMTS(1)&amp;permalink=yes</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>https://www.geoportail.gouv.fr/carte?c=7.00129444919,43.5961410556&amp;z=14&amp;l0=ORTHOIMAGERY.ORTHOPHOTOS::GEOPORTAIL:OGC:WMTS(1)&amp;l1=LIMITES_ADMINISTRATIVES_EXPRESS.LATEST::GEOPORTAIL:OGC:WMTS(1)&amp;permalink=yes</t>
+        </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>SUM</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>INT</t>
+          <t>STR</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>SIT</t>
+          <t>CODE</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>"https://www.geoportail.gouv.fr/carte?c="+LONGITUDE+","+LATITUDE+"&amp;z=14&amp;l0=ORTHOIMAGERY.ORTHOPHOTOS::GEOPORTAIL:OGC:WMTS(1)&amp;l1=LIMITES_ADMINISTRATIVES_EXPRESS.LATEST::GEOPORTAIL:OGC:WMTS(1)&amp;permalink=yes"</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>SITADEL_LOCAUX_SURF_LOC_ISSUE_TRANSFO</t>
+          <t>URL_CARTE_URBANISME</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Surface de plancher de locaux non résidentiels (i.e. autres que d'habitation) créée par changement de destination</t>
-        </is>
-      </c>
-      <c r="C206" t="n">
-        <v>9950</v>
-      </c>
-      <c r="D206" t="n">
-        <v>9950</v>
+          <t>Lien pour la Carte Geoportail Urbanisme</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>https://www.geoportail-urbanisme.gouv.fr/map/#tile=1&amp;lon=7.00129444919&amp;lat=43.5961410556&amp;zoom=13&amp;mlon=7.00129444919&amp;mlat=43.5961410556</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>https://www.geoportail-urbanisme.gouv.fr/map/#tile=1&amp;lon=7.00129444919&amp;lat=43.5961410556&amp;zoom=13&amp;mlon=7.00129444919&amp;mlat=43.5961410556</t>
+        </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>SUM</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>INT</t>
+          <t>STR</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>SIT</t>
+          <t>CODE</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>"https://www.geoportail-urbanisme.gouv.fr/map/#tile=1&amp;lon="+LONGITUDE+"&amp;lat="+LATITUDE+"&amp;zoom=13&amp;mlon="+LONGITUDE+"&amp;mlat="+LATITUDE+""</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>SITADEL_LOCAUX_SURF_LOC_DEMOLIE</t>
+          <t>URL_CARTE_SITADEL</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Surface de plancher de locaux non résidentiels (i.e. autres que d'habitation) démolie</t>
-        </is>
-      </c>
-      <c r="C207" t="n">
-        <v>3561</v>
-      </c>
-      <c r="D207" t="n">
-        <v>3561</v>
+          <t>Lien pour la Carte Sitadel Koumoul</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>https://opendata.koumoul.com/data-fair/app/sitadel-logements?embed=true</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>https://opendata.koumoul.com/data-fair/app/sitadel-logements?embed=true</t>
+        </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>SUM</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>INT</t>
+          <t>STR</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>SIT</t>
+          <t>CODE</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t xml:space="preserve">"https://opendata.koumoul.com/data-fair/app/sitadel-logements?embed=true" </t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
         <is>
-          <t>SITADEL_LOCAUX_SURF_LOC_TRANSFORMEE</t>
+          <t>URL_CARTE_VIGIBATI</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Surface de plancher de locaux non résidentiels (i.e. autres que d'habitation) supprimée par changement de destination</t>
-        </is>
-      </c>
-      <c r="C208" t="n">
-        <v>7957</v>
-      </c>
-      <c r="D208" t="n">
-        <v>7957</v>
+          <t>Lien pour la Carte Sitadel Vigibati</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>https://vigibati.fr/?map.z=14&amp;map.c=12022302133321312221231&amp;map.f=1&amp;location.fx=7.00129444919&amp;location.tx=7.00129444919&amp;location.fy=43.5961410556&amp;location.ty=43.5961410556</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>https://vigibati.fr/?map.z=14&amp;map.c=12022302133321312221231&amp;map.f=1&amp;location.fx=7.00129444919&amp;location.tx=7.00129444919&amp;location.fy=43.5961410556&amp;location.ty=43.5961410556</t>
+        </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>SUM</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>INT</t>
+          <t>STR</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>SIT</t>
+          <t>CODE</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>"https://vigibati.fr/?map.z=14&amp;map.c=12022302133321312221231&amp;map.f=1&amp;location.fx="+LONGITUDE+"&amp;location.tx="+LONGITUDE+"&amp;location.fy="+LATITUDE+"&amp;location.ty="+LATITUDE+""</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t>SITADEL_LOCAUX_SURF_HEB_AVANT</t>
+          <t>URL_CARTE_LOGEMENT_SOCIAL</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Surface de plancher de la destination ' Hébergement hôtelier ' existante avant travaux</t>
-        </is>
-      </c>
-      <c r="C209" t="n">
-        <v>9492</v>
-      </c>
-      <c r="D209" t="n">
-        <v>9492</v>
+          <t>Lien pour la Carte Logement Social</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>https://www.geoportail.gouv.fr/carte?c=7.00129444919,43.5961410556&amp;z=12&amp;l0=ORTHOIMAGERY.ORTHOPHOTOS::GEOPORTAIL:OGC:WMTS(1)&amp;l1=LIMITES_ADMINISTRATIVES_EXPRESS.LATEST::GEOPORTAIL:OGC:WMTS(1)&amp;l2=INSEE.FILOSOFI.PART.LOGEMENTS.SOCIAUX.SECRET::GEOPORTAIL:OGC:WMTS(0.8)&amp;permalink=yes</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>https://www.geoportail.gouv.fr/carte?c=7.00129444919,43.5961410556&amp;z=12&amp;l0=ORTHOIMAGERY.ORTHOPHOTOS::GEOPORTAIL:OGC:WMTS(1)&amp;l1=LIMITES_ADMINISTRATIVES_EXPRESS.LATEST::GEOPORTAIL:OGC:WMTS(1)&amp;l2=INSEE.FILOSOFI.PART.LOGEMENTS.SOCIAUX.SECRET::GEOPORTAIL:OGC:WMTS(0.8)&amp;permalink=yes</t>
+        </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>SUM</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>INT</t>
+          <t>STR</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>SIT</t>
+          <t>CODE</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>"https://www.geoportail.gouv.fr/carte?c="+LONGITUDE+","+LATITUDE+"&amp;z=12&amp;l0=ORTHOIMAGERY.ORTHOPHOTOS::GEOPORTAIL:OGC:WMTS(1)&amp;l1=LIMITES_ADMINISTRATIVES_EXPRESS.LATEST::GEOPORTAIL:OGC:WMTS(1)&amp;l2=INSEE.FILOSOFI.PART.LOGEMENTS.SOCIAUX.SECRET::GEOPORTAIL:OGC:WMTS(0.8)&amp;permalink=yes"</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>SITADEL_LOCAUX_SURF_HEB_CREEE</t>
+          <t>SITADEL_LOCAUX_SUPERFICIE_TERRAIN</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Surface de plancher de la destination ' Hébergement hôtelier ' nouvelle construite</t>
+          <t>Superficie des Terrains a Destination des Activites</t>
         </is>
       </c>
       <c r="C210" t="n">
-        <v>11225</v>
+        <v>1915111</v>
       </c>
       <c r="D210" t="n">
-        <v>11225</v>
+        <v>1915111</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
@@ -15185,25 +18288,30 @@
       <c r="G210" t="inlineStr">
         <is>
           <t>SIT</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>com_sitadelLocaux['SUPERFICIE_TERRAIN'].sum()</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
         <is>
-          <t>SITADEL_LOCAUX_SURF_HEB_ISSUE_TRANSFO</t>
+          <t>SITADEL_LOCAUX_CHAMBRES</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Surface de plancher de la destination ' Hébergement hôtelier ' créée par changement de destination</t>
+          <t>Nombre de chambres d'hebergement crees</t>
         </is>
       </c>
       <c r="C211" t="n">
-        <v>765</v>
+        <v>69</v>
       </c>
       <c r="D211" t="n">
-        <v>765</v>
+        <v>69</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
@@ -15218,25 +18326,30 @@
       <c r="G211" t="inlineStr">
         <is>
           <t>SIT</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>com_sitadelLocaux['NB_CHAMBRES'].sum()</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
         <is>
-          <t>SITADEL_LOCAUX_SURF_HEB_DEMOLIE</t>
+          <t>SITADEL_LOCAUX_NOUVEAUX</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Surface de plancher de la destination ' Hébergement hôtelier ' démolie</t>
+          <t>Nombre de Locaux Nouveaux</t>
         </is>
       </c>
       <c r="C212" t="n">
-        <v>546</v>
+        <v>0</v>
       </c>
       <c r="D212" t="n">
-        <v>546</v>
+        <v>0</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
@@ -15251,25 +18364,30 @@
       <c r="G212" t="inlineStr">
         <is>
           <t>SIT</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>loc_nouveau['NATURE_PROJET'].count()</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
         <is>
-          <t>SITADEL_LOCAUX_SURF_HEB_TRANSFORMEE</t>
+          <t>SITADEL_LOCAUX_SURF_HAB_AVANT</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Surface de plancher de la destination ' Hébergement hôtelier ' supprimée par changement de destination</t>
+          <t>Surface de plancher de la destination ' Habitation ' existante avant travaux</t>
         </is>
       </c>
       <c r="C213" t="n">
-        <v>237</v>
+        <v>9664</v>
       </c>
       <c r="D213" t="n">
-        <v>237</v>
+        <v>9664</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
@@ -15284,25 +18402,30 @@
       <c r="G213" t="inlineStr">
         <is>
           <t>SIT</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>com_sitadelLocaux['SURF_HAB_AVANT'].sum()</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t>SITADEL_LOCAUX_SURF_BUR_AVANT</t>
+          <t>SITADEL_LOCAUX_SURF_HAB_CREEE</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Surface de plancher de la destination ' Bureau ' existante avant travaux</t>
+          <t>Surface de plancher de la destination ' Habitation ' nouvelle construite</t>
         </is>
       </c>
       <c r="C214" t="n">
-        <v>14450</v>
+        <v>36440</v>
       </c>
       <c r="D214" t="n">
-        <v>14450</v>
+        <v>36440</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
@@ -15317,25 +18440,30 @@
       <c r="G214" t="inlineStr">
         <is>
           <t>SIT</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>com_sitadelLocaux['SURF_HAB_CREEE'].sum()</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
         <is>
-          <t>SITADEL_LOCAUX_SURF_BUR_CREEE</t>
+          <t>SITADEL_LOCAUX_SURF_HAB_ISSUE_TRANSFO</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Surface de plancher de la destination ' Bureau ' nouvelle construite</t>
+          <t>Surface de plancher de la destination ' Habitation ' créée par changement de destination</t>
         </is>
       </c>
       <c r="C215" t="n">
-        <v>9589</v>
+        <v>0</v>
       </c>
       <c r="D215" t="n">
-        <v>9589</v>
+        <v>0</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
@@ -15350,25 +18478,30 @@
       <c r="G215" t="inlineStr">
         <is>
           <t>SIT</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>com_sitadelLocaux['SURF_HAB_ISSUE_TRANSFO'].sum()</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
         <is>
-          <t>SITADEL_LOCAUX_SURF_BUR_ISSUE_TRANSFO</t>
+          <t>SITADEL_LOCAUX_SURF_HAB_DEMOLIE</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Surface de plancher de la destination ' Bureau ' créée par changement de destination</t>
+          <t>Surface de plancher de la destination ' Habitation ' supprimée (démolie)</t>
         </is>
       </c>
       <c r="C216" t="n">
-        <v>1013</v>
+        <v>2096</v>
       </c>
       <c r="D216" t="n">
-        <v>1013</v>
+        <v>2096</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
@@ -15383,25 +18516,30 @@
       <c r="G216" t="inlineStr">
         <is>
           <t>SIT</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>com_sitadelLocaux['SURF_HAB_DEMOLIE'].sum()</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>SITADEL_LOCAUX_SURF_BUR_DEMOLIE</t>
+          <t>SITADEL_LOCAUX_SURF_HAB_TRANSFORMEE</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Surface de plancher de la destination ' Bureau ' démolie</t>
+          <t>Surface de plancher de la destination ' Habitation ' supprimée par changement de destination</t>
         </is>
       </c>
       <c r="C217" t="n">
-        <v>68</v>
+        <v>1993</v>
       </c>
       <c r="D217" t="n">
-        <v>68</v>
+        <v>1993</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
@@ -15416,25 +18554,30 @@
       <c r="G217" t="inlineStr">
         <is>
           <t>SIT</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>com_sitadelLocaux['SURF_HAB_TRANSFORMEE'].sum()</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
         <is>
-          <t>SITADEL_LOCAUX_SURF_BUR_TRANSFORMEE</t>
+          <t>SITADEL_LOCAUX_SURF_LOC_AVANT</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Surface de plancher de la destination ' Bureau ' supprimée par changement de destination</t>
+          <t>Surface de plancher de locaux non résidentiels (i.e. autres que d'habitation) existante avant travaux</t>
         </is>
       </c>
       <c r="C218" t="n">
-        <v>263</v>
+        <v>214862</v>
       </c>
       <c r="D218" t="n">
-        <v>263</v>
+        <v>214862</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
@@ -15449,25 +18592,30 @@
       <c r="G218" t="inlineStr">
         <is>
           <t>SIT</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>com_sitadelLocaux['SURF_LOC_AVANT'].sum()</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
         <is>
-          <t>SITADEL_LOCAUX_SURF_COM_AVANT</t>
+          <t>SITADEL_LOCAUX_SURF_LOC_CREEE</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Surface de plancher de la destination ' Commerce ' existante avant travaux</t>
+          <t>Surface de plancher de locaux non résidentiels (i.e. autres que d'habitation) nouvelle construite</t>
         </is>
       </c>
       <c r="C219" t="n">
-        <v>10266</v>
+        <v>84172</v>
       </c>
       <c r="D219" t="n">
-        <v>10266</v>
+        <v>84172</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
@@ -15482,25 +18630,30 @@
       <c r="G219" t="inlineStr">
         <is>
           <t>SIT</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>com_sitadelLocaux['SURF_LOC_CREEE'].sum()</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
         <is>
-          <t>SITADEL_LOCAUX_SURF_COM_CREEE</t>
+          <t>SITADEL_LOCAUX_SURF_LOC_ISSUE_TRANSFO</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Surface de plancher de la destination ' Commerce ' nouvelle construite</t>
+          <t>Surface de plancher de locaux non résidentiels (i.e. autres que d'habitation) créée par changement de destination</t>
         </is>
       </c>
       <c r="C220" t="n">
-        <v>22103</v>
+        <v>9950</v>
       </c>
       <c r="D220" t="n">
-        <v>22103</v>
+        <v>9950</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
@@ -15515,25 +18668,30 @@
       <c r="G220" t="inlineStr">
         <is>
           <t>SIT</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>com_sitadelLocaux['SURF_LOC_ISSUE_TRANSFO'].sum()</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
         <is>
-          <t>SITADEL_LOCAUX_SURF_COM_ISSUE_TRANSFO</t>
+          <t>SITADEL_LOCAUX_SURF_LOC_DEMOLIE</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Surface de plancher de la destination ' Commerce ' créée par changement de destination</t>
+          <t>Surface de plancher de locaux non résidentiels (i.e. autres que d'habitation) démolie</t>
         </is>
       </c>
       <c r="C221" t="n">
-        <v>6375</v>
+        <v>3561</v>
       </c>
       <c r="D221" t="n">
-        <v>6375</v>
+        <v>3561</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
@@ -15548,25 +18706,30 @@
       <c r="G221" t="inlineStr">
         <is>
           <t>SIT</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>com_sitadelLocaux['SURF_LOC_DEMOLIE'].sum()</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
         <is>
-          <t>SITADEL_LOCAUX_SURF_COM_DEMOLIE</t>
+          <t>SITADEL_LOCAUX_SURF_LOC_TRANSFORMEE</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Surface de plancher de la destination ' Commerce ' démolie</t>
+          <t>Surface de plancher de locaux non résidentiels (i.e. autres que d'habitation) supprimée par changement de destination</t>
         </is>
       </c>
       <c r="C222" t="n">
-        <v>0</v>
+        <v>7957</v>
       </c>
       <c r="D222" t="n">
-        <v>0</v>
+        <v>7957</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
@@ -15581,25 +18744,30 @@
       <c r="G222" t="inlineStr">
         <is>
           <t>SIT</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>com_sitadelLocaux['SURF_LOC_TRANSFORMEE'].sum()</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
         <is>
-          <t>SITADEL_LOCAUX_SURF_COM_TRANSFORMEE</t>
+          <t>SITADEL_LOCAUX_SURF_HEB_AVANT</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Surface de plancher de la destination ' Commerce ' supprimée par changement de destination</t>
+          <t>Surface de plancher de la destination ' Hébergement hôtelier ' existante avant travaux</t>
         </is>
       </c>
       <c r="C223" t="n">
-        <v>542</v>
+        <v>9492</v>
       </c>
       <c r="D223" t="n">
-        <v>542</v>
+        <v>9492</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
@@ -15614,25 +18782,30 @@
       <c r="G223" t="inlineStr">
         <is>
           <t>SIT</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>com_sitadelLocaux['SURF_HEB_AVANT'].sum()</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
         <is>
-          <t>SITADEL_LOCAUX_SURF_ART_AVANT</t>
+          <t>SITADEL_LOCAUX_SURF_HEB_CREEE</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Surface de plancher de la destination ' Artisanat ' existante avant travaux</t>
+          <t>Surface de plancher de la destination ' Hébergement hôtelier ' nouvelle construite</t>
         </is>
       </c>
       <c r="C224" t="n">
-        <v>13002</v>
+        <v>11225</v>
       </c>
       <c r="D224" t="n">
-        <v>13002</v>
+        <v>11225</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
@@ -15647,25 +18820,30 @@
       <c r="G224" t="inlineStr">
         <is>
           <t>SIT</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>com_sitadelLocaux['SURF_HEB_CREEE'].sum()</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
         <is>
-          <t>SITADEL_LOCAUX_SURF_ART_CREEE</t>
+          <t>SITADEL_LOCAUX_SURF_HEB_ISSUE_TRANSFO</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Surface de plancher de la destination ' Artisanat ' nouvelle construite</t>
+          <t>Surface de plancher de la destination ' Hébergement hôtelier ' créée par changement de destination</t>
         </is>
       </c>
       <c r="C225" t="n">
-        <v>9282</v>
+        <v>765</v>
       </c>
       <c r="D225" t="n">
-        <v>9282</v>
+        <v>765</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
@@ -15680,25 +18858,30 @@
       <c r="G225" t="inlineStr">
         <is>
           <t>SIT</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>com_sitadelLocaux['SURF_HEB_ISSUE_TRANSFO'].sum()</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
         <is>
-          <t>SITADEL_LOCAUX_SURF_ART_ISSUE_TRANSFO</t>
+          <t>SITADEL_LOCAUX_SURF_HEB_DEMOLIE</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Surface de plancher de la destination ' Artisanat ' créée par changement de destination</t>
+          <t>Surface de plancher de la destination ' Hébergement hôtelier ' démolie</t>
         </is>
       </c>
       <c r="C226" t="n">
-        <v>371</v>
+        <v>546</v>
       </c>
       <c r="D226" t="n">
-        <v>371</v>
+        <v>546</v>
       </c>
       <c r="E226" t="inlineStr">
         <is>
@@ -15713,25 +18896,30 @@
       <c r="G226" t="inlineStr">
         <is>
           <t>SIT</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>com_sitadelLocaux['SURF_HEB_DEMOLIE'].sum()</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
         <is>
-          <t>SITADEL_LOCAUX_SURF_ART_DEMOLIE</t>
+          <t>SITADEL_LOCAUX_SURF_HEB_TRANSFORMEE</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Surface de plancher de la destination ' Artisanat ' démolie</t>
+          <t>Surface de plancher de la destination ' Hébergement hôtelier ' supprimée par changement de destination</t>
         </is>
       </c>
       <c r="C227" t="n">
-        <v>0</v>
+        <v>237</v>
       </c>
       <c r="D227" t="n">
-        <v>0</v>
+        <v>237</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
@@ -15746,25 +18934,30 @@
       <c r="G227" t="inlineStr">
         <is>
           <t>SIT</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>com_sitadelLocaux['SURF_HEB_TRANSFORMEE'].sum()</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
         <is>
-          <t>SITADEL_LOCAUX_SURF_ART_TRANSFORMEE</t>
+          <t>SITADEL_LOCAUX_SURF_BUR_AVANT</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Surface de plancher de la destination ' Artisanat ' supprimée par changement de destination</t>
+          <t>Surface de plancher de la destination ' Bureau ' existante avant travaux</t>
         </is>
       </c>
       <c r="C228" t="n">
-        <v>0</v>
+        <v>14450</v>
       </c>
       <c r="D228" t="n">
-        <v>0</v>
+        <v>14450</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
@@ -15779,25 +18972,30 @@
       <c r="G228" t="inlineStr">
         <is>
           <t>SIT</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>com_sitadelLocaux['SURF_BUR_AVANT'].sum()</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
         <is>
-          <t>SITADEL_LOCAUX_SURF_IND_AVANT</t>
+          <t>SITADEL_LOCAUX_SURF_BUR_CREEE</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Surface de plancher de la destination ' Industrie ' existante avant travaux</t>
+          <t>Surface de plancher de la destination ' Bureau ' nouvelle construite</t>
         </is>
       </c>
       <c r="C229" t="n">
-        <v>2788</v>
+        <v>9589</v>
       </c>
       <c r="D229" t="n">
-        <v>2788</v>
+        <v>9589</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
@@ -15812,25 +19010,30 @@
       <c r="G229" t="inlineStr">
         <is>
           <t>SIT</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>com_sitadelLocaux['SURF_BUR_CREEE'].sum()</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
         <is>
-          <t>SITADEL_LOCAUX_SURF_IND_CREEE</t>
+          <t>SITADEL_LOCAUX_SURF_BUR_ISSUE_TRANSFO</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Surface de plancher de la destination ' Industrie ' nouvelle construite</t>
+          <t>Surface de plancher de la destination ' Bureau ' créée par changement de destination</t>
         </is>
       </c>
       <c r="C230" t="n">
-        <v>217</v>
+        <v>1013</v>
       </c>
       <c r="D230" t="n">
-        <v>217</v>
+        <v>1013</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
@@ -15845,25 +19048,30 @@
       <c r="G230" t="inlineStr">
         <is>
           <t>SIT</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>com_sitadelLocaux['SURF_BUR_ISSUE_TRANSFO'].sum()</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
         <is>
-          <t>SITADEL_LOCAUX_SURF_IND_ISSUE_TRANSFO</t>
+          <t>SITADEL_LOCAUX_SURF_BUR_DEMOLIE</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Surface de plancher de la destination ' Industrie ' créée par changement de destination</t>
+          <t>Surface de plancher de la destination ' Bureau ' démolie</t>
         </is>
       </c>
       <c r="C231" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="D231" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
@@ -15878,25 +19086,30 @@
       <c r="G231" t="inlineStr">
         <is>
           <t>SIT</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>com_sitadelLocaux['SURF_BUR_DEMOLIE'].sum()</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
         <is>
-          <t>SITADEL_LOCAUX_SURF_IND_DEMOLIE</t>
+          <t>SITADEL_LOCAUX_SURF_BUR_TRANSFORMEE</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Surface de plancher de la destination ' Industrie ' démolie</t>
+          <t>Surface de plancher de la destination ' Bureau ' supprimée par changement de destination</t>
         </is>
       </c>
       <c r="C232" t="n">
-        <v>2237</v>
+        <v>263</v>
       </c>
       <c r="D232" t="n">
-        <v>2237</v>
+        <v>263</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
@@ -15911,25 +19124,30 @@
       <c r="G232" t="inlineStr">
         <is>
           <t>SIT</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>com_sitadelLocaux['SURF_BUR_TRANSFORMEE'].sum()</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
         <is>
-          <t>SITADEL_LOCAUX_SURF_IND_TRANSFORMEE</t>
+          <t>SITADEL_LOCAUX_SURF_COM_AVANT</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Surface de plancher de la destination ' Industrie ' supprimée par changement de destination</t>
+          <t>Surface de plancher de la destination ' Commerce ' existante avant travaux</t>
         </is>
       </c>
       <c r="C233" t="n">
-        <v>0</v>
+        <v>10266</v>
       </c>
       <c r="D233" t="n">
-        <v>0</v>
+        <v>10266</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
@@ -15944,25 +19162,30 @@
       <c r="G233" t="inlineStr">
         <is>
           <t>SIT</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>com_sitadelLocaux['SURF_COM_AVANT'].sum()</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
         <is>
-          <t>SITADEL_LOCAUX_SURF_AGR_AVANT</t>
+          <t>SITADEL_LOCAUX_SURF_COM_CREEE</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Surface de plancher de la destination ' Exploitation agricole ou forestière ' existante avant travaux</t>
+          <t>Surface de plancher de la destination ' Commerce ' nouvelle construite</t>
         </is>
       </c>
       <c r="C234" t="n">
-        <v>478</v>
+        <v>22103</v>
       </c>
       <c r="D234" t="n">
-        <v>478</v>
+        <v>22103</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
@@ -15977,25 +19200,30 @@
       <c r="G234" t="inlineStr">
         <is>
           <t>SIT</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>com_sitadelLocaux['SURF_COM_CREEE'].sum()</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
         <is>
-          <t>SITADEL_LOCAUX_SURF_AGR_CREEE</t>
+          <t>SITADEL_LOCAUX_SURF_COM_ISSUE_TRANSFO</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Surface de plancher de la destination ' Exploitation agricole ou forestière ' nouvelle construite</t>
+          <t>Surface de plancher de la destination ' Commerce ' créée par changement de destination</t>
         </is>
       </c>
       <c r="C235" t="n">
-        <v>1053</v>
+        <v>6375</v>
       </c>
       <c r="D235" t="n">
-        <v>1053</v>
+        <v>6375</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
@@ -16010,18 +19238,23 @@
       <c r="G235" t="inlineStr">
         <is>
           <t>SIT</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>com_sitadelLocaux['SURF_COM_ISSUE_TRANSFO'].sum()</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="inlineStr">
         <is>
-          <t>SITADEL_LOCAUX_SURF_AGR_ISSUE_TRANSFO</t>
+          <t>SITADEL_LOCAUX_SURF_COM_DEMOLIE</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Surface de plancher de la destination ' Exploitation agricole ou forestière ' créée par changement de destination</t>
+          <t>Surface de plancher de la destination ' Commerce ' démolie</t>
         </is>
       </c>
       <c r="C236" t="n">
@@ -16045,23 +19278,28 @@
           <t>SIT</t>
         </is>
       </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>com_sitadelLocaux['SURF_COM_DEMOLIE'].sum()</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
         <is>
-          <t>SITADEL_LOCAUX_SURF_AGR_DEMOLIE</t>
+          <t>SITADEL_LOCAUX_SURF_COM_TRANSFORMEE</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Surface de plancher de la destination ' Exploitation agricole ou forestière ' démolie</t>
+          <t>Surface de plancher de la destination ' Commerce ' supprimée par changement de destination</t>
         </is>
       </c>
       <c r="C237" t="n">
-        <v>0</v>
+        <v>542</v>
       </c>
       <c r="D237" t="n">
-        <v>0</v>
+        <v>542</v>
       </c>
       <c r="E237" t="inlineStr">
         <is>
@@ -16076,25 +19314,30 @@
       <c r="G237" t="inlineStr">
         <is>
           <t>SIT</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>com_sitadelLocaux['SURF_COM_TRANSFORMEE'].sum()</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="inlineStr">
         <is>
-          <t>SITADEL_LOCAUX_SURF_AGR_TRANSFORMEE</t>
+          <t>SITADEL_LOCAUX_SURF_ART_AVANT</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Surface de plancher de la destination ' Exploitation agricole ou forestière ' supprimée par changement de destination</t>
+          <t>Surface de plancher de la destination ' Artisanat ' existante avant travaux</t>
         </is>
       </c>
       <c r="C238" t="n">
-        <v>395</v>
+        <v>13002</v>
       </c>
       <c r="D238" t="n">
-        <v>395</v>
+        <v>13002</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
@@ -16109,25 +19352,30 @@
       <c r="G238" t="inlineStr">
         <is>
           <t>SIT</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>com_sitadelLocaux['SURF_ART_AVANT'].sum()</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="inlineStr">
         <is>
-          <t>SITADEL_LOCAUX_SURF_ENT_AVANT</t>
+          <t>SITADEL_LOCAUX_SURF_ART_CREEE</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Surface de plancher de la destination ' Entrepôt ' existante avant travaux</t>
+          <t>Surface de plancher de la destination ' Artisanat ' nouvelle construite</t>
         </is>
       </c>
       <c r="C239" t="n">
-        <v>27672</v>
+        <v>9282</v>
       </c>
       <c r="D239" t="n">
-        <v>27672</v>
+        <v>9282</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
@@ -16142,25 +19390,30 @@
       <c r="G239" t="inlineStr">
         <is>
           <t>SIT</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>com_sitadelLocaux['SURF_ART_CREEE'].sum()</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="inlineStr">
         <is>
-          <t>SITADEL_LOCAUX_SURF_ENT_CREEE</t>
+          <t>SITADEL_LOCAUX_SURF_ART_ISSUE_TRANSFO</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Surface de plancher de la destination ' Entrepôt ' nouvelle construite</t>
+          <t>Surface de plancher de la destination ' Artisanat ' créée par changement de destination</t>
         </is>
       </c>
       <c r="C240" t="n">
-        <v>18166</v>
+        <v>371</v>
       </c>
       <c r="D240" t="n">
-        <v>18166</v>
+        <v>371</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
@@ -16175,25 +19428,30 @@
       <c r="G240" t="inlineStr">
         <is>
           <t>SIT</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>com_sitadelLocaux['SURF_ART_ISSUE_TRANSFO'].sum()</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="inlineStr">
         <is>
-          <t>SITADEL_LOCAUX_SURF_ENT_ISSUE_TRANSFO</t>
+          <t>SITADEL_LOCAUX_SURF_ART_DEMOLIE</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Surface de plancher de la destination ' Entrepôt ' créée par changement de destination</t>
+          <t>Surface de plancher de la destination ' Artisanat ' démolie</t>
         </is>
       </c>
       <c r="C241" t="n">
-        <v>352</v>
+        <v>0</v>
       </c>
       <c r="D241" t="n">
-        <v>352</v>
+        <v>0</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
@@ -16208,25 +19466,30 @@
       <c r="G241" t="inlineStr">
         <is>
           <t>SIT</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>com_sitadelLocaux['SURF_ART_DEMOLIE'].sum()</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="inlineStr">
         <is>
-          <t>SITADEL_LOCAUX_SURF_ENT_DEMOLIE</t>
+          <t>SITADEL_LOCAUX_SURF_ART_TRANSFORMEE</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Surface de plancher de la destination ' Entrepôt ' démolie</t>
+          <t>Surface de plancher de la destination ' Artisanat ' supprimée par changement de destination</t>
         </is>
       </c>
       <c r="C242" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="D242" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
@@ -16241,25 +19504,30 @@
       <c r="G242" t="inlineStr">
         <is>
           <t>SIT</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>com_sitadelLocaux['SURF_ART_TRANSFORMEE'].sum()</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="inlineStr">
         <is>
-          <t>SITADEL_LOCAUX_SURF_ENT_TRANSFORMEE</t>
+          <t>SITADEL_LOCAUX_SURF_IND_AVANT</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Surface de plancher de la destination ' Entrepôt ' supprimée par changement de destination</t>
+          <t>Surface de plancher de la destination ' Industrie ' existante avant travaux</t>
         </is>
       </c>
       <c r="C243" t="n">
-        <v>5889</v>
+        <v>2788</v>
       </c>
       <c r="D243" t="n">
-        <v>5889</v>
+        <v>2788</v>
       </c>
       <c r="E243" t="inlineStr">
         <is>
@@ -16274,25 +19542,30 @@
       <c r="G243" t="inlineStr">
         <is>
           <t>SIT</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>com_sitadelLocaux['SURF_IND_AVANT'].sum()</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="inlineStr">
         <is>
-          <t>SITADEL_LOCAUX_SURF_PUB_AVANT</t>
+          <t>SITADEL_LOCAUX_SURF_IND_CREEE</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Surface de plancher de la destination ' Services publics ou d'intérêt collectif' existante avant travaux</t>
+          <t>Surface de plancher de la destination ' Industrie ' nouvelle construite</t>
         </is>
       </c>
       <c r="C244" t="n">
-        <v>136727</v>
+        <v>217</v>
       </c>
       <c r="D244" t="n">
-        <v>136727</v>
+        <v>217</v>
       </c>
       <c r="E244" t="inlineStr">
         <is>
@@ -16307,25 +19580,30 @@
       <c r="G244" t="inlineStr">
         <is>
           <t>SIT</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>com_sitadelLocaux['SURF_IND_CREEE'].sum()</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="inlineStr">
         <is>
-          <t>SITADEL_LOCAUX_SURF_PUB_CREEE</t>
+          <t>SITADEL_LOCAUX_SURF_IND_ISSUE_TRANSFO</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Surface de plancher de la destination ' Services publics ou d'intérêt collectif ' nouvelle construite</t>
+          <t>Surface de plancher de la destination ' Industrie ' créée par changement de destination</t>
         </is>
       </c>
       <c r="C245" t="n">
-        <v>12537</v>
+        <v>0</v>
       </c>
       <c r="D245" t="n">
-        <v>12537</v>
+        <v>0</v>
       </c>
       <c r="E245" t="inlineStr">
         <is>
@@ -16340,25 +19618,30 @@
       <c r="G245" t="inlineStr">
         <is>
           <t>SIT</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>com_sitadelLocaux['SURF_IND_ISSUE_TRANSFO'].sum()</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="inlineStr">
         <is>
-          <t>SITADEL_LOCAUX_SURF_PUB_ISSUE_TRANSFO</t>
+          <t>SITADEL_LOCAUX_SURF_IND_DEMOLIE</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Surface de plancher de la destination ' Services publics ou d'intérêt collectif ' créée par changement de destination</t>
+          <t>Surface de plancher de la destination ' Industrie ' démolie</t>
         </is>
       </c>
       <c r="C246" t="n">
-        <v>1074</v>
+        <v>2237</v>
       </c>
       <c r="D246" t="n">
-        <v>1074</v>
+        <v>2237</v>
       </c>
       <c r="E246" t="inlineStr">
         <is>
@@ -16373,25 +19656,30 @@
       <c r="G246" t="inlineStr">
         <is>
           <t>SIT</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>com_sitadelLocaux['SURF_IND_DEMOLIE'].sum()</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="inlineStr">
         <is>
-          <t>SITADEL_LOCAUX_SURF_PUB_DEMOLIE</t>
+          <t>SITADEL_LOCAUX_SURF_IND_TRANSFORMEE</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Surface de plancher de la destination ' Services publics ou d'intérêt collectif ' démolie</t>
+          <t>Surface de plancher de la destination ' Industrie ' supprimée par changement de destination</t>
         </is>
       </c>
       <c r="C247" t="n">
-        <v>686</v>
+        <v>0</v>
       </c>
       <c r="D247" t="n">
-        <v>686</v>
+        <v>0</v>
       </c>
       <c r="E247" t="inlineStr">
         <is>
@@ -16406,39 +19694,833 @@
       <c r="G247" t="inlineStr">
         <is>
           <t>SIT</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>com_sitadelLocaux['SURF_IND_TRANSFORMEE'].sum()</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="inlineStr">
         <is>
+          <t>SITADEL_LOCAUX_SURF_AGR_AVANT</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Surface de plancher de la destination ' Exploitation agricole ou forestière ' existante avant travaux</t>
+        </is>
+      </c>
+      <c r="C248" t="n">
+        <v>478</v>
+      </c>
+      <c r="D248" t="n">
+        <v>478</v>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>SIT</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>com_sitadelLocaux['SURF_AGR_AVANT'].sum()</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="inlineStr">
+        <is>
+          <t>SITADEL_LOCAUX_SURF_AGR_CREEE</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Surface de plancher de la destination ' Exploitation agricole ou forestière ' nouvelle construite</t>
+        </is>
+      </c>
+      <c r="C249" t="n">
+        <v>1053</v>
+      </c>
+      <c r="D249" t="n">
+        <v>1053</v>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>SIT</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>com_sitadelLocaux['SURF_AGR_CREEE'].sum()</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="inlineStr">
+        <is>
+          <t>SITADEL_LOCAUX_SURF_AGR_ISSUE_TRANSFO</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Surface de plancher de la destination ' Exploitation agricole ou forestière ' créée par changement de destination</t>
+        </is>
+      </c>
+      <c r="C250" t="n">
+        <v>0</v>
+      </c>
+      <c r="D250" t="n">
+        <v>0</v>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>SIT</t>
+        </is>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>com_sitadelLocaux['SURF_AGR_ISSUE_TRANSFO'].sum()</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="inlineStr">
+        <is>
+          <t>SITADEL_LOCAUX_SURF_AGR_DEMOLIE</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Surface de plancher de la destination ' Exploitation agricole ou forestière ' démolie</t>
+        </is>
+      </c>
+      <c r="C251" t="n">
+        <v>0</v>
+      </c>
+      <c r="D251" t="n">
+        <v>0</v>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>SIT</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>com_sitadelLocaux['SURF_AGR_DEMOLIE'].sum()</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="inlineStr">
+        <is>
+          <t>SITADEL_LOCAUX_SURF_AGR_TRANSFORMEE</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Surface de plancher de la destination ' Exploitation agricole ou forestière ' supprimée par changement de destination</t>
+        </is>
+      </c>
+      <c r="C252" t="n">
+        <v>395</v>
+      </c>
+      <c r="D252" t="n">
+        <v>395</v>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>SIT</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>com_sitadelLocaux['SURF_AGR_TRANSFORMEE'].sum()</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="inlineStr">
+        <is>
+          <t>SITADEL_LOCAUX_SURF_ENT_AVANT</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Surface de plancher de la destination ' Entrepôt ' existante avant travaux</t>
+        </is>
+      </c>
+      <c r="C253" t="n">
+        <v>27672</v>
+      </c>
+      <c r="D253" t="n">
+        <v>27672</v>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>SIT</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>com_sitadelLocaux['SURF_ENT_AVANT'].sum()</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="inlineStr">
+        <is>
+          <t>SITADEL_LOCAUX_SURF_ENT_CREEE</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Surface de plancher de la destination ' Entrepôt ' nouvelle construite</t>
+        </is>
+      </c>
+      <c r="C254" t="n">
+        <v>18166</v>
+      </c>
+      <c r="D254" t="n">
+        <v>18166</v>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>SIT</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>com_sitadelLocaux['SURF_ENT_CREEE'].sum()</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="inlineStr">
+        <is>
+          <t>SITADEL_LOCAUX_SURF_ENT_ISSUE_TRANSFO</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Surface de plancher de la destination ' Entrepôt ' créée par changement de destination</t>
+        </is>
+      </c>
+      <c r="C255" t="n">
+        <v>352</v>
+      </c>
+      <c r="D255" t="n">
+        <v>352</v>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>SIT</t>
+        </is>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>com_sitadelLocaux['SURF_ENT_ISSUE_TRANSFO'].sum()</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="inlineStr">
+        <is>
+          <t>SITADEL_LOCAUX_SURF_ENT_DEMOLIE</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>Surface de plancher de la destination ' Entrepôt ' démolie</t>
+        </is>
+      </c>
+      <c r="C256" t="n">
+        <v>24</v>
+      </c>
+      <c r="D256" t="n">
+        <v>24</v>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>SIT</t>
+        </is>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>com_sitadelLocaux['SURF_ENT_DEMOLIE'].sum()</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="inlineStr">
+        <is>
+          <t>SITADEL_LOCAUX_SURF_ENT_TRANSFORMEE</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>Surface de plancher de la destination ' Entrepôt ' supprimée par changement de destination</t>
+        </is>
+      </c>
+      <c r="C257" t="n">
+        <v>5889</v>
+      </c>
+      <c r="D257" t="n">
+        <v>5889</v>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>SIT</t>
+        </is>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>com_sitadelLocaux['SURF_ENT_TRANSFORMEE'].sum()</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="inlineStr">
+        <is>
+          <t>SITADEL_LOCAUX_SURF_PUB_AVANT</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Surface de plancher de la destination ' Services publics ou d'intérêt collectif' existante avant travaux</t>
+        </is>
+      </c>
+      <c r="C258" t="n">
+        <v>136727</v>
+      </c>
+      <c r="D258" t="n">
+        <v>136727</v>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>SIT</t>
+        </is>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>com_sitadelLocaux['SURF_PUB_AVANT'].sum()</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="inlineStr">
+        <is>
+          <t>SITADEL_LOCAUX_SURF_PUB_CREEE</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Surface de plancher de la destination ' Services publics ou d'intérêt collectif ' nouvelle construite</t>
+        </is>
+      </c>
+      <c r="C259" t="n">
+        <v>12537</v>
+      </c>
+      <c r="D259" t="n">
+        <v>12537</v>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>SIT</t>
+        </is>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>com_sitadelLocaux['SURF_PUB_CREEE'].sum()</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="inlineStr">
+        <is>
+          <t>SITADEL_LOCAUX_SURF_PUB_ISSUE_TRANSFO</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>Surface de plancher de la destination ' Services publics ou d'intérêt collectif ' créée par changement de destination</t>
+        </is>
+      </c>
+      <c r="C260" t="n">
+        <v>1074</v>
+      </c>
+      <c r="D260" t="n">
+        <v>1074</v>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>SIT</t>
+        </is>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>com_sitadelLocaux['SURF_PUB_ISSUE_TRANSFO'].sum()</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="inlineStr">
+        <is>
+          <t>SITADEL_LOCAUX_SURF_PUB_DEMOLIE</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>Surface de plancher de la destination ' Services publics ou d'intérêt collectif ' démolie</t>
+        </is>
+      </c>
+      <c r="C261" t="n">
+        <v>686</v>
+      </c>
+      <c r="D261" t="n">
+        <v>686</v>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>SIT</t>
+        </is>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>com_sitadelLocaux['SURF_PUB_DEMOLIE'].sum()</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="inlineStr">
+        <is>
           <t>SITADEL_LOCAUX_SURF_PUB_TRANSFORMEE</t>
         </is>
       </c>
-      <c r="B248" t="inlineStr">
+      <c r="B262" t="inlineStr">
         <is>
           <t>Surface de plancher de la destination ' Services publics ou d'intérêt collectif ' supprimée par changement de destination</t>
         </is>
       </c>
-      <c r="C248" t="n">
+      <c r="C262" t="n">
         <v>631</v>
       </c>
-      <c r="D248" t="n">
+      <c r="D262" t="n">
         <v>631</v>
       </c>
-      <c r="E248" t="inlineStr">
-        <is>
-          <t>SUM</t>
-        </is>
-      </c>
-      <c r="F248" t="inlineStr">
-        <is>
-          <t>INT</t>
-        </is>
-      </c>
-      <c r="G248" t="inlineStr">
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="G262" t="inlineStr">
         <is>
           <t>SIT</t>
+        </is>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>com_sitadelLocaux['SURF_PUB_TRANSFORMEE'].sum()</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="inlineStr">
+        <is>
+          <t>URL_SOURCE_ARTIFICIALISATION</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>Dossier Cerema - Artificialisation</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>https://artificialisation.biodiversitetousvivants.fr/les-donnees-au-1er-janvier-2020</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>https://artificialisation.biodiversitetousvivants.fr/les-donnees-au-1er-janvier-2020</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>EQUAL</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>DATA</t>
+        </is>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>artificialisationSourcePage</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="inlineStr">
+        <is>
+          <t>URL_SOURCE_SRU</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>Dossier Dreal - Logements Sociaux</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>http://www.paca.developpement-durable.gouv.fr/periode-triennale-2020-2022-a13129.html</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>http://www.paca.developpement-durable.gouv.fr/periode-triennale-2020-2022-a13129.html</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>EQUAL</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>DATA</t>
+        </is>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>sru2020SourcePage</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="inlineStr">
+        <is>
+          <t>URL_SOURCE_SITADEL</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>Dossier Sitadel - Logements Construits</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>https://www.data.gouv.fr/es/datasets/base-des-permis-de-construire-et-autres-autorisations-durbanisme-sitadel</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>https://www.data.gouv.fr/es/datasets/base-des-permis-de-construire-et-autres-autorisations-durbanisme-sitadel</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>EQUAL</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>DATA</t>
+        </is>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>sitadelSourcePage</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="inlineStr">
+        <is>
+          <t>URL_SOURCE_COMMUNES</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>Dossier Insee - Donnees Communes</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>https://www.insee.fr/fr/statistiques/5359146</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>https://www.insee.fr/fr/statistiques/5359146</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>EQUAL</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>DATA</t>
+        </is>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>metaDossierSourcePage</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="inlineStr">
+        <is>
+          <t>URL_SOURCE_PROJECTIONS</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>Dossier Insee - Projections 2050</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>https://www.insee.fr/fr/statistiques/2859843</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>https://www.insee.fr/fr/statistiques/2859843</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>EQUAL</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>DATA</t>
+        </is>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>projectionsSourcePage</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="inlineStr">
+        <is>
+          <t>URL_SOURCE_PROJECTIONS_PACA</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>Dossier Omphale - Projections Paca</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>https://www.insee.fr/fr/statistiques/3202958?sommaire=3203271</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>https://www.insee.fr/fr/statistiques/3202958?sommaire=3203271</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>EQUAL</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>DATA</t>
+        </is>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>projectionsPacaSourcePage</t>
         </is>
       </c>
     </row>
@@ -16453,7 +20535,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16479,12 +20561,27 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>value</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>categorie</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>message</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>value</t>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>messageSiFaux</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>messageSiVrai</t>
         </is>
       </c>
     </row>
@@ -16507,13 +20604,28 @@
           <t>True</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
         <is>
           <t>Test Diagnostic OK</t>
         </is>
       </c>
-      <c r="F2" t="b">
-        <v>1</v>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Test Diagnostic Failed</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Test Diagnostic OK</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -16535,13 +20647,28 @@
           <t>False</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>Test Diagnostic NOK</t>
         </is>
       </c>
-      <c r="F3" t="b">
-        <v>0</v>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Test Diagnostic Failed</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Test Diagnostic NOK</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -16563,13 +20690,28 @@
           <t>(5+6)==11</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
         <is>
           <t>C'est 11</t>
         </is>
       </c>
-      <c r="F4" t="b">
-        <v>1</v>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Comment ca c'est pas 11 ?</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>C'est 11</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -16591,13 +20733,28 @@
           <t>REG=="93"</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
         <is>
           <t>En Paca</t>
         </is>
       </c>
-      <c r="F5" t="b">
-        <v>1</v>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Comment ca c'est pas PACA ?</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>En Paca</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -16616,16 +20773,203 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>P08_POP&gt;15000</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>15000</t>
-        </is>
-      </c>
-      <c r="F6" t="b">
+          <t>P08_POP&gt;20000</t>
+        </is>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Commune de plus de 20000 Habitants</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Commune de moins de 20000 Habitants</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Commune de plus de 20000 Habitants</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CARENCE_SRU</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Carence SRU</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>SRU_EN_CARENCE==0</t>
+        </is>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>SRU</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Pas de Carence SRU</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Commune en Carence SRU</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Pas de Carence SRU</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ARTIFICIALISATION</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Artificialisation ces 10 dernieres annees</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ART_POURCENT&lt;1</t>
+        </is>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>ART</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Moins de 1% d'Artificialisation en 10 ans</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Plus de 1% d'Artificialisation en 10 ans</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Moins de 1% d'Artificialisation en 10 ans</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>LOG_VACANTS</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Logements Vacants</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>TX_RES_VAC_18&lt;0.50</t>
+        </is>
+      </c>
+      <c r="E9" t="b">
         <v>1</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>LOG</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Taux de Residences Vacantes - moins de 5%</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Taux de Residences Vacantes - plus de 5%</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Taux de Residences Vacantes - moins de 5%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>LOG_SECONDAIRES</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Residences Secondaires</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>TX_RES_SEC_18&lt;0.20</t>
+        </is>
+      </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>LOG</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Taux de Residences Secondaires - moins de 20%</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Taux de Residences Secondaires - plus de 20%</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Taux de Residences Secondaires - moins de 20%</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/output/COMMUNE_MOUGINS_06085.xlsx
+++ b/output/COMMUNE_MOUGINS_06085.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JZ8"/>
+  <dimension ref="A1:KA8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1861,6 +1861,11 @@
           <t>URL_SOURCE_PROJECTIONS_PACA</t>
         </is>
       </c>
+      <c r="KA1" s="1" t="inlineStr">
+        <is>
+          <t>THEME_COLOR</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -3293,6 +3298,11 @@
           <t>Dossier Omphale - Projections Paca</t>
         </is>
       </c>
+      <c r="KA2" t="inlineStr">
+        <is>
+          <t>Couleur des Graphiques</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -3322,7 +3332,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>COMMUNE_MOUGINS_06085</t>
+          <t>COMMUNE_Mougins_06085</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -4009,32 +4019,32 @@
       </c>
       <c r="HM3" t="inlineStr">
         <is>
-          <t>output/COMMUNE_MOUGINS_06085.csv</t>
+          <t>output/COMMUNE_Mougins_06085.csv</t>
         </is>
       </c>
       <c r="HN3" t="inlineStr">
         <is>
-          <t>output/COMMUNE_MOUGINS_06085_c.json</t>
+          <t>output/COMMUNE_Mougins_06085_c.json</t>
         </is>
       </c>
       <c r="HO3" t="inlineStr">
         <is>
-          <t>output/COMMUNE_MOUGINS_06085.xlsx</t>
+          <t>output/COMMUNE_Mougins_06085.xlsx</t>
         </is>
       </c>
       <c r="HP3" t="inlineStr">
         <is>
-          <t>output/COMMUNE_MOUGINS_06085_Logements.png</t>
+          <t>output/COMMUNE_Mougins_06085_Logements.png</t>
         </is>
       </c>
       <c r="HQ3" t="inlineStr">
         <is>
-          <t>output/COMMUNE_MOUGINS_06085_Population.png</t>
+          <t>output/COMMUNE_Mougins_06085_Population.png</t>
         </is>
       </c>
       <c r="HR3" t="inlineStr">
         <is>
-          <t>output/COMMUNE_MOUGINS_06085_Taille_des_Menages.png</t>
+          <t>output/COMMUNE_Mougins_06085_Taille_des_Menages.png</t>
         </is>
       </c>
       <c r="HS3" t="n">
@@ -4229,6 +4239,11 @@
           <t>https://www.insee.fr/fr/statistiques/3202958?sommaire=3203271</t>
         </is>
       </c>
+      <c r="KA3" t="inlineStr">
+        <is>
+          <t>#008080</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -4251,12 +4266,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>MOUGINS</t>
+          <t>Mougins</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>COMMUNE_MOUGINS_06085</t>
+          <t>COMMUNE_Mougins_06085</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -4945,32 +4960,32 @@
       </c>
       <c r="HM4" t="inlineStr">
         <is>
-          <t>output/COMMUNE_MOUGINS_06085.csv</t>
+          <t>output/COMMUNE_Mougins_06085.csv</t>
         </is>
       </c>
       <c r="HN4" t="inlineStr">
         <is>
-          <t>output/COMMUNE_MOUGINS_06085_c.json</t>
+          <t>output/COMMUNE_Mougins_06085_c.json</t>
         </is>
       </c>
       <c r="HO4" t="inlineStr">
         <is>
-          <t>output/COMMUNE_MOUGINS_06085.xlsx</t>
+          <t>output/COMMUNE_Mougins_06085.xlsx</t>
         </is>
       </c>
       <c r="HP4" t="inlineStr">
         <is>
-          <t>output/COMMUNE_MOUGINS_06085_Logements.png</t>
+          <t>output/COMMUNE_Mougins_06085_Logements.png</t>
         </is>
       </c>
       <c r="HQ4" t="inlineStr">
         <is>
-          <t>output/COMMUNE_MOUGINS_06085_Population.png</t>
+          <t>output/COMMUNE_Mougins_06085_Population.png</t>
         </is>
       </c>
       <c r="HR4" t="inlineStr">
         <is>
-          <t>output/COMMUNE_MOUGINS_06085_Taille_des_Menages.png</t>
+          <t>output/COMMUNE_Mougins_06085_Taille_des_Menages.png</t>
         </is>
       </c>
       <c r="HS4" t="n">
@@ -5165,6 +5180,11 @@
           <t>https://www.insee.fr/fr/statistiques/3202958?sommaire=3203271</t>
         </is>
       </c>
+      <c r="KA4" t="inlineStr">
+        <is>
+          <t>#008080</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -6597,6 +6617,11 @@
           <t>EQUAL</t>
         </is>
       </c>
+      <c r="KA5" t="inlineStr">
+        <is>
+          <t>EQUAL</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -8029,6 +8054,11 @@
           <t>STR</t>
         </is>
       </c>
+      <c r="KA6" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -9426,7 +9456,11 @@
           <t>SIT</t>
         </is>
       </c>
-      <c r="JT7" t="inlineStr"/>
+      <c r="JT7" t="inlineStr">
+        <is>
+          <t>SIT</t>
+        </is>
+      </c>
       <c r="JU7" t="inlineStr">
         <is>
           <t>DATA</t>
@@ -9455,6 +9489,11 @@
       <c r="JZ7" t="inlineStr">
         <is>
           <t>DATA</t>
+        </is>
+      </c>
+      <c r="KA7" t="inlineStr">
+        <is>
+          <t>CODE</t>
         </is>
       </c>
     </row>
@@ -10887,6 +10926,11 @@
       <c r="JZ8" t="inlineStr">
         <is>
           <t>projectionsPacaSourcePage</t>
+        </is>
+      </c>
+      <c r="KA8" t="inlineStr">
+        <is>
+          <t>str("#008080")</t>
         </is>
       </c>
     </row>
@@ -10901,7 +10945,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H286"/>
+  <dimension ref="A1:H287"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11088,7 +11132,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>MOUGINS</t>
+          <t>Mougins</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -11125,12 +11169,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>COMMUNE_MOUGINS_06085</t>
+          <t>COMMUNE_Mougins_06085</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>COMMUNE_MOUGINS_06085</t>
+          <t>COMMUNE_Mougins_06085</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -19381,12 +19425,12 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>output/COMMUNE_MOUGINS_06085.csv</t>
+          <t>output/COMMUNE_Mougins_06085.csv</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>output/COMMUNE_MOUGINS_06085.csv</t>
+          <t>output/COMMUNE_Mougins_06085.csv</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
@@ -19423,12 +19467,12 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>output/COMMUNE_MOUGINS_06085_c.json</t>
+          <t>output/COMMUNE_Mougins_06085_c.json</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>output/COMMUNE_MOUGINS_06085_c.json</t>
+          <t>output/COMMUNE_Mougins_06085_c.json</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -19465,12 +19509,12 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>output/COMMUNE_MOUGINS_06085.xlsx</t>
+          <t>output/COMMUNE_Mougins_06085.xlsx</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>output/COMMUNE_MOUGINS_06085.xlsx</t>
+          <t>output/COMMUNE_Mougins_06085.xlsx</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
@@ -19507,12 +19551,12 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>output/COMMUNE_MOUGINS_06085_Logements.png</t>
+          <t>output/COMMUNE_Mougins_06085_Logements.png</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>output/COMMUNE_MOUGINS_06085_Logements.png</t>
+          <t>output/COMMUNE_Mougins_06085_Logements.png</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
@@ -19549,12 +19593,12 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>output/COMMUNE_MOUGINS_06085_Population.png</t>
+          <t>output/COMMUNE_Mougins_06085_Population.png</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>output/COMMUNE_MOUGINS_06085_Population.png</t>
+          <t>output/COMMUNE_Mougins_06085_Population.png</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -19591,12 +19635,12 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>output/COMMUNE_MOUGINS_06085_Taille_des_Menages.png</t>
+          <t>output/COMMUNE_Mougins_06085_Taille_des_Menages.png</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>output/COMMUNE_MOUGINS_06085_Taille_des_Menages.png</t>
+          <t>output/COMMUNE_Mougins_06085_Taille_des_Menages.png</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
@@ -21661,7 +21705,11 @@
           <t>INT</t>
         </is>
       </c>
-      <c r="G280" t="inlineStr"/>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>SIT</t>
+        </is>
+      </c>
       <c r="H280" t="inlineStr">
         <is>
           <t>round0(NB_LGT_TOT_COMMENCES_1316+NB_LGT_TOT_CREES_1721*NB_LGT_TX_REALISATION_1316)</t>
@@ -21917,6 +21965,48 @@
       <c r="H286" t="inlineStr">
         <is>
           <t>projectionsPacaSourcePage</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="inlineStr">
+        <is>
+          <t>THEME_COLOR</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>Couleur des Graphiques</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>#008080</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>#008080</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>EQUAL</t>
+        </is>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>CODE</t>
+        </is>
+      </c>
+      <c r="H287" t="inlineStr">
+        <is>
+          <t>str("#008080")</t>
         </is>
       </c>
     </row>

--- a/output/COMMUNE_MOUGINS_06085.xlsx
+++ b/output/COMMUNE_MOUGINS_06085.xlsx
@@ -3372,7 +3372,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>COMMUNE_MOUGINS_06085</t>
+          <t>COMMUNE_Mougins_06085</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -3436,42 +3436,42 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>output/COMMUNE_MOUGINS_06085.csv</t>
+          <t>output/COMMUNE_Mougins_06085.csv</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>output/COMMUNE_MOUGINS_06085_s.json</t>
+          <t>output/COMMUNE_Mougins_06085_s.json</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>output/COMMUNE_MOUGINS_06085.xlsx</t>
+          <t>output/COMMUNE_Mougins_06085.xlsx</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>output/COMMUNE_MOUGINS_06085_tracker.html</t>
+          <t>output/COMMUNE_Mougins_06085_tracker.html</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>output/COMMUNE_MOUGINS_06085_Logements.png</t>
+          <t>output/COMMUNE_Mougins_06085_Logements.png</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>output/COMMUNE_MOUGINS_06085_Population.png</t>
+          <t>output/COMMUNE_Mougins_06085_Population.png</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>output/COMMUNE_MOUGINS_06085_Taille_des_Menages.png</t>
+          <t>output/COMMUNE_Mougins_06085_Taille_des_Menages.png</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>output/COMMUNE_MOUGINS_06085_Repartition_des_Logements.png</t>
+          <t>output/COMMUNE_Mougins_06085_Repartition_des_Logements.png</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -4328,12 +4328,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>MOUGINS</t>
+          <t>Mougins</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>COMMUNE_MOUGINS_06085</t>
+          <t>COMMUNE_Mougins_06085</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -4397,42 +4397,42 @@
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>output/COMMUNE_MOUGINS_06085.csv</t>
+          <t>output/COMMUNE_Mougins_06085.csv</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>output/COMMUNE_MOUGINS_06085_s.json</t>
+          <t>output/COMMUNE_Mougins_06085_s.json</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>output/COMMUNE_MOUGINS_06085.xlsx</t>
+          <t>output/COMMUNE_Mougins_06085.xlsx</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>output/COMMUNE_MOUGINS_06085_tracker.html</t>
+          <t>output/COMMUNE_Mougins_06085_tracker.html</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>output/COMMUNE_MOUGINS_06085_Logements.png</t>
+          <t>output/COMMUNE_Mougins_06085_Logements.png</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>output/COMMUNE_MOUGINS_06085_Population.png</t>
+          <t>output/COMMUNE_Mougins_06085_Population.png</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>output/COMMUNE_MOUGINS_06085_Taille_des_Menages.png</t>
+          <t>output/COMMUNE_Mougins_06085_Taille_des_Menages.png</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>output/COMMUNE_MOUGINS_06085_Repartition_des_Logements.png</t>
+          <t>output/COMMUNE_Mougins_06085_Repartition_des_Logements.png</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -4477,7 +4477,7 @@
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=MOUGINS</t>
+          <t>https://www.google.com/search?q=Mougins</t>
         </is>
       </c>
       <c r="AK4" t="n">
@@ -11300,7 +11300,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>MOUGINS</t>
+          <t>Mougins</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -11337,12 +11337,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>COMMUNE_MOUGINS_06085</t>
+          <t>COMMUNE_Mougins_06085</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>COMMUNE_MOUGINS_06085</t>
+          <t>COMMUNE_Mougins_06085</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -11913,12 +11913,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>output/COMMUNE_MOUGINS_06085.csv</t>
+          <t>output/COMMUNE_Mougins_06085.csv</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>output/COMMUNE_MOUGINS_06085.csv</t>
+          <t>output/COMMUNE_Mougins_06085.csv</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -11955,12 +11955,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>output/COMMUNE_MOUGINS_06085_s.json</t>
+          <t>output/COMMUNE_Mougins_06085_s.json</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>output/COMMUNE_MOUGINS_06085_s.json</t>
+          <t>output/COMMUNE_Mougins_06085_s.json</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -11997,12 +11997,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>output/COMMUNE_MOUGINS_06085.xlsx</t>
+          <t>output/COMMUNE_Mougins_06085.xlsx</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>output/COMMUNE_MOUGINS_06085.xlsx</t>
+          <t>output/COMMUNE_Mougins_06085.xlsx</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -12039,12 +12039,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>output/COMMUNE_MOUGINS_06085_tracker.html</t>
+          <t>output/COMMUNE_Mougins_06085_tracker.html</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>output/COMMUNE_MOUGINS_06085_tracker.html</t>
+          <t>output/COMMUNE_Mougins_06085_tracker.html</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -12081,12 +12081,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>output/COMMUNE_MOUGINS_06085_Logements.png</t>
+          <t>output/COMMUNE_Mougins_06085_Logements.png</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>output/COMMUNE_MOUGINS_06085_Logements.png</t>
+          <t>output/COMMUNE_Mougins_06085_Logements.png</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -12123,12 +12123,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>output/COMMUNE_MOUGINS_06085_Population.png</t>
+          <t>output/COMMUNE_Mougins_06085_Population.png</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>output/COMMUNE_MOUGINS_06085_Population.png</t>
+          <t>output/COMMUNE_Mougins_06085_Population.png</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -12165,12 +12165,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>output/COMMUNE_MOUGINS_06085_Taille_des_Menages.png</t>
+          <t>output/COMMUNE_Mougins_06085_Taille_des_Menages.png</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>output/COMMUNE_MOUGINS_06085_Taille_des_Menages.png</t>
+          <t>output/COMMUNE_Mougins_06085_Taille_des_Menages.png</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -12207,12 +12207,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>output/COMMUNE_MOUGINS_06085_Repartition_des_Logements.png</t>
+          <t>output/COMMUNE_Mougins_06085_Repartition_des_Logements.png</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>output/COMMUNE_MOUGINS_06085_Repartition_des_Logements.png</t>
+          <t>output/COMMUNE_Mougins_06085_Repartition_des_Logements.png</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -12590,7 +12590,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=MOUGINS</t>
+          <t>https://www.google.com/search?q=Mougins</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">

--- a/output/COMMUNE_MOUGINS_06085.xlsx
+++ b/output/COMMUNE_MOUGINS_06085.xlsx
@@ -1948,12 +1948,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Mougins</t>
+          <t>MOUGINS</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>COMMUNE_Mougins_06085</t>
+          <t>COMMUNE_MOUGINS_06085</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -2017,42 +2017,42 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>output/COMMUNE_Mougins_06085.csv</t>
+          <t>output/COMMUNE_MOUGINS_06085.csv</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>output/COMMUNE_Mougins_06085_s.json</t>
+          <t>output/COMMUNE_MOUGINS_06085_s.json</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>output/COMMUNE_Mougins_06085.xlsx</t>
+          <t>output/COMMUNE_MOUGINS_06085.xlsx</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>output/COMMUNE_Mougins_06085_tracker.html</t>
+          <t>output/COMMUNE_MOUGINS_06085_tracker.html</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>output/COMMUNE_Mougins_06085_Logements.png</t>
+          <t>output/COMMUNE_MOUGINS_06085_Logements.png</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>output/COMMUNE_Mougins_06085_Population.png</t>
+          <t>output/COMMUNE_MOUGINS_06085_Population.png</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>output/COMMUNE_Mougins_06085_Taille_des_Menages.png</t>
+          <t>output/COMMUNE_MOUGINS_06085_Taille_des_Menages.png</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>output/COMMUNE_Mougins_06085_Repartition_des_Logements.png</t>
+          <t>output/COMMUNE_MOUGINS_06085_Repartition_des_Logements.png</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -2097,7 +2097,7 @@
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=Mougins</t>
+          <t>https://www.google.com/search?q=MOUGINS</t>
         </is>
       </c>
       <c r="AK2" t="n">
@@ -4421,7 +4421,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>COMMUNE_Mougins_06085</t>
+          <t>COMMUNE_MOUGINS_06085</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -4485,42 +4485,42 @@
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>output/COMMUNE_Mougins_06085.csv</t>
+          <t>output/COMMUNE_MOUGINS_06085.csv</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>output/COMMUNE_Mougins_06085_s.json</t>
+          <t>output/COMMUNE_MOUGINS_06085_s.json</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>output/COMMUNE_Mougins_06085.xlsx</t>
+          <t>output/COMMUNE_MOUGINS_06085.xlsx</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>output/COMMUNE_Mougins_06085_tracker.html</t>
+          <t>output/COMMUNE_MOUGINS_06085_tracker.html</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>output/COMMUNE_Mougins_06085_Logements.png</t>
+          <t>output/COMMUNE_MOUGINS_06085_Logements.png</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>output/COMMUNE_Mougins_06085_Population.png</t>
+          <t>output/COMMUNE_MOUGINS_06085_Population.png</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>output/COMMUNE_Mougins_06085_Taille_des_Menages.png</t>
+          <t>output/COMMUNE_MOUGINS_06085_Taille_des_Menages.png</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>output/COMMUNE_Mougins_06085_Repartition_des_Logements.png</t>
+          <t>output/COMMUNE_MOUGINS_06085_Repartition_des_Logements.png</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -5361,22 +5361,22 @@
       <c r="KI4" t="inlineStr"/>
       <c r="KJ4" t="inlineStr">
         <is>
-          <t>output\COMMUNE_Mougins_06085_LOGEMENTS_2.png</t>
+          <t>output\COMMUNE_MOUGINS_06085_LOGEMENTS_2.png</t>
         </is>
       </c>
       <c r="KK4" t="inlineStr">
         <is>
-          <t>output\COMMUNE_Mougins_06085_LOGEMENTS_4.png</t>
+          <t>output\COMMUNE_MOUGINS_06085_LOGEMENTS_4.png</t>
         </is>
       </c>
       <c r="KL4" t="inlineStr">
         <is>
-          <t>output\COMMUNE_Mougins_06085_LOGEMENTS_5.png</t>
+          <t>output\COMMUNE_MOUGINS_06085_LOGEMENTS_5.png</t>
         </is>
       </c>
       <c r="KM4" t="inlineStr">
         <is>
-          <t>output\COMMUNE_Mougins_06085_LOGEMENTS_6.png</t>
+          <t>output\COMMUNE_MOUGINS_06085_LOGEMENTS_6.png</t>
         </is>
       </c>
     </row>
@@ -11492,7 +11492,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Mougins</t>
+          <t>MOUGINS</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -11534,7 +11534,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>COMMUNE_Mougins_06085</t>
+          <t>COMMUNE_MOUGINS_06085</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -11544,7 +11544,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>COMMUNE_Mougins_06085</t>
+          <t>COMMUNE_MOUGINS_06085</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -12110,7 +12110,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>output/COMMUNE_Mougins_06085.csv</t>
+          <t>output/COMMUNE_MOUGINS_06085.csv</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -12120,7 +12120,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>output/COMMUNE_Mougins_06085.csv</t>
+          <t>output/COMMUNE_MOUGINS_06085.csv</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -12152,7 +12152,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>output/COMMUNE_Mougins_06085_s.json</t>
+          <t>output/COMMUNE_MOUGINS_06085_s.json</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -12162,7 +12162,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>output/COMMUNE_Mougins_06085_s.json</t>
+          <t>output/COMMUNE_MOUGINS_06085_s.json</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -12194,7 +12194,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>output/COMMUNE_Mougins_06085.xlsx</t>
+          <t>output/COMMUNE_MOUGINS_06085.xlsx</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -12204,7 +12204,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>output/COMMUNE_Mougins_06085.xlsx</t>
+          <t>output/COMMUNE_MOUGINS_06085.xlsx</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -12236,7 +12236,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>output/COMMUNE_Mougins_06085_tracker.html</t>
+          <t>output/COMMUNE_MOUGINS_06085_tracker.html</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -12246,7 +12246,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>output/COMMUNE_Mougins_06085_tracker.html</t>
+          <t>output/COMMUNE_MOUGINS_06085_tracker.html</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -12278,7 +12278,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>output/COMMUNE_Mougins_06085_Logements.png</t>
+          <t>output/COMMUNE_MOUGINS_06085_Logements.png</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -12288,7 +12288,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>output/COMMUNE_Mougins_06085_Logements.png</t>
+          <t>output/COMMUNE_MOUGINS_06085_Logements.png</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -12320,7 +12320,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>output/COMMUNE_Mougins_06085_Population.png</t>
+          <t>output/COMMUNE_MOUGINS_06085_Population.png</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -12330,7 +12330,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>output/COMMUNE_Mougins_06085_Population.png</t>
+          <t>output/COMMUNE_MOUGINS_06085_Population.png</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -12362,7 +12362,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>output/COMMUNE_Mougins_06085_Taille_des_Menages.png</t>
+          <t>output/COMMUNE_MOUGINS_06085_Taille_des_Menages.png</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -12372,7 +12372,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>output/COMMUNE_Mougins_06085_Taille_des_Menages.png</t>
+          <t>output/COMMUNE_MOUGINS_06085_Taille_des_Menages.png</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -12404,7 +12404,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>output/COMMUNE_Mougins_06085_Repartition_des_Logements.png</t>
+          <t>output/COMMUNE_MOUGINS_06085_Repartition_des_Logements.png</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -12414,7 +12414,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>output/COMMUNE_Mougins_06085_Repartition_des_Logements.png</t>
+          <t>output/COMMUNE_MOUGINS_06085_Repartition_des_Logements.png</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -12782,7 +12782,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=Mougins</t>
+          <t>https://www.google.com/search?q=MOUGINS</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -22712,7 +22712,7 @@
       <c r="C296" t="inlineStr"/>
       <c r="D296" t="inlineStr">
         <is>
-          <t>output\COMMUNE_Mougins_06085_LOGEMENTS_2.png</t>
+          <t>output\COMMUNE_MOUGINS_06085_LOGEMENTS_2.png</t>
         </is>
       </c>
       <c r="E296" t="inlineStr"/>
@@ -22730,7 +22730,7 @@
       <c r="C297" t="inlineStr"/>
       <c r="D297" t="inlineStr">
         <is>
-          <t>output\COMMUNE_Mougins_06085_LOGEMENTS_4.png</t>
+          <t>output\COMMUNE_MOUGINS_06085_LOGEMENTS_4.png</t>
         </is>
       </c>
       <c r="E297" t="inlineStr"/>
@@ -22748,7 +22748,7 @@
       <c r="C298" t="inlineStr"/>
       <c r="D298" t="inlineStr">
         <is>
-          <t>output\COMMUNE_Mougins_06085_LOGEMENTS_5.png</t>
+          <t>output\COMMUNE_MOUGINS_06085_LOGEMENTS_5.png</t>
         </is>
       </c>
       <c r="E298" t="inlineStr"/>
@@ -22766,7 +22766,7 @@
       <c r="C299" t="inlineStr"/>
       <c r="D299" t="inlineStr">
         <is>
-          <t>output\COMMUNE_Mougins_06085_LOGEMENTS_6.png</t>
+          <t>output\COMMUNE_MOUGINS_06085_LOGEMENTS_6.png</t>
         </is>
       </c>
       <c r="E299" t="inlineStr"/>

--- a/output/COMMUNE_MOUGINS_06085.xlsx
+++ b/output/COMMUNE_MOUGINS_06085.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:KM8"/>
+  <dimension ref="A1:KO8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1913,15 +1913,25 @@
       </c>
       <c r="KK1" s="1" t="inlineStr">
         <is>
-          <t>GRAPHIQUE_LOGEMENTS_4</t>
+          <t>GRAPHIQUE_TAILLE_DES_MENAGES_2</t>
         </is>
       </c>
       <c r="KL1" s="1" t="inlineStr">
         <is>
+          <t>GRAPHIQUE_POPULATION_2</t>
+        </is>
+      </c>
+      <c r="KM1" s="1" t="inlineStr">
+        <is>
+          <t>GRAPHIQUE_REPARTITION_LOGEMENTS_2</t>
+        </is>
+      </c>
+      <c r="KN1" s="1" t="inlineStr">
+        <is>
           <t>GRAPHIQUE_LOGEMENTS_5</t>
         </is>
       </c>
-      <c r="KM1" s="1" t="inlineStr">
+      <c r="KO1" s="1" t="inlineStr">
         <is>
           <t>GRAPHIQUE_LOGEMENTS_6</t>
         </is>
@@ -2911,6 +2921,8 @@
       <c r="KK2" t="inlineStr"/>
       <c r="KL2" t="inlineStr"/>
       <c r="KM2" t="inlineStr"/>
+      <c r="KN2" t="inlineStr"/>
+      <c r="KO2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -4392,6 +4404,8 @@
       <c r="KK3" t="inlineStr"/>
       <c r="KL3" t="inlineStr"/>
       <c r="KM3" t="inlineStr"/>
+      <c r="KN3" t="inlineStr"/>
+      <c r="KO3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -5366,15 +5380,25 @@
       </c>
       <c r="KK4" t="inlineStr">
         <is>
-          <t>output\COMMUNE_MOUGINS_06085_LOGEMENTS_4.png</t>
+          <t>output\COMMUNE_MOUGINS_06085_TAILLE_DES_MENAGES_2.png</t>
         </is>
       </c>
       <c r="KL4" t="inlineStr">
         <is>
+          <t>output\COMMUNE_MOUGINS_06085_POPULATION_2.png</t>
+        </is>
+      </c>
+      <c r="KM4" t="inlineStr">
+        <is>
+          <t>output\COMMUNE_MOUGINS_06085_REPARTITION_LOGEMENTS_2.png</t>
+        </is>
+      </c>
+      <c r="KN4" t="inlineStr">
+        <is>
           <t>output\COMMUNE_MOUGINS_06085_LOGEMENTS_5.png</t>
         </is>
       </c>
-      <c r="KM4" t="inlineStr">
+      <c r="KO4" t="inlineStr">
         <is>
           <t>output\COMMUNE_MOUGINS_06085_LOGEMENTS_6.png</t>
         </is>
@@ -6860,6 +6884,8 @@
       <c r="KK5" t="inlineStr"/>
       <c r="KL5" t="inlineStr"/>
       <c r="KM5" t="inlineStr"/>
+      <c r="KN5" t="inlineStr"/>
+      <c r="KO5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -8341,6 +8367,8 @@
       <c r="KK6" t="inlineStr"/>
       <c r="KL6" t="inlineStr"/>
       <c r="KM6" t="inlineStr"/>
+      <c r="KN6" t="inlineStr"/>
+      <c r="KO6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -9822,6 +9850,8 @@
       <c r="KK7" t="inlineStr"/>
       <c r="KL7" t="inlineStr"/>
       <c r="KM7" t="inlineStr"/>
+      <c r="KN7" t="inlineStr"/>
+      <c r="KO7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -11303,6 +11333,8 @@
       <c r="KK8" t="inlineStr"/>
       <c r="KL8" t="inlineStr"/>
       <c r="KM8" t="inlineStr"/>
+      <c r="KN8" t="inlineStr"/>
+      <c r="KO8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -11315,7 +11347,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H299"/>
+  <dimension ref="A1:H301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22723,14 +22755,14 @@
     <row r="297">
       <c r="A297" s="1" t="inlineStr">
         <is>
-          <t>GRAPHIQUE_LOGEMENTS_4</t>
+          <t>GRAPHIQUE_TAILLE_DES_MENAGES_2</t>
         </is>
       </c>
       <c r="B297" t="inlineStr"/>
       <c r="C297" t="inlineStr"/>
       <c r="D297" t="inlineStr">
         <is>
-          <t>output\COMMUNE_MOUGINS_06085_LOGEMENTS_4.png</t>
+          <t>output\COMMUNE_MOUGINS_06085_TAILLE_DES_MENAGES_2.png</t>
         </is>
       </c>
       <c r="E297" t="inlineStr"/>
@@ -22741,14 +22773,14 @@
     <row r="298">
       <c r="A298" s="1" t="inlineStr">
         <is>
-          <t>GRAPHIQUE_LOGEMENTS_5</t>
+          <t>GRAPHIQUE_POPULATION_2</t>
         </is>
       </c>
       <c r="B298" t="inlineStr"/>
       <c r="C298" t="inlineStr"/>
       <c r="D298" t="inlineStr">
         <is>
-          <t>output\COMMUNE_MOUGINS_06085_LOGEMENTS_5.png</t>
+          <t>output\COMMUNE_MOUGINS_06085_POPULATION_2.png</t>
         </is>
       </c>
       <c r="E298" t="inlineStr"/>
@@ -22759,20 +22791,56 @@
     <row r="299">
       <c r="A299" s="1" t="inlineStr">
         <is>
-          <t>GRAPHIQUE_LOGEMENTS_6</t>
+          <t>GRAPHIQUE_REPARTITION_LOGEMENTS_2</t>
         </is>
       </c>
       <c r="B299" t="inlineStr"/>
       <c r="C299" t="inlineStr"/>
       <c r="D299" t="inlineStr">
         <is>
-          <t>output\COMMUNE_MOUGINS_06085_LOGEMENTS_6.png</t>
+          <t>output\COMMUNE_MOUGINS_06085_REPARTITION_LOGEMENTS_2.png</t>
         </is>
       </c>
       <c r="E299" t="inlineStr"/>
       <c r="F299" t="inlineStr"/>
       <c r="G299" t="inlineStr"/>
       <c r="H299" t="inlineStr"/>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="inlineStr">
+        <is>
+          <t>GRAPHIQUE_LOGEMENTS_5</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr"/>
+      <c r="C300" t="inlineStr"/>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>output\COMMUNE_MOUGINS_06085_LOGEMENTS_5.png</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr"/>
+      <c r="F300" t="inlineStr"/>
+      <c r="G300" t="inlineStr"/>
+      <c r="H300" t="inlineStr"/>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="inlineStr">
+        <is>
+          <t>GRAPHIQUE_LOGEMENTS_6</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr"/>
+      <c r="C301" t="inlineStr"/>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>output\COMMUNE_MOUGINS_06085_LOGEMENTS_6.png</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr"/>
+      <c r="F301" t="inlineStr"/>
+      <c r="G301" t="inlineStr"/>
+      <c r="H301" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/output/COMMUNE_MOUGINS_06085.xlsx
+++ b/output/COMMUNE_MOUGINS_06085.xlsx
@@ -3873,12 +3873,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MOUGINS</t>
+          <t>Mougins</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>COMMUNE_MOUGINS_06085</t>
+          <t>COMMUNE_Mougins_06085</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -3942,42 +3942,42 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>output/COMMUNE_MOUGINS_06085.csv</t>
+          <t>output/COMMUNE_Mougins_06085.csv</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>output/COMMUNE_MOUGINS_06085_s.json</t>
+          <t>output/COMMUNE_Mougins_06085_s.json</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>output/COMMUNE_MOUGINS_06085.xlsx</t>
+          <t>output/COMMUNE_Mougins_06085.xlsx</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>output/COMMUNE_MOUGINS_06085_tracker.html</t>
+          <t>output/COMMUNE_Mougins_06085_tracker.html</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>output/COMMUNE_MOUGINS_06085_Logements.png</t>
+          <t>output/COMMUNE_Mougins_06085_Logements.png</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>output/COMMUNE_MOUGINS_06085_Population.png</t>
+          <t>output/COMMUNE_Mougins_06085_Population.png</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>output/COMMUNE_MOUGINS_06085_Taille_des_Menages.png</t>
+          <t>output/COMMUNE_Mougins_06085_Taille_des_Menages.png</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>output/COMMUNE_MOUGINS_06085_Repartition_des_Logements.png</t>
+          <t>output/COMMUNE_Mougins_06085_Repartition_des_Logements.png</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -4022,7 +4022,7 @@
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=MOUGINS</t>
+          <t>https://www.google.com/search?q=Mougins</t>
         </is>
       </c>
       <c r="AK2" t="n">
@@ -9570,7 +9570,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>COMMUNE_MOUGINS_06085</t>
+          <t>COMMUNE_Mougins_06085</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -9634,42 +9634,42 @@
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>output/COMMUNE_MOUGINS_06085.csv</t>
+          <t>output/COMMUNE_Mougins_06085.csv</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>output/COMMUNE_MOUGINS_06085_s.json</t>
+          <t>output/COMMUNE_Mougins_06085_s.json</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>output/COMMUNE_MOUGINS_06085.xlsx</t>
+          <t>output/COMMUNE_Mougins_06085.xlsx</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>output/COMMUNE_MOUGINS_06085_tracker.html</t>
+          <t>output/COMMUNE_Mougins_06085_tracker.html</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>output/COMMUNE_MOUGINS_06085_Logements.png</t>
+          <t>output/COMMUNE_Mougins_06085_Logements.png</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>output/COMMUNE_MOUGINS_06085_Population.png</t>
+          <t>output/COMMUNE_Mougins_06085_Population.png</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>output/COMMUNE_MOUGINS_06085_Taille_des_Menages.png</t>
+          <t>output/COMMUNE_Mougins_06085_Taille_des_Menages.png</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>output/COMMUNE_MOUGINS_06085_Repartition_des_Logements.png</t>
+          <t>output/COMMUNE_Mougins_06085_Repartition_des_Logements.png</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -10961,32 +10961,32 @@
       <c r="ZB4" t="inlineStr"/>
       <c r="ZC4" t="inlineStr">
         <is>
-          <t>output\COMMUNE_MOUGINS_06085_LOGEMENTS_2.png</t>
+          <t>output\COMMUNE_Mougins_06085_LOGEMENTS_2.png</t>
         </is>
       </c>
       <c r="ZD4" t="inlineStr">
         <is>
-          <t>output\COMMUNE_MOUGINS_06085_TAILLE_DES_MENAGES_2.png</t>
+          <t>output\COMMUNE_Mougins_06085_TAILLE_DES_MENAGES_2.png</t>
         </is>
       </c>
       <c r="ZE4" t="inlineStr">
         <is>
-          <t>output\COMMUNE_MOUGINS_06085_POPULATION_2.png</t>
+          <t>output\COMMUNE_Mougins_06085_POPULATION_2.png</t>
         </is>
       </c>
       <c r="ZF4" t="inlineStr">
         <is>
-          <t>output\COMMUNE_MOUGINS_06085_REPARTITION_LOGEMENTS_2.png</t>
+          <t>output\COMMUNE_Mougins_06085_REPARTITION_LOGEMENTS_2.png</t>
         </is>
       </c>
       <c r="ZG4" t="inlineStr">
         <is>
-          <t>output\COMMUNE_MOUGINS_06085_LOGEMENTS_5.png</t>
+          <t>output\COMMUNE_Mougins_06085_LOGEMENTS_5.png</t>
         </is>
       </c>
       <c r="ZH4" t="inlineStr">
         <is>
-          <t>output\COMMUNE_MOUGINS_06085_LOGEMENTS_6.png</t>
+          <t>output\COMMUNE_Mougins_06085_LOGEMENTS_6.png</t>
         </is>
       </c>
     </row>
@@ -24770,7 +24770,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MOUGINS</t>
+          <t>Mougins</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -24812,7 +24812,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>COMMUNE_MOUGINS_06085</t>
+          <t>COMMUNE_Mougins_06085</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -24822,7 +24822,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>COMMUNE_MOUGINS_06085</t>
+          <t>COMMUNE_Mougins_06085</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -25388,7 +25388,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>output/COMMUNE_MOUGINS_06085.csv</t>
+          <t>output/COMMUNE_Mougins_06085.csv</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -25398,7 +25398,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>output/COMMUNE_MOUGINS_06085.csv</t>
+          <t>output/COMMUNE_Mougins_06085.csv</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -25430,7 +25430,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>output/COMMUNE_MOUGINS_06085_s.json</t>
+          <t>output/COMMUNE_Mougins_06085_s.json</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -25440,7 +25440,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>output/COMMUNE_MOUGINS_06085_s.json</t>
+          <t>output/COMMUNE_Mougins_06085_s.json</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -25472,7 +25472,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>output/COMMUNE_MOUGINS_06085.xlsx</t>
+          <t>output/COMMUNE_Mougins_06085.xlsx</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -25482,7 +25482,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>output/COMMUNE_MOUGINS_06085.xlsx</t>
+          <t>output/COMMUNE_Mougins_06085.xlsx</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -25514,7 +25514,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>output/COMMUNE_MOUGINS_06085_tracker.html</t>
+          <t>output/COMMUNE_Mougins_06085_tracker.html</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -25524,7 +25524,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>output/COMMUNE_MOUGINS_06085_tracker.html</t>
+          <t>output/COMMUNE_Mougins_06085_tracker.html</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -25556,7 +25556,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>output/COMMUNE_MOUGINS_06085_Logements.png</t>
+          <t>output/COMMUNE_Mougins_06085_Logements.png</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -25566,7 +25566,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>output/COMMUNE_MOUGINS_06085_Logements.png</t>
+          <t>output/COMMUNE_Mougins_06085_Logements.png</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -25598,7 +25598,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>output/COMMUNE_MOUGINS_06085_Population.png</t>
+          <t>output/COMMUNE_Mougins_06085_Population.png</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -25608,7 +25608,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>output/COMMUNE_MOUGINS_06085_Population.png</t>
+          <t>output/COMMUNE_Mougins_06085_Population.png</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -25640,7 +25640,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>output/COMMUNE_MOUGINS_06085_Taille_des_Menages.png</t>
+          <t>output/COMMUNE_Mougins_06085_Taille_des_Menages.png</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -25650,7 +25650,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>output/COMMUNE_MOUGINS_06085_Taille_des_Menages.png</t>
+          <t>output/COMMUNE_Mougins_06085_Taille_des_Menages.png</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -25682,7 +25682,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>output/COMMUNE_MOUGINS_06085_Repartition_des_Logements.png</t>
+          <t>output/COMMUNE_Mougins_06085_Repartition_des_Logements.png</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -25692,7 +25692,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>output/COMMUNE_MOUGINS_06085_Repartition_des_Logements.png</t>
+          <t>output/COMMUNE_Mougins_06085_Repartition_des_Logements.png</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -26060,7 +26060,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=MOUGINS</t>
+          <t>https://www.google.com/search?q=Mougins</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -50002,7 +50002,7 @@
       <c r="C679" t="inlineStr"/>
       <c r="D679" t="inlineStr">
         <is>
-          <t>output\COMMUNE_MOUGINS_06085_LOGEMENTS_2.png</t>
+          <t>output\COMMUNE_Mougins_06085_LOGEMENTS_2.png</t>
         </is>
       </c>
       <c r="E679" t="inlineStr"/>
@@ -50020,7 +50020,7 @@
       <c r="C680" t="inlineStr"/>
       <c r="D680" t="inlineStr">
         <is>
-          <t>output\COMMUNE_MOUGINS_06085_TAILLE_DES_MENAGES_2.png</t>
+          <t>output\COMMUNE_Mougins_06085_TAILLE_DES_MENAGES_2.png</t>
         </is>
       </c>
       <c r="E680" t="inlineStr"/>
@@ -50038,7 +50038,7 @@
       <c r="C681" t="inlineStr"/>
       <c r="D681" t="inlineStr">
         <is>
-          <t>output\COMMUNE_MOUGINS_06085_POPULATION_2.png</t>
+          <t>output\COMMUNE_Mougins_06085_POPULATION_2.png</t>
         </is>
       </c>
       <c r="E681" t="inlineStr"/>
@@ -50056,7 +50056,7 @@
       <c r="C682" t="inlineStr"/>
       <c r="D682" t="inlineStr">
         <is>
-          <t>output\COMMUNE_MOUGINS_06085_REPARTITION_LOGEMENTS_2.png</t>
+          <t>output\COMMUNE_Mougins_06085_REPARTITION_LOGEMENTS_2.png</t>
         </is>
       </c>
       <c r="E682" t="inlineStr"/>
@@ -50074,7 +50074,7 @@
       <c r="C683" t="inlineStr"/>
       <c r="D683" t="inlineStr">
         <is>
-          <t>output\COMMUNE_MOUGINS_06085_LOGEMENTS_5.png</t>
+          <t>output\COMMUNE_Mougins_06085_LOGEMENTS_5.png</t>
         </is>
       </c>
       <c r="E683" t="inlineStr"/>
@@ -50092,7 +50092,7 @@
       <c r="C684" t="inlineStr"/>
       <c r="D684" t="inlineStr">
         <is>
-          <t>output\COMMUNE_MOUGINS_06085_LOGEMENTS_6.png</t>
+          <t>output\COMMUNE_Mougins_06085_LOGEMENTS_6.png</t>
         </is>
       </c>
       <c r="E684" t="inlineStr"/>

--- a/output/COMMUNE_MOUGINS_06085.xlsx
+++ b/output/COMMUNE_MOUGINS_06085.xlsx
@@ -5993,22 +5993,22 @@
         <v>2339</v>
       </c>
       <c r="NW2" t="n">
-        <v>2.249</v>
+        <v>2</v>
       </c>
       <c r="NX2" t="n">
-        <v>2.295</v>
+        <v>2.041</v>
       </c>
       <c r="NY2" t="n">
-        <v>0.046</v>
+        <v>0.041</v>
       </c>
       <c r="NZ2" t="n">
-        <v>8683</v>
+        <v>9764</v>
       </c>
       <c r="OA2" t="n">
-        <v>9528</v>
+        <v>10713</v>
       </c>
       <c r="OB2" t="n">
-        <v>845</v>
+        <v>949</v>
       </c>
       <c r="OC2" t="n">
         <v>2390</v>
@@ -6026,16 +6026,16 @@
         <v>687</v>
       </c>
       <c r="OH2" t="n">
-        <v>232</v>
+        <v>61</v>
       </c>
       <c r="OI2" t="n">
-        <v>11699</v>
+        <v>12780</v>
       </c>
       <c r="OJ2" t="n">
-        <v>12837</v>
+        <v>14022</v>
       </c>
       <c r="OK2" t="n">
-        <v>1138</v>
+        <v>1242</v>
       </c>
       <c r="OL2" t="n">
         <v>687</v>
@@ -6056,7 +6056,7 @@
         <v>-162</v>
       </c>
       <c r="OR2" t="n">
-        <v>1471</v>
+        <v>1404</v>
       </c>
       <c r="OS2" t="n">
         <v>10</v>
@@ -6101,25 +6101,25 @@
         <v>100</v>
       </c>
       <c r="PG2" t="n">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="PH2" t="n">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="PI2" t="n">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="PJ2" t="n">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="PK2" t="n">
-        <v>441</v>
+        <v>421</v>
       </c>
       <c r="PL2" t="n">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="PM2" t="n">
-        <v>1471</v>
+        <v>1404</v>
       </c>
       <c r="PN2" t="n">
         <v>0</v>
@@ -6143,25 +6143,25 @@
         <v>0</v>
       </c>
       <c r="PU2" t="n">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="PV2" t="n">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="PW2" t="n">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="PX2" t="n">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="PY2" t="n">
-        <v>441</v>
+        <v>421</v>
       </c>
       <c r="PZ2" t="n">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="QA2" t="n">
-        <v>1471</v>
+        <v>1404</v>
       </c>
       <c r="QB2" t="n">
         <v>20</v>
@@ -6189,10 +6189,10 @@
         <v>5</v>
       </c>
       <c r="QK2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="QL2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="QM2" t="n">
         <v>7</v>
@@ -6201,7 +6201,7 @@
         <v>4</v>
       </c>
       <c r="QO2" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="QP2" t="n">
         <v>5</v>
@@ -6231,10 +6231,10 @@
         <v>0.25</v>
       </c>
       <c r="QY2" t="n">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="QZ2" t="n">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="RA2" t="n">
         <v>0.7</v>
@@ -6243,7 +6243,7 @@
         <v>0.4</v>
       </c>
       <c r="RC2" t="n">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="RD2" t="n">
         <v>7.35</v>
@@ -6252,10 +6252,10 @@
         <v>5.25</v>
       </c>
       <c r="RF2" t="n">
-        <v>6.3</v>
+        <v>5.25</v>
       </c>
       <c r="RG2" t="n">
-        <v>15.75</v>
+        <v>14.7</v>
       </c>
       <c r="RH2" t="n">
         <v>7.7</v>
@@ -6264,7 +6264,7 @@
         <v>4.4</v>
       </c>
       <c r="RJ2" t="n">
-        <v>46.75</v>
+        <v>44.65</v>
       </c>
       <c r="RK2" t="n">
         <v>43</v>
@@ -6273,10 +6273,10 @@
         <v>4.3</v>
       </c>
       <c r="RM2" t="n">
-        <v>5.19</v>
+        <v>4.96</v>
       </c>
       <c r="RN2" t="n">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="RO2" t="inlineStr">
         <is>
@@ -10687,11 +10687,7 @@
           <t>Total Logements en 2018</t>
         </is>
       </c>
-      <c r="WQ3" t="inlineStr">
-        <is>
-          <t>Residences Principales en 2020</t>
-        </is>
-      </c>
+      <c r="WQ3" t="inlineStr"/>
       <c r="WR3" t="inlineStr">
         <is>
           <t>Taux de Residences Vacantes en 2020</t>
@@ -15595,52 +15591,52 @@
       </c>
       <c r="MI5" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>$JS:2018</t>
         </is>
       </c>
       <c r="MJ5" t="inlineStr">
         <is>
-          <t>2030</t>
+          <t>$JS:2030</t>
         </is>
       </c>
       <c r="MK5" t="inlineStr">
         <is>
-          <t>P18_POP</t>
+          <t>$JS:P18_POP</t>
         </is>
       </c>
       <c r="ML5" t="inlineStr">
         <is>
-          <t>POP_2030</t>
+          <t>$JS:POP_2030</t>
         </is>
       </c>
       <c r="MM5" t="inlineStr">
         <is>
-          <t>TM_2018</t>
+          <t>$JS:TM_2018</t>
         </is>
       </c>
       <c r="MN5" t="inlineStr">
         <is>
-          <t>TM_2030</t>
+          <t>$JS:TM_2030</t>
         </is>
       </c>
       <c r="MO5" t="inlineStr">
         <is>
-          <t>P18_LOGVAC</t>
+          <t>$JS:P18_LOGVAC</t>
         </is>
       </c>
       <c r="MP5" t="inlineStr">
         <is>
-          <t>P30_LOGVAC</t>
+          <t>$JS:P30_LOGVAC</t>
         </is>
       </c>
       <c r="MQ5" t="inlineStr">
         <is>
-          <t>P18_RSECOCC</t>
+          <t>$JS:P18_RSECOCC</t>
         </is>
       </c>
       <c r="MR5" t="inlineStr">
         <is>
-          <t>P30_RSECOCC</t>
+          <t>$JS:P30_RSECOCC</t>
         </is>
       </c>
       <c r="MS5" t="inlineStr">
@@ -15650,12 +15646,12 @@
       </c>
       <c r="MT5" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>$JS:45</t>
         </is>
       </c>
       <c r="MU5" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>$JS:20</t>
         </is>
       </c>
       <c r="MV5" t="inlineStr">
@@ -15735,12 +15731,12 @@
       </c>
       <c r="NK5" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>$JS:2021</t>
         </is>
       </c>
       <c r="NL5" t="inlineStr">
         <is>
-          <t>2030</t>
+          <t>$JS:2030</t>
         </is>
       </c>
       <c r="NM5" t="inlineStr">
@@ -15750,12 +15746,12 @@
       </c>
       <c r="NN5" t="inlineStr">
         <is>
-          <t>SUM</t>
+          <t>$JS:calc_after(michel_an_donnee, michel_pop_donnee, michel_an_depart, michel_pop_tendance_5_ans,0)</t>
         </is>
       </c>
       <c r="NO5" t="inlineStr">
         <is>
-          <t>EQUAL</t>
+          <t>$JS:michel_pop_tendance_5_ans</t>
         </is>
       </c>
       <c r="NP5" t="inlineStr">
@@ -15765,12 +15761,12 @@
       </c>
       <c r="NQ5" t="inlineStr">
         <is>
-          <t>SUM</t>
+          <t>$JS:calc_after(michel_an_donnee, michel_pop_hors_menage, michel_an_depart, michel_pop_tendance_5_ans,0)</t>
         </is>
       </c>
       <c r="NR5" t="inlineStr">
         <is>
-          <t>SUM</t>
+          <t>$JS:calc_after(michel_an_depart, michel_pop_hm_depart, michel_an_arrivee, michel_pop_taux,0)</t>
         </is>
       </c>
       <c r="NS5" t="inlineStr">
@@ -15795,12 +15791,12 @@
       </c>
       <c r="NW5" t="inlineStr">
         <is>
-          <t>calc_after(michel_an_donnee, michel_tm_donnee, michel_an_depart, michel_tm_tendance_5_ans,3)</t>
+          <t>$JS:calc_after(michel_an_donnee, michel_tm_donnee, michel_an_depart, michel_tm_tendance_5_ans,3)</t>
         </is>
       </c>
       <c r="NX5" t="inlineStr">
         <is>
-          <t>calc_after(michel_an_depart, michel_tm_depart, michel_an_arrivee, michel_tm_tendance_5_ans,3)</t>
+          <t>$JS:calc_after(michel_an_depart, michel_tm_depart, michel_an_arrivee, michel_tm_tendance_5_ans,3)</t>
         </is>
       </c>
       <c r="NY5" t="inlineStr">
@@ -15825,12 +15821,12 @@
       </c>
       <c r="OC5" t="inlineStr">
         <is>
-          <t>SUM</t>
+          <t>$JS:roundNumber(michel_rp_depart / michel_tx_rp_an_donnee * michel_tx_rs_an_donnee,0)</t>
         </is>
       </c>
       <c r="OD5" t="inlineStr">
         <is>
-          <t>SUM</t>
+          <t>$JS:roundNumber(michel_rp_arrivee / michel_tx_rp_an_donnee * michel_tx_rs_an_donnee,0)</t>
         </is>
       </c>
       <c r="OE5" t="inlineStr">
@@ -15840,17 +15836,17 @@
       </c>
       <c r="OF5" t="inlineStr">
         <is>
-          <t>SUM</t>
+          <t>$JS:roundNumber(michel_rp_depart / michel_tx_rp_an_donnee * michel_tx_rv_an_donnee,0)</t>
         </is>
       </c>
       <c r="OG5" t="inlineStr">
         <is>
-          <t>SUM</t>
+          <t>$JS:roundNumber(michel_rp_arrivee / michel_tx_rp_an_donnee * michel_tx_rv_an_donnee,0)</t>
         </is>
       </c>
       <c r="OH5" t="inlineStr">
         <is>
-          <t>$JS:michel_rs_arrivee - michel_rs_depart</t>
+          <t>$JS:michel_rv_arrivee - michel_rv_depart</t>
         </is>
       </c>
       <c r="OI5" t="inlineStr">
@@ -15890,7 +15886,7 @@
       </c>
       <c r="OP5" t="inlineStr">
         <is>
-          <t>roundNumber(michel_renouvellement_an / (P13_LOGVAC +  P13_RSECOCC + C13_MEN),3)</t>
+          <t>$JS:roundNumber(michel_renouvellement_an / (P13_LOGVAC +  P13_RSECOCC + C13_MEN),3)</t>
         </is>
       </c>
       <c r="OQ5" t="inlineStr">
@@ -15905,27 +15901,27 @@
       </c>
       <c r="OS5" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>$JS:10</t>
         </is>
       </c>
       <c r="OT5" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>$JS:10</t>
         </is>
       </c>
       <c r="OU5" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>$JS:10</t>
         </is>
       </c>
       <c r="OV5" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>$JS:20</t>
         </is>
       </c>
       <c r="OW5" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>$JS:20</t>
         </is>
       </c>
       <c r="OX5" t="inlineStr">
@@ -15940,27 +15936,27 @@
       </c>
       <c r="OZ5" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>$JS:10</t>
         </is>
       </c>
       <c r="PA5" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>$JS:10</t>
         </is>
       </c>
       <c r="PB5" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>$JS:15</t>
         </is>
       </c>
       <c r="PC5" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>$JS:15</t>
         </is>
       </c>
       <c r="PD5" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>$JS:30</t>
         </is>
       </c>
       <c r="PE5" t="inlineStr">
@@ -16010,32 +16006,32 @@
       </c>
       <c r="PN5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$JS:0</t>
         </is>
       </c>
       <c r="PO5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$JS:0</t>
         </is>
       </c>
       <c r="PP5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$JS:0</t>
         </is>
       </c>
       <c r="PQ5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$JS:0</t>
         </is>
       </c>
       <c r="PR5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$JS:0</t>
         </is>
       </c>
       <c r="PS5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$JS:0</t>
         </is>
       </c>
       <c r="PT5" t="inlineStr">
@@ -16080,32 +16076,32 @@
       </c>
       <c r="QB5" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>$JS:20</t>
         </is>
       </c>
       <c r="QC5" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>$JS:30</t>
         </is>
       </c>
       <c r="QD5" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>$JS:40</t>
         </is>
       </c>
       <c r="QE5" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>$JS:15</t>
         </is>
       </c>
       <c r="QF5" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>$JS:60</t>
         </is>
       </c>
       <c r="QG5" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>$JS:70</t>
         </is>
       </c>
       <c r="QH5" t="inlineStr">
@@ -16150,32 +16146,32 @@
       </c>
       <c r="QP5" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>$JS:5</t>
         </is>
       </c>
       <c r="QQ5" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>$JS:5</t>
         </is>
       </c>
       <c r="QR5" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>$JS:5</t>
         </is>
       </c>
       <c r="QS5" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>$JS:5</t>
         </is>
       </c>
       <c r="QT5" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>$JS:10</t>
         </is>
       </c>
       <c r="QU5" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>$JS:10</t>
         </is>
       </c>
       <c r="QV5" t="inlineStr">
@@ -20129,7 +20125,7 @@
       </c>
       <c r="OH6" t="inlineStr">
         <is>
-          <t>michel_rs_arrivee - michel_rs_depart</t>
+          <t>michel_rv_arrivee - michel_rv_depart</t>
         </is>
       </c>
       <c r="OI6" t="inlineStr">
@@ -28432,2542 +28428,2542 @@
       </c>
       <c r="MI8" t="inlineStr">
         <is>
-          <t>SCENARIO</t>
+          <t>OZAN</t>
         </is>
       </c>
       <c r="MJ8" t="inlineStr">
         <is>
-          <t>SCENARIO</t>
+          <t>OZAN</t>
         </is>
       </c>
       <c r="MK8" t="inlineStr">
         <is>
-          <t>SCENARIO</t>
+          <t>OZAN</t>
         </is>
       </c>
       <c r="ML8" t="inlineStr">
         <is>
-          <t>SCENARIO</t>
+          <t>OZAN</t>
         </is>
       </c>
       <c r="MM8" t="inlineStr">
         <is>
-          <t>SCENARIO</t>
+          <t>OZAN</t>
         </is>
       </c>
       <c r="MN8" t="inlineStr">
         <is>
-          <t>SCENARIO</t>
+          <t>OZAN</t>
         </is>
       </c>
       <c r="MO8" t="inlineStr">
         <is>
-          <t>SCENARIO</t>
+          <t>OZAN</t>
         </is>
       </c>
       <c r="MP8" t="inlineStr">
         <is>
-          <t>SCENARIO</t>
+          <t>OZAN</t>
         </is>
       </c>
       <c r="MQ8" t="inlineStr">
         <is>
-          <t>SCENARIO</t>
+          <t>OZAN</t>
         </is>
       </c>
       <c r="MR8" t="inlineStr">
         <is>
-          <t>SCENARIO</t>
+          <t>OZAN</t>
         </is>
       </c>
       <c r="MS8" t="inlineStr">
         <is>
+          <t>OZAN</t>
+        </is>
+      </c>
+      <c r="MT8" t="inlineStr">
+        <is>
+          <t>OZAN</t>
+        </is>
+      </c>
+      <c r="MU8" t="inlineStr">
+        <is>
+          <t>OZAN</t>
+        </is>
+      </c>
+      <c r="MV8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="MW8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="MX8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="MY8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="MZ8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="NA8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="NB8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="NC8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="ND8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="NE8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="NF8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="NG8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="NH8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="NI8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="NJ8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="NK8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="NL8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="NM8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="NN8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="NO8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="NP8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="NQ8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="NR8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="NS8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="NT8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="NU8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="NV8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="NW8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="NX8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="NY8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="NZ8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="OA8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="OB8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="OC8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="OD8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="OE8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="OF8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="OG8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="OH8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="OI8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="OJ8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="OK8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="OL8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="OM8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="ON8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="OO8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="OP8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="OQ8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="OR8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="OS8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="OT8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="OU8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="OV8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="OW8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="OX8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="OY8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="OZ8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="PA8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="PB8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="PC8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="PD8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="PE8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="PF8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="PG8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="PH8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="PI8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="PJ8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="PK8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="PL8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="PM8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="PN8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="PO8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="PP8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="PQ8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="PR8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="PS8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="PT8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="PU8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="PV8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="PW8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="PX8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="PY8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="PZ8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="QA8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="QB8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="QC8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="QD8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="QE8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="QF8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="QG8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="QH8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="QI8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="QJ8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="QK8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="QL8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="QM8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="QN8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="QO8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="QP8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="QQ8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="QR8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="QS8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="QT8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="QU8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="QV8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="QW8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="QX8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="QY8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="QZ8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="RA8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="RB8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="RC8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="RD8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="RE8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="RF8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="RG8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="RH8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="RI8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="RJ8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="RK8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="RL8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="RM8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="RN8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="RO8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="RP8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="RQ8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="RR8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="RS8" t="inlineStr">
+        <is>
+          <t>MICHEL</t>
+        </is>
+      </c>
+      <c r="RT8" t="inlineStr">
+        <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="MT8" t="inlineStr">
-        <is>
-          <t>SCENARIO</t>
-        </is>
-      </c>
-      <c r="MU8" t="inlineStr">
-        <is>
-          <t>SCENARIO</t>
-        </is>
-      </c>
-      <c r="MV8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="MW8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="MX8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="MY8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="MZ8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="NA8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="NB8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="NC8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="ND8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="NE8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="NF8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="NG8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="NH8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="NI8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="NJ8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="NK8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="NL8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="NM8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="NN8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="NO8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="NP8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="NQ8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="NR8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="NS8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="NT8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="NU8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="NV8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="NW8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="NX8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="NY8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="NZ8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="OA8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="OB8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="OC8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="OD8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="OE8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="OF8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="OG8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="OH8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="OI8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="OJ8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="OK8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="OL8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="OM8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="ON8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="OO8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="OP8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="OQ8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="OR8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="OS8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="OT8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="OU8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="OV8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="OW8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="OX8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="OY8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="OZ8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="PA8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="PB8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="PC8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="PD8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="PE8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="PF8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="PG8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="PH8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="PI8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="PJ8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="PK8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="PL8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="PM8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="PN8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="PO8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="PP8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="PQ8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="PR8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="PS8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="PT8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="PU8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="PV8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="PW8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="PX8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="PY8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="PZ8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="QA8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="QB8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="QC8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="QD8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="QE8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="QF8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="QG8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="QH8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="QI8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="QJ8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="QK8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="QL8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="QM8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="QN8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="QO8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="QP8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="QQ8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="QR8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="QS8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="QT8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="QU8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="QV8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="QW8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="QX8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="QY8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="QZ8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="RA8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="RB8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="RC8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="RD8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="RE8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="RF8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="RG8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="RH8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="RI8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="RJ8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="RK8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="RL8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="RM8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="RN8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="RO8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="RP8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="RQ8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="RR8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="RS8" t="inlineStr">
-        <is>
-          <t>MICHEL</t>
-        </is>
-      </c>
-      <c r="RT8" t="inlineStr">
+      <c r="RU8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="RU8" t="inlineStr">
+      <c r="RV8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="RV8" t="inlineStr">
+      <c r="RW8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="RW8" t="inlineStr">
+      <c r="RX8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="RX8" t="inlineStr">
+      <c r="RY8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="RY8" t="inlineStr">
+      <c r="RZ8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="RZ8" t="inlineStr">
+      <c r="SA8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="SA8" t="inlineStr">
+      <c r="SB8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="SB8" t="inlineStr">
+      <c r="SC8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="SC8" t="inlineStr">
+      <c r="SD8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="SD8" t="inlineStr">
+      <c r="SE8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="SE8" t="inlineStr">
+      <c r="SF8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="SF8" t="inlineStr">
+      <c r="SG8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="SG8" t="inlineStr">
+      <c r="SH8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="SH8" t="inlineStr">
+      <c r="SI8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="SI8" t="inlineStr">
+      <c r="SJ8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="SJ8" t="inlineStr">
+      <c r="SK8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="SK8" t="inlineStr">
+      <c r="SL8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="SL8" t="inlineStr">
+      <c r="SM8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="SM8" t="inlineStr">
+      <c r="SN8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="SN8" t="inlineStr">
+      <c r="SO8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="SO8" t="inlineStr">
+      <c r="SP8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="SP8" t="inlineStr">
+      <c r="SQ8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="SQ8" t="inlineStr">
+      <c r="SR8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="SR8" t="inlineStr">
+      <c r="SS8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="SS8" t="inlineStr">
+      <c r="ST8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="ST8" t="inlineStr">
+      <c r="SU8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="SU8" t="inlineStr">
+      <c r="SV8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="SV8" t="inlineStr">
+      <c r="SW8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="SW8" t="inlineStr">
+      <c r="SX8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="SX8" t="inlineStr">
+      <c r="SY8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="SY8" t="inlineStr">
+      <c r="SZ8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="SZ8" t="inlineStr">
+      <c r="TA8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="TA8" t="inlineStr">
+      <c r="TB8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="TB8" t="inlineStr">
+      <c r="TC8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="TC8" t="inlineStr">
+      <c r="TD8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="TD8" t="inlineStr">
+      <c r="TE8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="TE8" t="inlineStr">
+      <c r="TF8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="TF8" t="inlineStr">
+      <c r="TG8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="TG8" t="inlineStr">
+      <c r="TH8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="TH8" t="inlineStr">
+      <c r="TI8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="TI8" t="inlineStr">
+      <c r="TJ8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="TJ8" t="inlineStr">
+      <c r="TK8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="TK8" t="inlineStr">
+      <c r="TL8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="TL8" t="inlineStr">
+      <c r="TM8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="TM8" t="inlineStr">
+      <c r="TN8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="TN8" t="inlineStr">
+      <c r="TO8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="TO8" t="inlineStr">
+      <c r="TP8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="TP8" t="inlineStr">
+      <c r="TQ8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="TQ8" t="inlineStr">
+      <c r="TR8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="TR8" t="inlineStr">
+      <c r="TS8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="TS8" t="inlineStr">
+      <c r="TT8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="TT8" t="inlineStr">
+      <c r="TU8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="TU8" t="inlineStr">
+      <c r="TV8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="TV8" t="inlineStr">
+      <c r="TW8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="TW8" t="inlineStr">
+      <c r="TX8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="TX8" t="inlineStr">
+      <c r="TY8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="TY8" t="inlineStr">
+      <c r="TZ8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="TZ8" t="inlineStr">
+      <c r="UA8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="UA8" t="inlineStr">
+      <c r="UB8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="UB8" t="inlineStr">
+      <c r="UC8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="UC8" t="inlineStr">
+      <c r="UD8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="UD8" t="inlineStr">
+      <c r="UE8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="UE8" t="inlineStr">
+      <c r="UF8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="UF8" t="inlineStr">
+      <c r="UG8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="UG8" t="inlineStr">
+      <c r="UH8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="UH8" t="inlineStr">
+      <c r="UI8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="UI8" t="inlineStr">
+      <c r="UJ8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="UJ8" t="inlineStr">
+      <c r="UK8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="UK8" t="inlineStr">
+      <c r="UL8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="UL8" t="inlineStr">
+      <c r="UM8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="UM8" t="inlineStr">
+      <c r="UN8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="UN8" t="inlineStr">
+      <c r="UO8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="UO8" t="inlineStr">
+      <c r="UP8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="UP8" t="inlineStr">
+      <c r="UQ8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="UQ8" t="inlineStr">
+      <c r="UR8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="UR8" t="inlineStr">
+      <c r="US8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="US8" t="inlineStr">
+      <c r="UT8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="UT8" t="inlineStr">
+      <c r="UU8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="UU8" t="inlineStr">
+      <c r="UV8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="UV8" t="inlineStr">
+      <c r="UW8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="UW8" t="inlineStr">
+      <c r="UX8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="UX8" t="inlineStr">
+      <c r="UY8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="UY8" t="inlineStr">
+      <c r="UZ8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="UZ8" t="inlineStr">
+      <c r="VA8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="VA8" t="inlineStr">
+      <c r="VB8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="VB8" t="inlineStr">
+      <c r="VC8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="VC8" t="inlineStr">
+      <c r="VD8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="VD8" t="inlineStr">
+      <c r="VE8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="VE8" t="inlineStr">
+      <c r="VF8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="VF8" t="inlineStr">
+      <c r="VG8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="VG8" t="inlineStr">
+      <c r="VH8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="VH8" t="inlineStr">
+      <c r="VI8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="VI8" t="inlineStr">
+      <c r="VJ8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="VJ8" t="inlineStr">
+      <c r="VK8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="VK8" t="inlineStr">
+      <c r="VL8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="VL8" t="inlineStr">
+      <c r="VM8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="VM8" t="inlineStr">
+      <c r="VN8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="VN8" t="inlineStr">
+      <c r="VO8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="VO8" t="inlineStr">
+      <c r="VP8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="VP8" t="inlineStr">
+      <c r="VQ8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="VQ8" t="inlineStr">
+      <c r="VR8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="VR8" t="inlineStr">
+      <c r="VS8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="VS8" t="inlineStr">
+      <c r="VT8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="VT8" t="inlineStr">
+      <c r="VU8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="VU8" t="inlineStr">
+      <c r="VV8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="VV8" t="inlineStr">
+      <c r="VW8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="VW8" t="inlineStr">
+      <c r="VX8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="VX8" t="inlineStr">
+      <c r="VY8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="VY8" t="inlineStr">
+      <c r="VZ8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="VZ8" t="inlineStr">
+      <c r="WA8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="WA8" t="inlineStr">
+      <c r="WB8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="WB8" t="inlineStr">
+      <c r="WC8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="WC8" t="inlineStr">
+      <c r="WD8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="WD8" t="inlineStr">
+      <c r="WE8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="WE8" t="inlineStr">
+      <c r="WF8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="WF8" t="inlineStr">
+      <c r="WG8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="WG8" t="inlineStr">
+      <c r="WH8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="WH8" t="inlineStr">
+      <c r="WI8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="WI8" t="inlineStr">
+      <c r="WJ8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="WJ8" t="inlineStr">
+      <c r="WK8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="WK8" t="inlineStr">
+      <c r="WL8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="WL8" t="inlineStr">
+      <c r="WM8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="WM8" t="inlineStr">
+      <c r="WN8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="WN8" t="inlineStr">
+      <c r="WO8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="WO8" t="inlineStr">
+      <c r="WP8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="WP8" t="inlineStr">
+      <c r="WQ8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="WQ8" t="inlineStr">
+      <c r="WR8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="WR8" t="inlineStr">
+      <c r="WS8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="WS8" t="inlineStr">
+      <c r="WT8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="WT8" t="inlineStr">
+      <c r="WU8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="WU8" t="inlineStr">
+      <c r="WV8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="WV8" t="inlineStr">
+      <c r="WW8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="WW8" t="inlineStr">
+      <c r="WX8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="WX8" t="inlineStr">
+      <c r="WY8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="WY8" t="inlineStr">
+      <c r="WZ8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="WZ8" t="inlineStr">
+      <c r="XA8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="XA8" t="inlineStr">
+      <c r="XB8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="XB8" t="inlineStr">
+      <c r="XC8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="XC8" t="inlineStr">
+      <c r="XD8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="XD8" t="inlineStr">
+      <c r="XE8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="XE8" t="inlineStr">
+      <c r="XF8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="XF8" t="inlineStr">
+      <c r="XG8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="XG8" t="inlineStr">
+      <c r="XH8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="XH8" t="inlineStr">
+      <c r="XI8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="XI8" t="inlineStr">
+      <c r="XJ8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="XJ8" t="inlineStr">
+      <c r="XK8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="XK8" t="inlineStr">
+      <c r="XL8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="XL8" t="inlineStr">
+      <c r="XM8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="XM8" t="inlineStr">
+      <c r="XN8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="XN8" t="inlineStr">
+      <c r="XO8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="XO8" t="inlineStr">
+      <c r="XP8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="XP8" t="inlineStr">
+      <c r="XQ8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="XQ8" t="inlineStr">
+      <c r="XR8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="XR8" t="inlineStr">
+      <c r="XS8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="XS8" t="inlineStr">
+      <c r="XT8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="XT8" t="inlineStr">
+      <c r="XU8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="XU8" t="inlineStr">
+      <c r="XV8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="XV8" t="inlineStr">
+      <c r="XW8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="XW8" t="inlineStr">
+      <c r="XX8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="XX8" t="inlineStr">
+      <c r="XY8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="XY8" t="inlineStr">
+      <c r="XZ8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="XZ8" t="inlineStr">
+      <c r="YA8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="YA8" t="inlineStr">
+      <c r="YB8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="YB8" t="inlineStr">
+      <c r="YC8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="YC8" t="inlineStr">
+      <c r="YD8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="YD8" t="inlineStr">
+      <c r="YE8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="YE8" t="inlineStr">
+      <c r="YF8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="YF8" t="inlineStr">
+      <c r="YG8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="YG8" t="inlineStr">
+      <c r="YH8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="YH8" t="inlineStr">
+      <c r="YI8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="YI8" t="inlineStr">
+      <c r="YJ8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="YJ8" t="inlineStr">
+      <c r="YK8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="YK8" t="inlineStr">
+      <c r="YL8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="YL8" t="inlineStr">
+      <c r="YM8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="YM8" t="inlineStr">
+      <c r="YN8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="YN8" t="inlineStr">
+      <c r="YO8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="YO8" t="inlineStr">
+      <c r="YP8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="YP8" t="inlineStr">
+      <c r="YQ8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="YQ8" t="inlineStr">
+      <c r="YR8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="YR8" t="inlineStr">
+      <c r="YS8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="YS8" t="inlineStr">
+      <c r="YT8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="YT8" t="inlineStr">
+      <c r="YU8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="YU8" t="inlineStr">
+      <c r="YV8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="YV8" t="inlineStr">
+      <c r="YW8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="YW8" t="inlineStr">
+      <c r="YX8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="YX8" t="inlineStr">
+      <c r="YY8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="YY8" t="inlineStr">
+      <c r="YZ8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="YZ8" t="inlineStr">
+      <c r="ZA8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="ZA8" t="inlineStr">
+      <c r="ZB8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="ZB8" t="inlineStr">
+      <c r="ZC8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="ZC8" t="inlineStr">
+      <c r="ZD8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="ZD8" t="inlineStr">
+      <c r="ZE8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="ZE8" t="inlineStr">
+      <c r="ZF8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="ZF8" t="inlineStr">
+      <c r="ZG8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="ZG8" t="inlineStr">
+      <c r="ZH8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="ZH8" t="inlineStr">
+      <c r="ZI8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="ZI8" t="inlineStr">
+      <c r="ZJ8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="ZJ8" t="inlineStr">
+      <c r="ZK8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="ZK8" t="inlineStr">
+      <c r="ZL8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="ZL8" t="inlineStr">
+      <c r="ZM8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="ZM8" t="inlineStr">
+      <c r="ZN8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="ZN8" t="inlineStr">
+      <c r="ZO8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="ZO8" t="inlineStr">
+      <c r="ZP8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="ZP8" t="inlineStr">
+      <c r="ZQ8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="ZQ8" t="inlineStr">
+      <c r="ZR8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="ZR8" t="inlineStr">
+      <c r="ZS8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="ZS8" t="inlineStr">
+      <c r="ZT8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="ZT8" t="inlineStr">
+      <c r="ZU8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="ZU8" t="inlineStr">
+      <c r="ZV8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="ZV8" t="inlineStr">
+      <c r="ZW8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="ZW8" t="inlineStr">
+      <c r="ZX8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="ZX8" t="inlineStr">
+      <c r="ZY8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="ZY8" t="inlineStr">
+      <c r="ZZ8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="ZZ8" t="inlineStr">
+      <c r="AAA8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="AAA8" t="inlineStr">
+      <c r="AAB8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="AAB8" t="inlineStr">
+      <c r="AAC8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="AAC8" t="inlineStr">
+      <c r="AAD8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="AAD8" t="inlineStr">
+      <c r="AAE8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="AAE8" t="inlineStr">
+      <c r="AAF8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="AAF8" t="inlineStr">
+      <c r="AAG8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="AAG8" t="inlineStr">
+      <c r="AAH8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="AAH8" t="inlineStr">
+      <c r="AAI8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="AAI8" t="inlineStr">
+      <c r="AAJ8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="AAJ8" t="inlineStr">
+      <c r="AAK8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="AAK8" t="inlineStr">
+      <c r="AAL8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="AAL8" t="inlineStr">
+      <c r="AAM8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="AAM8" t="inlineStr">
+      <c r="AAN8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="AAN8" t="inlineStr">
+      <c r="AAO8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="AAO8" t="inlineStr">
+      <c r="AAP8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="AAP8" t="inlineStr">
+      <c r="AAQ8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="AAQ8" t="inlineStr">
+      <c r="AAR8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="AAR8" t="inlineStr">
+      <c r="AAS8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="AAS8" t="inlineStr">
+      <c r="AAT8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="AAT8" t="inlineStr">
+      <c r="AAU8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="AAU8" t="inlineStr">
+      <c r="AAV8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="AAV8" t="inlineStr">
+      <c r="AAW8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="AAW8" t="inlineStr">
+      <c r="AAX8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="AAX8" t="inlineStr">
+      <c r="AAY8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="AAY8" t="inlineStr">
+      <c r="AAZ8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="AAZ8" t="inlineStr">
+      <c r="ABA8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="ABA8" t="inlineStr">
+      <c r="ABB8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="ABB8" t="inlineStr">
+      <c r="ABC8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="ABC8" t="inlineStr">
+      <c r="ABD8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="ABD8" t="inlineStr">
+      <c r="ABE8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="ABE8" t="inlineStr">
+      <c r="ABF8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="ABF8" t="inlineStr">
+      <c r="ABG8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="ABG8" t="inlineStr">
+      <c r="ABH8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="ABH8" t="inlineStr">
+      <c r="ABI8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="ABI8" t="inlineStr">
+      <c r="ABJ8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="ABJ8" t="inlineStr">
+      <c r="ABK8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="ABK8" t="inlineStr">
+      <c r="ABL8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="ABL8" t="inlineStr">
+      <c r="ABM8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="ABM8" t="inlineStr">
+      <c r="ABN8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="ABN8" t="inlineStr">
+      <c r="ABO8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="ABO8" t="inlineStr">
+      <c r="ABP8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="ABP8" t="inlineStr">
+      <c r="ABQ8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="ABQ8" t="inlineStr">
+      <c r="ABR8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="ABR8" t="inlineStr">
+      <c r="ABS8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="ABS8" t="inlineStr">
+      <c r="ABT8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="ABT8" t="inlineStr">
+      <c r="ABU8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="ABU8" t="inlineStr">
+      <c r="ABV8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="ABV8" t="inlineStr">
+      <c r="ABW8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="ABW8" t="inlineStr">
+      <c r="ABX8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="ABX8" t="inlineStr">
+      <c r="ABY8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="ABY8" t="inlineStr">
+      <c r="ABZ8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="ABZ8" t="inlineStr">
+      <c r="ACA8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="ACA8" t="inlineStr">
+      <c r="ACB8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="ACB8" t="inlineStr">
+      <c r="ACC8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="ACC8" t="inlineStr">
+      <c r="ACD8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="ACD8" t="inlineStr">
+      <c r="ACE8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="ACE8" t="inlineStr">
+      <c r="ACF8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="ACF8" t="inlineStr">
+      <c r="ACG8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="ACG8" t="inlineStr">
+      <c r="ACH8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="ACH8" t="inlineStr">
+      <c r="ACI8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="ACI8" t="inlineStr">
+      <c r="ACJ8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="ACJ8" t="inlineStr">
+      <c r="ACK8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="ACK8" t="inlineStr">
+      <c r="ACL8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="ACL8" t="inlineStr">
+      <c r="ACM8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="ACM8" t="inlineStr">
+      <c r="ACN8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="ACN8" t="inlineStr">
+      <c r="ACO8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="ACO8" t="inlineStr">
+      <c r="ACP8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="ACP8" t="inlineStr">
+      <c r="ACQ8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="ACQ8" t="inlineStr">
+      <c r="ACR8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="ACR8" t="inlineStr">
+      <c r="ACS8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="ACS8" t="inlineStr">
+      <c r="ACT8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="ACT8" t="inlineStr">
+      <c r="ACU8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="ACU8" t="inlineStr">
+      <c r="ACV8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="ACV8" t="inlineStr">
+      <c r="ACW8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="ACW8" t="inlineStr">
+      <c r="ACX8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="ACX8" t="inlineStr">
+      <c r="ACY8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="ACY8" t="inlineStr">
+      <c r="ACZ8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="ACZ8" t="inlineStr">
+      <c r="ADA8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="ADA8" t="inlineStr">
+      <c r="ADB8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="ADB8" t="inlineStr">
+      <c r="ADC8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="ADC8" t="inlineStr">
+      <c r="ADD8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="ADD8" t="inlineStr">
+      <c r="ADE8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="ADE8" t="inlineStr">
+      <c r="ADF8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="ADF8" t="inlineStr">
+      <c r="ADG8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="ADG8" t="inlineStr">
+      <c r="ADH8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="ADH8" t="inlineStr">
+      <c r="ADI8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="ADI8" t="inlineStr">
+      <c r="ADJ8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="ADJ8" t="inlineStr">
+      <c r="ADK8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="ADK8" t="inlineStr">
+      <c r="ADL8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="ADL8" t="inlineStr">
+      <c r="ADM8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="ADM8" t="inlineStr">
+      <c r="ADN8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="ADN8" t="inlineStr">
+      <c r="ADO8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="ADO8" t="inlineStr">
+      <c r="ADP8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="ADP8" t="inlineStr">
+      <c r="ADQ8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="ADQ8" t="inlineStr">
+      <c r="ADR8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="ADR8" t="inlineStr">
+      <c r="ADS8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="ADS8" t="inlineStr">
+      <c r="ADT8" t="inlineStr">
         <is>
           <t>CALCULS</t>
         </is>
       </c>
-      <c r="ADT8" t="inlineStr">
-        <is>
-          <t>CALCULS</t>
-        </is>
-      </c>
       <c r="ADU8" t="inlineStr">
         <is>
-          <t>CALCULS</t>
+          <t>OZAN</t>
         </is>
       </c>
       <c r="ADV8" t="inlineStr">
         <is>
-          <t>CALCULS</t>
+          <t>OZAN</t>
         </is>
       </c>
       <c r="ADW8" t="inlineStr">
         <is>
-          <t>CALCULS</t>
+          <t>OZAN</t>
         </is>
       </c>
       <c r="ADX8" t="inlineStr">
         <is>
-          <t>CALCULS</t>
+          <t>OZAN</t>
         </is>
       </c>
       <c r="ADY8" t="inlineStr">
         <is>
-          <t>CALCULS</t>
+          <t>OZAN</t>
         </is>
       </c>
       <c r="ADZ8" t="inlineStr">
         <is>
-          <t>CALCULS</t>
+          <t>OZAN</t>
         </is>
       </c>
       <c r="AEA8" t="inlineStr">
         <is>
-          <t>CALCULS</t>
+          <t>OZAN</t>
         </is>
       </c>
       <c r="AEB8" t="inlineStr">
         <is>
-          <t>CALCULS</t>
+          <t>OZAN</t>
         </is>
       </c>
       <c r="AEC8" t="inlineStr">
         <is>
-          <t>CALCULS</t>
+          <t>OZAN</t>
         </is>
       </c>
       <c r="AED8" t="inlineStr">
         <is>
-          <t>CALCULS</t>
+          <t>OZAN</t>
         </is>
       </c>
       <c r="AEE8" t="inlineStr">
         <is>
-          <t>CALCULS</t>
+          <t>OZAN</t>
         </is>
       </c>
       <c r="AEF8" t="inlineStr">
         <is>
-          <t>CALCULS</t>
+          <t>OZAN</t>
         </is>
       </c>
       <c r="AEG8" t="inlineStr">
         <is>
-          <t>CALCULS</t>
+          <t>OZAN</t>
         </is>
       </c>
       <c r="AEH8" t="inlineStr">
         <is>
-          <t>CALCULS</t>
+          <t>OZAN</t>
         </is>
       </c>
       <c r="AEI8" t="inlineStr">
         <is>
-          <t>CALCULS</t>
+          <t>OZAN</t>
         </is>
       </c>
       <c r="AEJ8" t="inlineStr">
         <is>
-          <t>CALCULS</t>
+          <t>OZAN</t>
         </is>
       </c>
       <c r="AEK8" t="inlineStr">
         <is>
-          <t>CALCULS</t>
+          <t>OZAN</t>
         </is>
       </c>
       <c r="AEL8" t="inlineStr">
         <is>
-          <t>CALCULS</t>
+          <t>OZAN</t>
         </is>
       </c>
       <c r="AEM8" t="inlineStr">
         <is>
-          <t>CALCULS</t>
+          <t>OZAN</t>
         </is>
       </c>
       <c r="AEN8" t="inlineStr">
         <is>
-          <t>CALCULS</t>
+          <t>OZAN</t>
         </is>
       </c>
       <c r="AEO8" t="inlineStr">
         <is>
-          <t>CALCULS</t>
+          <t>OZAN</t>
         </is>
       </c>
       <c r="AEP8" t="inlineStr">
         <is>
-          <t>CALCULS</t>
+          <t>OZAN</t>
         </is>
       </c>
       <c r="AEQ8" t="inlineStr">
         <is>
-          <t>CALCULS</t>
+          <t>OZAN</t>
         </is>
       </c>
       <c r="AER8" t="inlineStr">
         <is>
-          <t>CALCULS</t>
+          <t>OZAN</t>
         </is>
       </c>
       <c r="AES8" t="inlineStr">
         <is>
-          <t>CALCULS</t>
+          <t>OZAN</t>
         </is>
       </c>
       <c r="AET8" t="inlineStr">
         <is>
-          <t>CALCULS</t>
+          <t>OZAN</t>
         </is>
       </c>
       <c r="AEU8" t="inlineStr">
         <is>
-          <t>CALCULS</t>
+          <t>OZAN</t>
         </is>
       </c>
       <c r="AEV8" t="inlineStr">
         <is>
-          <t>CALCULS</t>
+          <t>OZAN</t>
         </is>
       </c>
       <c r="AEW8" t="inlineStr">
         <is>
-          <t>CALCULS</t>
+          <t>OZAN</t>
         </is>
       </c>
       <c r="AEX8" t="inlineStr">
         <is>
-          <t>CALCULS</t>
+          <t>OZAN</t>
         </is>
       </c>
       <c r="AEY8" t="inlineStr">
         <is>
-          <t>CALCULS</t>
+          <t>OZAN</t>
         </is>
       </c>
       <c r="AEZ8" t="inlineStr">
         <is>
-          <t>CALCULS</t>
+          <t>OZAN</t>
         </is>
       </c>
       <c r="AFA8" t="inlineStr">
         <is>
-          <t>CALCULS</t>
+          <t>OZAN</t>
         </is>
       </c>
       <c r="AFB8" t="inlineStr">
         <is>
-          <t>CALCULS</t>
+          <t>OZAN</t>
         </is>
       </c>
       <c r="AFC8" t="inlineStr">
         <is>
-          <t>CALCULS</t>
+          <t>OZAN</t>
         </is>
       </c>
       <c r="AFD8" t="inlineStr">
         <is>
-          <t>CALCULS</t>
+          <t>OZAN</t>
         </is>
       </c>
       <c r="AFE8" t="inlineStr">
         <is>
-          <t>CALCULS</t>
+          <t>OZAN</t>
         </is>
       </c>
       <c r="AFF8" t="inlineStr">
         <is>
-          <t>CALCULS</t>
+          <t>OZAN</t>
         </is>
       </c>
       <c r="AFG8" t="inlineStr">
         <is>
-          <t>CALCULS</t>
+          <t>OZAN</t>
         </is>
       </c>
       <c r="AFH8" t="inlineStr">
         <is>
-          <t>CALCULS</t>
+          <t>OZAN</t>
         </is>
       </c>
       <c r="AFI8" t="inlineStr">
         <is>
-          <t>CALCULS</t>
+          <t>OZAN</t>
         </is>
       </c>
       <c r="AFJ8" t="inlineStr">
         <is>
-          <t>CALCULS</t>
+          <t>OZAN</t>
         </is>
       </c>
       <c r="AFK8" t="inlineStr">
         <is>
-          <t>CALCULS</t>
+          <t>OZAN</t>
         </is>
       </c>
       <c r="AFL8" t="inlineStr">
         <is>
-          <t>CALCULS</t>
+          <t>OZAN</t>
         </is>
       </c>
       <c r="AFM8" t="inlineStr">
         <is>
-          <t>CALCULS</t>
+          <t>OZAN</t>
         </is>
       </c>
       <c r="AFN8" t="inlineStr">
         <is>
-          <t>CALCULS</t>
+          <t>OZAN</t>
         </is>
       </c>
       <c r="AFO8" t="inlineStr">
         <is>
-          <t>CALCULS</t>
+          <t>OZAN</t>
         </is>
       </c>
       <c r="AFP8" t="inlineStr">
         <is>
-          <t>CALCULS</t>
+          <t>OZAN</t>
         </is>
       </c>
       <c r="AFQ8" t="inlineStr">
         <is>
-          <t>CALCULS</t>
+          <t>OZAN</t>
         </is>
       </c>
       <c r="AFR8" t="inlineStr">
         <is>
-          <t>CALCULS</t>
+          <t>OZAN</t>
         </is>
       </c>
       <c r="AFS8" t="inlineStr">
         <is>
-          <t>CALCULS</t>
+          <t>OZAN</t>
         </is>
       </c>
       <c r="AFT8" t="inlineStr">
         <is>
-          <t>CALCULS</t>
+          <t>OZAN</t>
         </is>
       </c>
       <c r="AFU8" t="inlineStr">
         <is>
-          <t>CALCULS</t>
+          <t>OZAN</t>
         </is>
       </c>
       <c r="AFV8" t="inlineStr">
         <is>
-          <t>CALCULS</t>
+          <t>OZAN</t>
         </is>
       </c>
       <c r="AFW8" t="inlineStr"/>
@@ -44349,14 +44345,14 @@
       </c>
       <c r="E347" t="inlineStr">
         <is>
+          <t>$JS:2018</t>
+        </is>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F347" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
       <c r="G347" t="inlineStr">
         <is>
           <t>INT</t>
@@ -44364,7 +44360,7 @@
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>SCENARIO</t>
+          <t>OZAN</t>
         </is>
       </c>
     </row>
@@ -44387,14 +44383,14 @@
       </c>
       <c r="E348" t="inlineStr">
         <is>
+          <t>$JS:2030</t>
+        </is>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
           <t>2030</t>
         </is>
       </c>
-      <c r="F348" t="inlineStr">
-        <is>
-          <t>2030</t>
-        </is>
-      </c>
       <c r="G348" t="inlineStr">
         <is>
           <t>INT</t>
@@ -44402,7 +44398,7 @@
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>SCENARIO</t>
+          <t>OZAN</t>
         </is>
       </c>
     </row>
@@ -44425,14 +44421,14 @@
       </c>
       <c r="E349" t="inlineStr">
         <is>
+          <t>$JS:P18_POP</t>
+        </is>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
           <t>P18_POP</t>
         </is>
       </c>
-      <c r="F349" t="inlineStr">
-        <is>
-          <t>P18_POP</t>
-        </is>
-      </c>
       <c r="G349" t="inlineStr">
         <is>
           <t>INT</t>
@@ -44440,7 +44436,7 @@
       </c>
       <c r="H349" t="inlineStr">
         <is>
-          <t>SCENARIO</t>
+          <t>OZAN</t>
         </is>
       </c>
     </row>
@@ -44463,14 +44459,14 @@
       </c>
       <c r="E350" t="inlineStr">
         <is>
+          <t>$JS:POP_2030</t>
+        </is>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
           <t>POP_2030</t>
         </is>
       </c>
-      <c r="F350" t="inlineStr">
-        <is>
-          <t>POP_2030</t>
-        </is>
-      </c>
       <c r="G350" t="inlineStr">
         <is>
           <t>INT</t>
@@ -44478,7 +44474,7 @@
       </c>
       <c r="H350" t="inlineStr">
         <is>
-          <t>SCENARIO</t>
+          <t>OZAN</t>
         </is>
       </c>
     </row>
@@ -44501,14 +44497,14 @@
       </c>
       <c r="E351" t="inlineStr">
         <is>
+          <t>$JS:TM_2018</t>
+        </is>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
           <t>TM_2018</t>
         </is>
       </c>
-      <c r="F351" t="inlineStr">
-        <is>
-          <t>TM_2018</t>
-        </is>
-      </c>
       <c r="G351" t="inlineStr">
         <is>
           <t>FLOAT</t>
@@ -44516,7 +44512,7 @@
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>SCENARIO</t>
+          <t>OZAN</t>
         </is>
       </c>
     </row>
@@ -44539,14 +44535,14 @@
       </c>
       <c r="E352" t="inlineStr">
         <is>
+          <t>$JS:TM_2030</t>
+        </is>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
           <t>TM_2030</t>
         </is>
       </c>
-      <c r="F352" t="inlineStr">
-        <is>
-          <t>TM_2030</t>
-        </is>
-      </c>
       <c r="G352" t="inlineStr">
         <is>
           <t>FLOAT</t>
@@ -44554,7 +44550,7 @@
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>SCENARIO</t>
+          <t>OZAN</t>
         </is>
       </c>
     </row>
@@ -44577,14 +44573,14 @@
       </c>
       <c r="E353" t="inlineStr">
         <is>
+          <t>$JS:P18_LOGVAC</t>
+        </is>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
           <t>P18_LOGVAC</t>
         </is>
       </c>
-      <c r="F353" t="inlineStr">
-        <is>
-          <t>P18_LOGVAC</t>
-        </is>
-      </c>
       <c r="G353" t="inlineStr">
         <is>
           <t>INT</t>
@@ -44592,7 +44588,7 @@
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>SCENARIO</t>
+          <t>OZAN</t>
         </is>
       </c>
     </row>
@@ -44615,14 +44611,14 @@
       </c>
       <c r="E354" t="inlineStr">
         <is>
+          <t>$JS:P30_LOGVAC</t>
+        </is>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
           <t>P30_LOGVAC</t>
         </is>
       </c>
-      <c r="F354" t="inlineStr">
-        <is>
-          <t>P30_LOGVAC</t>
-        </is>
-      </c>
       <c r="G354" t="inlineStr">
         <is>
           <t>INT</t>
@@ -44630,7 +44626,7 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>SCENARIO</t>
+          <t>OZAN</t>
         </is>
       </c>
     </row>
@@ -44653,14 +44649,14 @@
       </c>
       <c r="E355" t="inlineStr">
         <is>
+          <t>$JS:P18_RSECOCC</t>
+        </is>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
           <t>P18_RSECOCC</t>
         </is>
       </c>
-      <c r="F355" t="inlineStr">
-        <is>
-          <t>P18_RSECOCC</t>
-        </is>
-      </c>
       <c r="G355" t="inlineStr">
         <is>
           <t>INT</t>
@@ -44668,7 +44664,7 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>SCENARIO</t>
+          <t>OZAN</t>
         </is>
       </c>
     </row>
@@ -44691,14 +44687,14 @@
       </c>
       <c r="E356" t="inlineStr">
         <is>
+          <t>$JS:P30_RSECOCC</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
           <t>P30_RSECOCC</t>
         </is>
       </c>
-      <c r="F356" t="inlineStr">
-        <is>
-          <t>P30_RSECOCC</t>
-        </is>
-      </c>
       <c r="G356" t="inlineStr">
         <is>
           <t>INT</t>
@@ -44706,7 +44702,7 @@
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>SCENARIO</t>
+          <t>OZAN</t>
         </is>
       </c>
     </row>
@@ -44744,7 +44740,7 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>CALCULS</t>
+          <t>OZAN</t>
         </is>
       </c>
     </row>
@@ -44767,14 +44763,14 @@
       </c>
       <c r="E358" t="inlineStr">
         <is>
+          <t>$JS:45</t>
+        </is>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
           <t>45</t>
         </is>
       </c>
-      <c r="F358" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
       <c r="G358" t="inlineStr">
         <is>
           <t>FLOAT</t>
@@ -44782,7 +44778,7 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>SCENARIO</t>
+          <t>OZAN</t>
         </is>
       </c>
     </row>
@@ -44805,14 +44801,14 @@
       </c>
       <c r="E359" t="inlineStr">
         <is>
+          <t>$JS:20</t>
+        </is>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
           <t>20</t>
         </is>
       </c>
-      <c r="F359" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
       <c r="G359" t="inlineStr">
         <is>
           <t>INT</t>
@@ -44820,7 +44816,7 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>SCENARIO</t>
+          <t>OZAN</t>
         </is>
       </c>
     </row>
@@ -45413,7 +45409,7 @@
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>$JS:2021</t>
         </is>
       </c>
       <c r="F375" t="inlineStr">
@@ -45451,7 +45447,7 @@
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>2030</t>
+          <t>$JS:2030</t>
         </is>
       </c>
       <c r="F376" t="inlineStr">
@@ -45527,7 +45523,7 @@
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>SUM</t>
+          <t>$JS:calc_after(michel_an_donnee, michel_pop_donnee, michel_an_depart, michel_pop_tendance_5_ans,0)</t>
         </is>
       </c>
       <c r="F378" t="inlineStr">
@@ -45565,7 +45561,7 @@
       </c>
       <c r="E379" t="inlineStr">
         <is>
-          <t>EQUAL</t>
+          <t>$JS:michel_pop_tendance_5_ans</t>
         </is>
       </c>
       <c r="F379" t="inlineStr">
@@ -45641,7 +45637,7 @@
       </c>
       <c r="E381" t="inlineStr">
         <is>
-          <t>SUM</t>
+          <t>$JS:calc_after(michel_an_donnee, michel_pop_hors_menage, michel_an_depart, michel_pop_tendance_5_ans,0)</t>
         </is>
       </c>
       <c r="F381" t="inlineStr">
@@ -45679,7 +45675,7 @@
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>SUM</t>
+          <t>$JS:calc_after(michel_an_depart, michel_pop_hm_depart, michel_an_arrivee, michel_pop_taux,0)</t>
         </is>
       </c>
       <c r="F382" t="inlineStr">
@@ -45857,7 +45853,7 @@
         </is>
       </c>
       <c r="B387" t="n">
-        <v>2.249</v>
+        <v>2</v>
       </c>
       <c r="C387" t="inlineStr">
         <is>
@@ -45869,7 +45865,7 @@
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>calc_after(michel_an_donnee, michel_tm_donnee, michel_an_depart, michel_tm_tendance_5_ans,3)</t>
+          <t>$JS:calc_after(michel_an_donnee, michel_tm_donnee, michel_an_depart, michel_tm_tendance_5_ans,3)</t>
         </is>
       </c>
       <c r="F387" t="inlineStr">
@@ -45895,7 +45891,7 @@
         </is>
       </c>
       <c r="B388" t="n">
-        <v>2.295</v>
+        <v>2.041</v>
       </c>
       <c r="C388" t="inlineStr">
         <is>
@@ -45907,7 +45903,7 @@
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>calc_after(michel_an_depart, michel_tm_depart, michel_an_arrivee, michel_tm_tendance_5_ans,3)</t>
+          <t>$JS:calc_after(michel_an_depart, michel_tm_depart, michel_an_arrivee, michel_tm_tendance_5_ans,3)</t>
         </is>
       </c>
       <c r="F388" t="inlineStr">
@@ -45933,7 +45929,7 @@
         </is>
       </c>
       <c r="B389" t="n">
-        <v>0.046</v>
+        <v>0.041</v>
       </c>
       <c r="C389" t="inlineStr">
         <is>
@@ -45971,7 +45967,7 @@
         </is>
       </c>
       <c r="B390" t="n">
-        <v>8683</v>
+        <v>9764</v>
       </c>
       <c r="C390" t="inlineStr">
         <is>
@@ -46009,7 +46005,7 @@
         </is>
       </c>
       <c r="B391" t="n">
-        <v>9528</v>
+        <v>10713</v>
       </c>
       <c r="C391" t="inlineStr">
         <is>
@@ -46047,7 +46043,7 @@
         </is>
       </c>
       <c r="B392" t="n">
-        <v>845</v>
+        <v>949</v>
       </c>
       <c r="C392" t="inlineStr">
         <is>
@@ -46097,7 +46093,7 @@
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>SUM</t>
+          <t>$JS:roundNumber(michel_rp_depart / michel_tx_rp_an_donnee * michel_tx_rs_an_donnee,0)</t>
         </is>
       </c>
       <c r="F393" t="inlineStr">
@@ -46135,7 +46131,7 @@
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>SUM</t>
+          <t>$JS:roundNumber(michel_rp_arrivee / michel_tx_rp_an_donnee * michel_tx_rs_an_donnee,0)</t>
         </is>
       </c>
       <c r="F394" t="inlineStr">
@@ -46211,7 +46207,7 @@
       </c>
       <c r="E396" t="inlineStr">
         <is>
-          <t>SUM</t>
+          <t>$JS:roundNumber(michel_rp_depart / michel_tx_rp_an_donnee * michel_tx_rv_an_donnee,0)</t>
         </is>
       </c>
       <c r="F396" t="inlineStr">
@@ -46249,7 +46245,7 @@
       </c>
       <c r="E397" t="inlineStr">
         <is>
-          <t>SUM</t>
+          <t>$JS:roundNumber(michel_rp_arrivee / michel_tx_rp_an_donnee * michel_tx_rv_an_donnee,0)</t>
         </is>
       </c>
       <c r="F397" t="inlineStr">
@@ -46275,7 +46271,7 @@
         </is>
       </c>
       <c r="B398" t="n">
-        <v>232</v>
+        <v>61</v>
       </c>
       <c r="C398" t="inlineStr">
         <is>
@@ -46287,12 +46283,12 @@
       </c>
       <c r="E398" t="inlineStr">
         <is>
-          <t>$JS:michel_rs_arrivee - michel_rs_depart</t>
+          <t>$JS:michel_rv_arrivee - michel_rv_depart</t>
         </is>
       </c>
       <c r="F398" t="inlineStr">
         <is>
-          <t>michel_rs_arrivee - michel_rs_depart</t>
+          <t>michel_rv_arrivee - michel_rv_depart</t>
         </is>
       </c>
       <c r="G398" t="inlineStr">
@@ -46313,7 +46309,7 @@
         </is>
       </c>
       <c r="B399" t="n">
-        <v>11699</v>
+        <v>12780</v>
       </c>
       <c r="C399" t="inlineStr">
         <is>
@@ -46351,7 +46347,7 @@
         </is>
       </c>
       <c r="B400" t="n">
-        <v>12837</v>
+        <v>14022</v>
       </c>
       <c r="C400" t="inlineStr">
         <is>
@@ -46389,7 +46385,7 @@
         </is>
       </c>
       <c r="B401" t="n">
-        <v>1138</v>
+        <v>1242</v>
       </c>
       <c r="C401" t="inlineStr">
         <is>
@@ -46591,7 +46587,7 @@
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>roundNumber(michel_renouvellement_an / (P13_LOGVAC +  P13_RSECOCC + C13_MEN),3)</t>
+          <t>$JS:roundNumber(michel_renouvellement_an / (P13_LOGVAC +  P13_RSECOCC + C13_MEN),3)</t>
         </is>
       </c>
       <c r="F406" t="inlineStr">
@@ -46655,7 +46651,7 @@
         </is>
       </c>
       <c r="B408" t="n">
-        <v>1471</v>
+        <v>1404</v>
       </c>
       <c r="C408" t="inlineStr">
         <is>
@@ -46705,7 +46701,7 @@
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>$JS:10</t>
         </is>
       </c>
       <c r="F409" t="inlineStr">
@@ -46743,7 +46739,7 @@
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>$JS:10</t>
         </is>
       </c>
       <c r="F410" t="inlineStr">
@@ -46781,7 +46777,7 @@
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>$JS:10</t>
         </is>
       </c>
       <c r="F411" t="inlineStr">
@@ -46819,7 +46815,7 @@
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>$JS:20</t>
         </is>
       </c>
       <c r="F412" t="inlineStr">
@@ -46857,7 +46853,7 @@
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>$JS:20</t>
         </is>
       </c>
       <c r="F413" t="inlineStr">
@@ -46971,7 +46967,7 @@
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>$JS:10</t>
         </is>
       </c>
       <c r="F416" t="inlineStr">
@@ -47009,7 +47005,7 @@
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>$JS:10</t>
         </is>
       </c>
       <c r="F417" t="inlineStr">
@@ -47047,7 +47043,7 @@
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>$JS:15</t>
         </is>
       </c>
       <c r="F418" t="inlineStr">
@@ -47085,7 +47081,7 @@
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>$JS:15</t>
         </is>
       </c>
       <c r="F419" t="inlineStr">
@@ -47123,7 +47119,7 @@
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>$JS:30</t>
         </is>
       </c>
       <c r="F420" t="inlineStr">
@@ -47225,7 +47221,7 @@
         </is>
       </c>
       <c r="B423" t="n">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C423" t="inlineStr">
         <is>
@@ -47263,7 +47259,7 @@
         </is>
       </c>
       <c r="B424" t="n">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C424" t="inlineStr">
         <is>
@@ -47301,7 +47297,7 @@
         </is>
       </c>
       <c r="B425" t="n">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="C425" t="inlineStr">
         <is>
@@ -47339,7 +47335,7 @@
         </is>
       </c>
       <c r="B426" t="n">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="C426" t="inlineStr">
         <is>
@@ -47377,7 +47373,7 @@
         </is>
       </c>
       <c r="B427" t="n">
-        <v>441</v>
+        <v>421</v>
       </c>
       <c r="C427" t="inlineStr">
         <is>
@@ -47415,7 +47411,7 @@
         </is>
       </c>
       <c r="B428" t="n">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="C428" t="inlineStr">
         <is>
@@ -47453,7 +47449,7 @@
         </is>
       </c>
       <c r="B429" t="n">
-        <v>1471</v>
+        <v>1404</v>
       </c>
       <c r="C429" t="inlineStr">
         <is>
@@ -47503,7 +47499,7 @@
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$JS:0</t>
         </is>
       </c>
       <c r="F430" t="inlineStr">
@@ -47541,7 +47537,7 @@
       </c>
       <c r="E431" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$JS:0</t>
         </is>
       </c>
       <c r="F431" t="inlineStr">
@@ -47579,7 +47575,7 @@
       </c>
       <c r="E432" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$JS:0</t>
         </is>
       </c>
       <c r="F432" t="inlineStr">
@@ -47617,7 +47613,7 @@
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$JS:0</t>
         </is>
       </c>
       <c r="F433" t="inlineStr">
@@ -47655,7 +47651,7 @@
       </c>
       <c r="E434" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$JS:0</t>
         </is>
       </c>
       <c r="F434" t="inlineStr">
@@ -47693,7 +47689,7 @@
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$JS:0</t>
         </is>
       </c>
       <c r="F435" t="inlineStr">
@@ -47757,7 +47753,7 @@
         </is>
       </c>
       <c r="B437" t="n">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C437" t="inlineStr">
         <is>
@@ -47795,7 +47791,7 @@
         </is>
       </c>
       <c r="B438" t="n">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C438" t="inlineStr">
         <is>
@@ -47833,7 +47829,7 @@
         </is>
       </c>
       <c r="B439" t="n">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="C439" t="inlineStr">
         <is>
@@ -47871,7 +47867,7 @@
         </is>
       </c>
       <c r="B440" t="n">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="C440" t="inlineStr">
         <is>
@@ -47909,7 +47905,7 @@
         </is>
       </c>
       <c r="B441" t="n">
-        <v>441</v>
+        <v>421</v>
       </c>
       <c r="C441" t="inlineStr">
         <is>
@@ -47947,7 +47943,7 @@
         </is>
       </c>
       <c r="B442" t="n">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="C442" t="inlineStr">
         <is>
@@ -47985,7 +47981,7 @@
         </is>
       </c>
       <c r="B443" t="n">
-        <v>1471</v>
+        <v>1404</v>
       </c>
       <c r="C443" t="inlineStr">
         <is>
@@ -48035,7 +48031,7 @@
       </c>
       <c r="E444" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>$JS:20</t>
         </is>
       </c>
       <c r="F444" t="inlineStr">
@@ -48073,7 +48069,7 @@
       </c>
       <c r="E445" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>$JS:30</t>
         </is>
       </c>
       <c r="F445" t="inlineStr">
@@ -48111,7 +48107,7 @@
       </c>
       <c r="E446" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>$JS:40</t>
         </is>
       </c>
       <c r="F446" t="inlineStr">
@@ -48149,7 +48145,7 @@
       </c>
       <c r="E447" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>$JS:15</t>
         </is>
       </c>
       <c r="F447" t="inlineStr">
@@ -48187,7 +48183,7 @@
       </c>
       <c r="E448" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>$JS:60</t>
         </is>
       </c>
       <c r="F448" t="inlineStr">
@@ -48225,7 +48221,7 @@
       </c>
       <c r="E449" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>$JS:70</t>
         </is>
       </c>
       <c r="F449" t="inlineStr">
@@ -48361,7 +48357,7 @@
         </is>
       </c>
       <c r="B453" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C453" t="inlineStr">
         <is>
@@ -48399,7 +48395,7 @@
         </is>
       </c>
       <c r="B454" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C454" t="inlineStr">
         <is>
@@ -48513,7 +48509,7 @@
         </is>
       </c>
       <c r="B457" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C457" t="inlineStr">
         <is>
@@ -48563,7 +48559,7 @@
       </c>
       <c r="E458" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>$JS:5</t>
         </is>
       </c>
       <c r="F458" t="inlineStr">
@@ -48601,7 +48597,7 @@
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>$JS:5</t>
         </is>
       </c>
       <c r="F459" t="inlineStr">
@@ -48639,7 +48635,7 @@
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>$JS:5</t>
         </is>
       </c>
       <c r="F460" t="inlineStr">
@@ -48677,7 +48673,7 @@
       </c>
       <c r="E461" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>$JS:5</t>
         </is>
       </c>
       <c r="F461" t="inlineStr">
@@ -48715,7 +48711,7 @@
       </c>
       <c r="E462" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>$JS:10</t>
         </is>
       </c>
       <c r="F462" t="inlineStr">
@@ -48753,7 +48749,7 @@
       </c>
       <c r="E463" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>$JS:10</t>
         </is>
       </c>
       <c r="F463" t="inlineStr">
@@ -48893,7 +48889,7 @@
         </is>
       </c>
       <c r="B467" t="n">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="C467" t="inlineStr">
         <is>
@@ -48931,7 +48927,7 @@
         </is>
       </c>
       <c r="B468" t="n">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="C468" t="inlineStr">
         <is>
@@ -49045,7 +49041,7 @@
         </is>
       </c>
       <c r="B471" t="n">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="C471" t="inlineStr">
         <is>
@@ -49159,7 +49155,7 @@
         </is>
       </c>
       <c r="B474" t="n">
-        <v>6.3</v>
+        <v>5.25</v>
       </c>
       <c r="C474" t="inlineStr">
         <is>
@@ -49197,7 +49193,7 @@
         </is>
       </c>
       <c r="B475" t="n">
-        <v>15.75</v>
+        <v>14.7</v>
       </c>
       <c r="C475" t="inlineStr">
         <is>
@@ -49311,7 +49307,7 @@
         </is>
       </c>
       <c r="B478" t="n">
-        <v>46.75</v>
+        <v>44.65</v>
       </c>
       <c r="C478" t="inlineStr">
         <is>
@@ -49425,7 +49421,7 @@
         </is>
       </c>
       <c r="B481" t="n">
-        <v>5.19</v>
+        <v>4.96</v>
       </c>
       <c r="C481" t="inlineStr">
         <is>
@@ -49463,7 +49459,7 @@
         </is>
       </c>
       <c r="B482" t="n">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C482" t="inlineStr">
         <is>
@@ -54355,11 +54351,7 @@
       <c r="B615" t="n">
         <v>8593</v>
       </c>
-      <c r="C615" t="inlineStr">
-        <is>
-          <t>Residences Principales en 2020</t>
-        </is>
-      </c>
+      <c r="C615" t="inlineStr"/>
       <c r="D615" t="inlineStr"/>
       <c r="E615" t="inlineStr">
         <is>
@@ -61206,7 +61198,7 @@
       </c>
       <c r="H801" t="inlineStr">
         <is>
-          <t>CALCULS</t>
+          <t>OZAN</t>
         </is>
       </c>
     </row>
@@ -61244,7 +61236,7 @@
       </c>
       <c r="H802" t="inlineStr">
         <is>
-          <t>CALCULS</t>
+          <t>OZAN</t>
         </is>
       </c>
     </row>
@@ -61280,7 +61272,7 @@
       </c>
       <c r="H803" t="inlineStr">
         <is>
-          <t>CALCULS</t>
+          <t>OZAN</t>
         </is>
       </c>
     </row>
@@ -61316,7 +61308,7 @@
       </c>
       <c r="H804" t="inlineStr">
         <is>
-          <t>CALCULS</t>
+          <t>OZAN</t>
         </is>
       </c>
     </row>
@@ -61352,7 +61344,7 @@
       </c>
       <c r="H805" t="inlineStr">
         <is>
-          <t>CALCULS</t>
+          <t>OZAN</t>
         </is>
       </c>
     </row>
@@ -61388,7 +61380,7 @@
       </c>
       <c r="H806" t="inlineStr">
         <is>
-          <t>CALCULS</t>
+          <t>OZAN</t>
         </is>
       </c>
     </row>
@@ -61424,7 +61416,7 @@
       </c>
       <c r="H807" t="inlineStr">
         <is>
-          <t>CALCULS</t>
+          <t>OZAN</t>
         </is>
       </c>
     </row>
@@ -61460,7 +61452,7 @@
       </c>
       <c r="H808" t="inlineStr">
         <is>
-          <t>CALCULS</t>
+          <t>OZAN</t>
         </is>
       </c>
     </row>
@@ -61496,7 +61488,7 @@
       </c>
       <c r="H809" t="inlineStr">
         <is>
-          <t>CALCULS</t>
+          <t>OZAN</t>
         </is>
       </c>
     </row>
@@ -61532,7 +61524,7 @@
       </c>
       <c r="H810" t="inlineStr">
         <is>
-          <t>CALCULS</t>
+          <t>OZAN</t>
         </is>
       </c>
     </row>
@@ -61568,7 +61560,7 @@
       </c>
       <c r="H811" t="inlineStr">
         <is>
-          <t>CALCULS</t>
+          <t>OZAN</t>
         </is>
       </c>
     </row>
@@ -61604,7 +61596,7 @@
       </c>
       <c r="H812" t="inlineStr">
         <is>
-          <t>CALCULS</t>
+          <t>OZAN</t>
         </is>
       </c>
     </row>
@@ -61640,7 +61632,7 @@
       </c>
       <c r="H813" t="inlineStr">
         <is>
-          <t>CALCULS</t>
+          <t>OZAN</t>
         </is>
       </c>
     </row>
@@ -61676,7 +61668,7 @@
       </c>
       <c r="H814" t="inlineStr">
         <is>
-          <t>CALCULS</t>
+          <t>OZAN</t>
         </is>
       </c>
     </row>
@@ -61712,7 +61704,7 @@
       </c>
       <c r="H815" t="inlineStr">
         <is>
-          <t>CALCULS</t>
+          <t>OZAN</t>
         </is>
       </c>
     </row>
@@ -61748,7 +61740,7 @@
       </c>
       <c r="H816" t="inlineStr">
         <is>
-          <t>CALCULS</t>
+          <t>OZAN</t>
         </is>
       </c>
     </row>
@@ -61784,7 +61776,7 @@
       </c>
       <c r="H817" t="inlineStr">
         <is>
-          <t>CALCULS</t>
+          <t>OZAN</t>
         </is>
       </c>
     </row>
@@ -61820,7 +61812,7 @@
       </c>
       <c r="H818" t="inlineStr">
         <is>
-          <t>CALCULS</t>
+          <t>OZAN</t>
         </is>
       </c>
     </row>
@@ -61856,7 +61848,7 @@
       </c>
       <c r="H819" t="inlineStr">
         <is>
-          <t>CALCULS</t>
+          <t>OZAN</t>
         </is>
       </c>
     </row>
@@ -61892,7 +61884,7 @@
       </c>
       <c r="H820" t="inlineStr">
         <is>
-          <t>CALCULS</t>
+          <t>OZAN</t>
         </is>
       </c>
     </row>
@@ -61928,7 +61920,7 @@
       </c>
       <c r="H821" t="inlineStr">
         <is>
-          <t>CALCULS</t>
+          <t>OZAN</t>
         </is>
       </c>
     </row>
@@ -61964,7 +61956,7 @@
       </c>
       <c r="H822" t="inlineStr">
         <is>
-          <t>CALCULS</t>
+          <t>OZAN</t>
         </is>
       </c>
     </row>
@@ -62000,7 +61992,7 @@
       </c>
       <c r="H823" t="inlineStr">
         <is>
-          <t>CALCULS</t>
+          <t>OZAN</t>
         </is>
       </c>
     </row>
@@ -62036,7 +62028,7 @@
       </c>
       <c r="H824" t="inlineStr">
         <is>
-          <t>CALCULS</t>
+          <t>OZAN</t>
         </is>
       </c>
     </row>
@@ -62072,7 +62064,7 @@
       </c>
       <c r="H825" t="inlineStr">
         <is>
-          <t>CALCULS</t>
+          <t>OZAN</t>
         </is>
       </c>
     </row>
@@ -62108,7 +62100,7 @@
       </c>
       <c r="H826" t="inlineStr">
         <is>
-          <t>CALCULS</t>
+          <t>OZAN</t>
         </is>
       </c>
     </row>
@@ -62144,7 +62136,7 @@
       </c>
       <c r="H827" t="inlineStr">
         <is>
-          <t>CALCULS</t>
+          <t>OZAN</t>
         </is>
       </c>
     </row>
@@ -62180,7 +62172,7 @@
       </c>
       <c r="H828" t="inlineStr">
         <is>
-          <t>CALCULS</t>
+          <t>OZAN</t>
         </is>
       </c>
     </row>
@@ -62216,7 +62208,7 @@
       </c>
       <c r="H829" t="inlineStr">
         <is>
-          <t>CALCULS</t>
+          <t>OZAN</t>
         </is>
       </c>
     </row>
@@ -62252,7 +62244,7 @@
       </c>
       <c r="H830" t="inlineStr">
         <is>
-          <t>CALCULS</t>
+          <t>OZAN</t>
         </is>
       </c>
     </row>
@@ -62288,7 +62280,7 @@
       </c>
       <c r="H831" t="inlineStr">
         <is>
-          <t>CALCULS</t>
+          <t>OZAN</t>
         </is>
       </c>
     </row>
@@ -62324,7 +62316,7 @@
       </c>
       <c r="H832" t="inlineStr">
         <is>
-          <t>CALCULS</t>
+          <t>OZAN</t>
         </is>
       </c>
     </row>
@@ -62360,7 +62352,7 @@
       </c>
       <c r="H833" t="inlineStr">
         <is>
-          <t>CALCULS</t>
+          <t>OZAN</t>
         </is>
       </c>
     </row>
@@ -62396,7 +62388,7 @@
       </c>
       <c r="H834" t="inlineStr">
         <is>
-          <t>CALCULS</t>
+          <t>OZAN</t>
         </is>
       </c>
     </row>
@@ -62432,7 +62424,7 @@
       </c>
       <c r="H835" t="inlineStr">
         <is>
-          <t>CALCULS</t>
+          <t>OZAN</t>
         </is>
       </c>
     </row>
@@ -62468,7 +62460,7 @@
       </c>
       <c r="H836" t="inlineStr">
         <is>
-          <t>CALCULS</t>
+          <t>OZAN</t>
         </is>
       </c>
     </row>
@@ -62504,7 +62496,7 @@
       </c>
       <c r="H837" t="inlineStr">
         <is>
-          <t>CALCULS</t>
+          <t>OZAN</t>
         </is>
       </c>
     </row>
@@ -62540,7 +62532,7 @@
       </c>
       <c r="H838" t="inlineStr">
         <is>
-          <t>CALCULS</t>
+          <t>OZAN</t>
         </is>
       </c>
     </row>
@@ -62576,7 +62568,7 @@
       </c>
       <c r="H839" t="inlineStr">
         <is>
-          <t>CALCULS</t>
+          <t>OZAN</t>
         </is>
       </c>
     </row>
@@ -62612,7 +62604,7 @@
       </c>
       <c r="H840" t="inlineStr">
         <is>
-          <t>CALCULS</t>
+          <t>OZAN</t>
         </is>
       </c>
     </row>
@@ -62648,7 +62640,7 @@
       </c>
       <c r="H841" t="inlineStr">
         <is>
-          <t>CALCULS</t>
+          <t>OZAN</t>
         </is>
       </c>
     </row>
@@ -62684,7 +62676,7 @@
       </c>
       <c r="H842" t="inlineStr">
         <is>
-          <t>CALCULS</t>
+          <t>OZAN</t>
         </is>
       </c>
     </row>
@@ -62720,7 +62712,7 @@
       </c>
       <c r="H843" t="inlineStr">
         <is>
-          <t>CALCULS</t>
+          <t>OZAN</t>
         </is>
       </c>
     </row>
@@ -62756,7 +62748,7 @@
       </c>
       <c r="H844" t="inlineStr">
         <is>
-          <t>CALCULS</t>
+          <t>OZAN</t>
         </is>
       </c>
     </row>
@@ -62792,7 +62784,7 @@
       </c>
       <c r="H845" t="inlineStr">
         <is>
-          <t>CALCULS</t>
+          <t>OZAN</t>
         </is>
       </c>
     </row>
@@ -62828,7 +62820,7 @@
       </c>
       <c r="H846" t="inlineStr">
         <is>
-          <t>CALCULS</t>
+          <t>OZAN</t>
         </is>
       </c>
     </row>
@@ -62864,7 +62856,7 @@
       </c>
       <c r="H847" t="inlineStr">
         <is>
-          <t>CALCULS</t>
+          <t>OZAN</t>
         </is>
       </c>
     </row>
@@ -62900,7 +62892,7 @@
       </c>
       <c r="H848" t="inlineStr">
         <is>
-          <t>CALCULS</t>
+          <t>OZAN</t>
         </is>
       </c>
     </row>
@@ -62936,7 +62928,7 @@
       </c>
       <c r="H849" t="inlineStr">
         <is>
-          <t>CALCULS</t>
+          <t>OZAN</t>
         </is>
       </c>
     </row>
@@ -62972,7 +62964,7 @@
       </c>
       <c r="H850" t="inlineStr">
         <is>
-          <t>CALCULS</t>
+          <t>OZAN</t>
         </is>
       </c>
     </row>
@@ -63008,7 +63000,7 @@
       </c>
       <c r="H851" t="inlineStr">
         <is>
-          <t>CALCULS</t>
+          <t>OZAN</t>
         </is>
       </c>
     </row>
@@ -63044,7 +63036,7 @@
       </c>
       <c r="H852" t="inlineStr">
         <is>
-          <t>CALCULS</t>
+          <t>OZAN</t>
         </is>
       </c>
     </row>
@@ -63080,7 +63072,7 @@
       </c>
       <c r="H853" t="inlineStr">
         <is>
-          <t>CALCULS</t>
+          <t>OZAN</t>
         </is>
       </c>
     </row>
@@ -63116,7 +63108,7 @@
       </c>
       <c r="H854" t="inlineStr">
         <is>
-          <t>CALCULS</t>
+          <t>OZAN</t>
         </is>
       </c>
     </row>

--- a/output/COMMUNE_MOUGINS_06085.xlsx
+++ b/output/COMMUNE_MOUGINS_06085.xlsx
@@ -7479,40 +7479,26 @@
         <v>70</v>
       </c>
       <c r="AEJ2" t="inlineStr"/>
-      <c r="AEK2" t="inlineStr">
-        <is>
-          <t>Error evaluating Calcul : Line 571 Key = michel_8b_surface_nette_N1 + expr : roundNumber(michel_7b_extension_N1 / michel_8a_densite_nette_N1,2)  if (michel_8a_densite_nette_N1!=0) : 0 - Error : invalid syntax (&lt;string&gt;, line 1)</t>
-        </is>
-      </c>
-      <c r="AEL2" t="inlineStr">
-        <is>
-          <t>Error evaluating Calcul : Line 572 Key = michel_8b_surface_nette_N2 + expr : roundNumber(michel_7b_extension_N2 / michel_8a_densite_nette_N2,2) if (michel_8a_densite_nette_N2!=0) : 0 - Error : invalid syntax (&lt;string&gt;, line 1)</t>
-        </is>
-      </c>
-      <c r="AEM2" t="inlineStr">
-        <is>
-          <t>Error evaluating Calcul : Line 573 Key = michel_8b_surface_nette_N3 + expr : roundNumber(michel_7b_extension_N3 / michel_8a_densite_nette_N3,2) if (michel_8a_densite_nette_N3!=0) : 0 - Error : invalid syntax (&lt;string&gt;, line 1)</t>
-        </is>
-      </c>
-      <c r="AEN2" t="inlineStr">
-        <is>
-          <t>Error evaluating Calcul : Line 574 Key = michel_8b_surface_nette_N4 + expr : roundNumber(michel_7b_extension_N4 / michel_8a_densite_nette_N4,2) if (michel_8a_densite_nette_N4!=0) : 0 - Error : invalid syntax (&lt;string&gt;, line 1)</t>
-        </is>
-      </c>
-      <c r="AEO2" t="inlineStr">
-        <is>
-          <t>Error evaluating Calcul : Line 575 Key = michel_8b_surface_nette_N5 + expr : roundNumber(michel_7b_extension_N5 / michel_8a_densite_nette_N5,2) if (michel_8a_densite_nette_N5!=0) : 0 - Error : invalid syntax (&lt;string&gt;, line 1)</t>
-        </is>
-      </c>
-      <c r="AEP2" t="inlineStr">
-        <is>
-          <t>Error evaluating Calcul : Line 576 Key = michel_8b_surface_nette_N6 + expr : roundNumber(michel_7b_extension_N6 / michel_8a_densite_nette_N6,2) if (michel_8a_densite_nette_N6!=0) : 0 - Error : invalid syntax (&lt;string&gt;, line 1)</t>
-        </is>
-      </c>
-      <c r="AEQ2" t="inlineStr">
-        <is>
-          <t>Error evaluating Calcul : Line 577 Key = michel_8b_surface_nette_Total + expr : roundNumber(michel_8b_surface_nette_N6 + michel_8b_surface_nette_N5 + michel_8b_surface_nette_N4 + michel_8b_surface_nette_N3 + michel_8b_surface_nette_N2 + michel_8b_surface_nette_N1,2) - Error : type str doesn't define __round__ method</t>
-        </is>
+      <c r="AEK2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AEL2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AEM2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AEN2" t="n">
+        <v>14</v>
+      </c>
+      <c r="AEO2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AEP2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AEQ2" t="n">
+        <v>42</v>
       </c>
       <c r="AER2" t="n">
         <v>5</v>
@@ -7535,75 +7521,47 @@
       <c r="AEX2" t="n">
         <v>0</v>
       </c>
-      <c r="AEY2" t="inlineStr">
-        <is>
-          <t>Error evaluating Calcul : Line 585 Key = michel_8c2_surface_equipements_N1 + expr : roundNumber(michel_8b_surface_nette_N1 * michel_8c_surface_equipements_N1 / 100,2) - Error : can't multiply sequence by non-int of type 'numpy.float64'</t>
-        </is>
-      </c>
-      <c r="AEZ2" t="inlineStr">
-        <is>
-          <t>Error evaluating Calcul : Line 586 Key = michel_8c2_surface_equipements_N2 + expr : roundNumber(michel_8b_surface_nette_N2 * michel_8c_surface_equipements_N2 / 100,2) - Error : can't multiply sequence by non-int of type 'numpy.float64'</t>
-        </is>
-      </c>
-      <c r="AFA2" t="inlineStr">
-        <is>
-          <t>Error evaluating Calcul : Line 587 Key = michel_8c2_surface_equipements_N3 + expr : roundNumber(michel_8b_surface_nette_N3 * michel_8c_surface_equipements_N3 / 100,2) - Error : can't multiply sequence by non-int of type 'numpy.float64'</t>
-        </is>
-      </c>
-      <c r="AFB2" t="inlineStr">
-        <is>
-          <t>Error evaluating Calcul : Line 588 Key = michel_8c2_surface_equipements_N4 + expr : roundNumber(michel_8b_surface_nette_N4 * michel_8c_surface_equipements_N4 / 100,2) - Error : can't multiply sequence by non-int of type 'numpy.float64'</t>
-        </is>
-      </c>
-      <c r="AFC2" t="inlineStr">
-        <is>
-          <t>Error evaluating Calcul : Line 589 Key = michel_8c2_surface_equipements_N5 + expr : roundNumber(michel_8b_surface_nette_N5 * michel_8c_surface_equipements_N5 / 100,2) - Error : can't multiply sequence by non-int of type 'numpy.float64'</t>
-        </is>
-      </c>
-      <c r="AFD2" t="inlineStr">
-        <is>
-          <t>Error evaluating Calcul : Line 590 Key = michel_8c2_surface_equipements_N6 + expr : roundNumber(michel_8b_surface_nette_N6 * michel_8c_surface_equipements_N6 / 100,2) - Error : can't multiply sequence by non-int of type 'numpy.float64'</t>
-        </is>
-      </c>
-      <c r="AFE2" t="inlineStr">
-        <is>
-          <t>Error evaluating Calcul : Line 591 Key = michel_8c2_surface_equipements_Total + expr : roundNumber(michel_8c2_surface_equipements_N6 + michel_8c2_surface_equipements_N5 + michel_8c2_surface_equipements_N4 + michel_8c2_surface_equipements_N3 + michel_8c2_surface_equipements_N2 + michel_8c2_surface_equipements_N1,2) - Error : type str doesn't define __round__ method</t>
-        </is>
-      </c>
-      <c r="AFF2" t="inlineStr">
-        <is>
-          <t>Error evaluating Calcul : Line 592 Key = michel_8d_hectares_necessaires_N1 + expr : roundNumber(michel_8b_surface_nette_N1 * ( 1 + michel_8c_surface_equipements_N1 / 100),2) - Error : can't multiply sequence by non-int of type 'numpy.float64'</t>
-        </is>
-      </c>
-      <c r="AFG2" t="inlineStr">
-        <is>
-          <t>Error evaluating Calcul : Line 593 Key = michel_8d_hectares_necessaires_N2 + expr : roundNumber(michel_8b_surface_nette_N2 * ( 1 + michel_8c_surface_equipements_N2/ 100),2) - Error : can't multiply sequence by non-int of type 'numpy.float64'</t>
-        </is>
-      </c>
-      <c r="AFH2" t="inlineStr">
-        <is>
-          <t>Error evaluating Calcul : Line 594 Key = michel_8d_hectares_necessaires_N3 + expr : roundNumber(michel_8b_surface_nette_N3 * ( 1 + michel_8c_surface_equipements_N3/ 100),2) - Error : can't multiply sequence by non-int of type 'numpy.float64'</t>
-        </is>
-      </c>
-      <c r="AFI2" t="inlineStr">
-        <is>
-          <t>Error evaluating Calcul : Line 595 Key = michel_8d_hectares_necessaires_N4 + expr : roundNumber(michel_8b_surface_nette_N4 * ( 1 + michel_8c_surface_equipements_N4/ 100),2) - Error : can't multiply sequence by non-int of type 'numpy.float64'</t>
-        </is>
-      </c>
-      <c r="AFJ2" t="inlineStr">
-        <is>
-          <t>Error evaluating Calcul : Line 596 Key = michel_8d_hectares_necessaires_N5 + expr : roundNumber(michel_8b_surface_nette_N5 * ( 1 + michel_8c_surface_equipements_N5/ 100),2) - Error : can't multiply sequence by non-int of type 'numpy.float64'</t>
-        </is>
-      </c>
-      <c r="AFK2" t="inlineStr">
-        <is>
-          <t>Error evaluating Calcul : Line 597 Key = michel_8d_hectares_necessaires_N6 + expr : roundNumber(michel_8b_surface_nette_N6 * ( 1 + michel_8c_surface_equipements_N6/ 100),2) - Error : can't multiply sequence by non-int of type 'numpy.float64'</t>
-        </is>
-      </c>
-      <c r="AFL2" t="inlineStr">
-        <is>
-          <t>Error evaluating Calcul : Line 598 Key = michel_8d_hectares_necessaires_Total + expr : roundNumber(michel_8d_hectares_necessaires_N6 + michel_8d_hectares_necessaires_N5 + michel_8d_hectares_necessaires_N4 + michel_8d_hectares_necessaires_N3 + michel_8d_hectares_necessaires_N2 + michel_8d_hectares_necessaires_N1,2) - Error : type str doesn't define __round__ method</t>
-        </is>
+      <c r="AEY2" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="AEZ2" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AFA2" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AFB2" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AFC2" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AFD2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AFE2" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AFF2" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="AFG2" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AFH2" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AFI2" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="AFJ2" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AFK2" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AFL2" t="n">
+        <v>44.65</v>
       </c>
       <c r="AFM2" t="n">
         <v>43</v>
@@ -7611,39 +7569,35 @@
       <c r="AFN2" t="n">
         <v>4.3</v>
       </c>
-      <c r="AFO2" t="inlineStr">
-        <is>
-          <t>Error evaluating Calcul : Line 602 Key = michel_8c_consomation_prevue_annuelle + expr : roundNumber (michel_8d_hectares_necessaires_Total / michel_duree,2) if (michel_duree!=0) : 0 - Error : invalid syntax (&lt;string&gt;, line 1)</t>
-        </is>
-      </c>
-      <c r="AFP2" t="inlineStr">
-        <is>
-          <t>Error evaluating Calcul : Line 603 Key = michel_8d_niveau_sobriete + expr : roundNumber((michel_8c_consomation_prevue_annuelle / michel_8b_consomation_cerema_annuelle) * 100,0) if (michel_8b_consomation_cerema_annuelle!=0) : 0 - Error : invalid syntax (&lt;string&gt;, line 1)</t>
-        </is>
+      <c r="AFO2" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="AFP2" t="n">
+        <v>115</v>
       </c>
       <c r="AFQ2" t="inlineStr">
         <is>
-          <t>Error evaluating Calcul : Line 604 Key = michel_8e_message_sobriete0 + expr : "Territoire de reconquete"  if  (michel_8d_niveau_sobriete &lt; 0 ) else "Consommation Exemplaire" - Error : '&lt;' not supported between instances of 'str' and 'int'</t>
+          <t>Consommation Exemplaire</t>
         </is>
       </c>
       <c r="AFR2" t="inlineStr">
         <is>
-          <t>Error evaluating Calcul : Line 605 Key = michel_8e_message_sobriete1 + expr : "Objectif ZAN atteint"  if  (michel_8d_niveau_sobriete &gt; 25 ) else michel_8e_message_sobriete0 - Error : '&gt;' not supported between instances of 'str' and 'int'</t>
+          <t>Objectif ZAN atteint</t>
         </is>
       </c>
       <c r="AFS2" t="inlineStr">
         <is>
-          <t>Error evaluating Calcul : Line 606 Key = michel_8e_message_sobriete2 + expr : "Consommation Excessive"  if  (michel_8d_niveau_sobriete &gt;= 51 ) else michel_8e_message_sobriete1 - Error : '&gt;=' not supported between instances of 'str' and 'int'</t>
+          <t>Consommation Excessive</t>
         </is>
       </c>
       <c r="AFT2" t="inlineStr">
         <is>
-          <t>Error evaluating Calcul : Line 607 Key = michel_8e_message_sobriete3 + expr : "Consommation Abusive"  if  (michel_8d_niveau_sobriete &gt;= 100 ) else michel_8e_message_sobriete3 - Error : '&gt;=' not supported between instances of 'str' and 'int'</t>
+          <t>Consommation Abusive</t>
         </is>
       </c>
       <c r="AFU2" t="inlineStr">
         <is>
-          <t>Error evaluating Calcul : Line 607 Key = michel_8e_message_sobriete3 + expr : "Consommation Abusive"  if  (michel_8d_niveau_sobriete &gt;= 100 ) else michel_8e_message_sobriete3 - Error : '&gt;=' not supported between instances of 'str' and 'int'</t>
+          <t>Consommation Abusive</t>
         </is>
       </c>
       <c r="AFV2" t="inlineStr"/>
@@ -17683,37 +17637,37 @@
       </c>
       <c r="AEK5" t="inlineStr">
         <is>
-          <t>roundNumber(michel_7b_extension_N1 / michel_8a_densite_nette_N1,2)  if (michel_8a_densite_nette_N1!=0) : 0</t>
+          <t>$JS:(michel_8a_densite_nette_N1==0) ? 0 : roundNumber(michel_7b_extension_N1 / michel_8a_densite_nette_N1,2)</t>
         </is>
       </c>
       <c r="AEL5" t="inlineStr">
         <is>
-          <t>roundNumber(michel_7b_extension_N2 / michel_8a_densite_nette_N2,2) if (michel_8a_densite_nette_N2!=0) : 0</t>
+          <t>$JS:(michel_8a_densite_nette_N2==0) ? 0 :roundNumber(michel_7b_extension_N2 / michel_8a_densite_nette_N2,2)</t>
         </is>
       </c>
       <c r="AEM5" t="inlineStr">
         <is>
-          <t>roundNumber(michel_7b_extension_N3 / michel_8a_densite_nette_N3,2) if (michel_8a_densite_nette_N3!=0) : 0</t>
+          <t>$JS:(michel_8a_densite_nette_N3==0) ? 0 :roundNumber(michel_7b_extension_N3 / michel_8a_densite_nette_N3,2)</t>
         </is>
       </c>
       <c r="AEN5" t="inlineStr">
         <is>
-          <t>roundNumber(michel_7b_extension_N4 / michel_8a_densite_nette_N4,2) if (michel_8a_densite_nette_N4!=0) : 0</t>
+          <t>$JS:(michel_8a_densite_nette_N4==0) ? 0 :roundNumber(michel_7b_extension_N4 / michel_8a_densite_nette_N4,2)</t>
         </is>
       </c>
       <c r="AEO5" t="inlineStr">
         <is>
-          <t>roundNumber(michel_7b_extension_N5 / michel_8a_densite_nette_N5,2) if (michel_8a_densite_nette_N5!=0) : 0</t>
+          <t>$JS:(michel_8a_densite_nette_N5==0) ? 0 :roundNumber(michel_7b_extension_N5 / michel_8a_densite_nette_N5,2)</t>
         </is>
       </c>
       <c r="AEP5" t="inlineStr">
         <is>
-          <t>roundNumber(michel_7b_extension_N6 / michel_8a_densite_nette_N6,2) if (michel_8a_densite_nette_N6!=0) : 0</t>
+          <t>$JS:(michel_8a_densite_nette_N6==0) ? 0 :roundNumber(michel_7b_extension_N6 / michel_8a_densite_nette_N6,2)</t>
         </is>
       </c>
       <c r="AEQ5" t="inlineStr">
         <is>
-          <t>roundNumber(michel_8b_surface_nette_N6 + michel_8b_surface_nette_N5 + michel_8b_surface_nette_N4 + michel_8b_surface_nette_N3 + michel_8b_surface_nette_N2 + michel_8b_surface_nette_N1,2)</t>
+          <t>$JS:roundNumber(michel_8b_surface_nette_N6 + michel_8b_surface_nette_N5 + michel_8b_surface_nette_N4 + michel_8b_surface_nette_N3 + michel_8b_surface_nette_N2 + michel_8b_surface_nette_N1,2)</t>
         </is>
       </c>
       <c r="AER5" t="inlineStr">
@@ -17753,72 +17707,72 @@
       </c>
       <c r="AEY5" t="inlineStr">
         <is>
-          <t>roundNumber(michel_8b_surface_nette_N1 * michel_8c_surface_equipements_N1 / 100,2)</t>
+          <t>$JS:roundNumber(michel_8b_surface_nette_N1 * michel_8c_surface_equipements_N1 / 100,2)</t>
         </is>
       </c>
       <c r="AEZ5" t="inlineStr">
         <is>
-          <t>roundNumber(michel_8b_surface_nette_N2 * michel_8c_surface_equipements_N2 / 100,2)</t>
+          <t>$JS:roundNumber(michel_8b_surface_nette_N2 * michel_8c_surface_equipements_N2 / 100,2)</t>
         </is>
       </c>
       <c r="AFA5" t="inlineStr">
         <is>
-          <t>roundNumber(michel_8b_surface_nette_N3 * michel_8c_surface_equipements_N3 / 100,2)</t>
+          <t>$JS:roundNumber(michel_8b_surface_nette_N3 * michel_8c_surface_equipements_N3 / 100,2)</t>
         </is>
       </c>
       <c r="AFB5" t="inlineStr">
         <is>
-          <t>roundNumber(michel_8b_surface_nette_N4 * michel_8c_surface_equipements_N4 / 100,2)</t>
+          <t>$JS:roundNumber(michel_8b_surface_nette_N4 * michel_8c_surface_equipements_N4 / 100,2)</t>
         </is>
       </c>
       <c r="AFC5" t="inlineStr">
         <is>
-          <t>roundNumber(michel_8b_surface_nette_N5 * michel_8c_surface_equipements_N5 / 100,2)</t>
+          <t>$JS:roundNumber(michel_8b_surface_nette_N5 * michel_8c_surface_equipements_N5 / 100,2)</t>
         </is>
       </c>
       <c r="AFD5" t="inlineStr">
         <is>
-          <t>roundNumber(michel_8b_surface_nette_N6 * michel_8c_surface_equipements_N6 / 100,2)</t>
+          <t>$JS:roundNumber(michel_8b_surface_nette_N6 * michel_8c_surface_equipements_N6 / 100,2)</t>
         </is>
       </c>
       <c r="AFE5" t="inlineStr">
         <is>
-          <t>roundNumber(michel_8c2_surface_equipements_N6 + michel_8c2_surface_equipements_N5 + michel_8c2_surface_equipements_N4 + michel_8c2_surface_equipements_N3 + michel_8c2_surface_equipements_N2 + michel_8c2_surface_equipements_N1,2)</t>
+          <t>$JS:roundNumber(michel_8c2_surface_equipements_N6 + michel_8c2_surface_equipements_N5 + michel_8c2_surface_equipements_N4 + michel_8c2_surface_equipements_N3 + michel_8c2_surface_equipements_N2 + michel_8c2_surface_equipements_N1,2)</t>
         </is>
       </c>
       <c r="AFF5" t="inlineStr">
         <is>
-          <t>roundNumber(michel_8b_surface_nette_N1 * ( 1 + michel_8c_surface_equipements_N1 / 100),2)</t>
+          <t>$JS:roundNumber(michel_8b_surface_nette_N1 * ( 1 + michel_8c_surface_equipements_N1 / 100),2)</t>
         </is>
       </c>
       <c r="AFG5" t="inlineStr">
         <is>
-          <t>roundNumber(michel_8b_surface_nette_N2 * ( 1 + michel_8c_surface_equipements_N2/ 100),2)</t>
+          <t>$JS:roundNumber(michel_8b_surface_nette_N2 * ( 1 + michel_8c_surface_equipements_N2/ 100),2)</t>
         </is>
       </c>
       <c r="AFH5" t="inlineStr">
         <is>
-          <t>roundNumber(michel_8b_surface_nette_N3 * ( 1 + michel_8c_surface_equipements_N3/ 100),2)</t>
+          <t>$JS:roundNumber(michel_8b_surface_nette_N3 * ( 1 + michel_8c_surface_equipements_N3/ 100),2)</t>
         </is>
       </c>
       <c r="AFI5" t="inlineStr">
         <is>
-          <t>roundNumber(michel_8b_surface_nette_N4 * ( 1 + michel_8c_surface_equipements_N4/ 100),2)</t>
+          <t>$JS:roundNumber(michel_8b_surface_nette_N4 * ( 1 + michel_8c_surface_equipements_N4/ 100),2)</t>
         </is>
       </c>
       <c r="AFJ5" t="inlineStr">
         <is>
-          <t>roundNumber(michel_8b_surface_nette_N5 * ( 1 + michel_8c_surface_equipements_N5/ 100),2)</t>
+          <t>$JS:roundNumber(michel_8b_surface_nette_N5 * ( 1 + michel_8c_surface_equipements_N5/ 100),2)</t>
         </is>
       </c>
       <c r="AFK5" t="inlineStr">
         <is>
-          <t>roundNumber(michel_8b_surface_nette_N6 * ( 1 + michel_8c_surface_equipements_N6/ 100),2)</t>
+          <t>$JS:roundNumber(michel_8b_surface_nette_N6 * ( 1 + michel_8c_surface_equipements_N6/ 100),2)</t>
         </is>
       </c>
       <c r="AFL5" t="inlineStr">
         <is>
-          <t>roundNumber(michel_8d_hectares_necessaires_N6 + michel_8d_hectares_necessaires_N5 + michel_8d_hectares_necessaires_N4 + michel_8d_hectares_necessaires_N3 + michel_8d_hectares_necessaires_N2 + michel_8d_hectares_necessaires_N1,2)</t>
+          <t>$JS:roundNumber(michel_8d_hectares_necessaires_N6 + michel_8d_hectares_necessaires_N5 + michel_8d_hectares_necessaires_N4 + michel_8d_hectares_necessaires_N3 + michel_8d_hectares_necessaires_N2 + michel_8d_hectares_necessaires_N1,2)</t>
         </is>
       </c>
       <c r="AFM5" t="inlineStr">
@@ -17833,32 +17787,32 @@
       </c>
       <c r="AFO5" t="inlineStr">
         <is>
-          <t>roundNumber (michel_8d_hectares_necessaires_Total / michel_duree,2) if (michel_duree!=0) : 0</t>
+          <t xml:space="preserve">$JS:(michel_duree==0) : 0 ? roundNumber (michel_8d_hectares_necessaires_Total / michel_duree,2) </t>
         </is>
       </c>
       <c r="AFP5" t="inlineStr">
         <is>
-          <t>roundNumber((michel_8c_consomation_prevue_annuelle / michel_8b_consomation_cerema_annuelle) * 100,0) if (michel_8b_consomation_cerema_annuelle!=0) : 0</t>
+          <t>$JS:(michel_8b_consomation_cerema_annuelle==0) ? 0  : roundNumber((michel_8c_consomation_prevue_annuelle / michel_8b_consomation_cerema_annuelle) * 100,0)</t>
         </is>
       </c>
       <c r="AFQ5" t="inlineStr">
         <is>
-          <t>"Territoire de reconquete"  if  (michel_8d_niveau_sobriete &lt; 0 ) else "Consommation Exemplaire"</t>
+          <t>$JS: (michel_8d_niveau_sobriete &lt; 0 ) ?  "Territoire de reconquete" :  "Consommation Exemplaire"</t>
         </is>
       </c>
       <c r="AFR5" t="inlineStr">
         <is>
-          <t>"Objectif ZAN atteint"  if  (michel_8d_niveau_sobriete &gt; 25 ) else michel_8e_message_sobriete0</t>
+          <t>$JS: (michel_8d_niveau_sobriete &gt;= 25 ) ?  "Objectif ZAN atteint" :  michel_8e_message_sobriete0</t>
         </is>
       </c>
       <c r="AFS5" t="inlineStr">
         <is>
-          <t>"Consommation Excessive"  if  (michel_8d_niveau_sobriete &gt;= 51 ) else michel_8e_message_sobriete1</t>
+          <t>$JS: (michel_8d_niveau_sobriete &gt;= 51 ) ?  "Consommation Excessive" :  michel_8e_message_sobriete1</t>
         </is>
       </c>
       <c r="AFT5" t="inlineStr">
         <is>
-          <t>"Consommation Abusive"  if  (michel_8d_niveau_sobriete &gt;= 100 ) else michel_8e_message_sobriete3</t>
+          <t>$JS: (michel_8d_niveau_sobriete &gt;= 100 ) ?  "Consommation Abusive" :  michel_8e_message_sobriete2</t>
         </is>
       </c>
       <c r="AFU5" t="inlineStr">
@@ -21957,32 +21911,32 @@
       </c>
       <c r="AEK6" t="inlineStr">
         <is>
-          <t>roundNumber(michel_7b_extension_N1 / michel_8a_densite_nette_N1,2)  if (michel_8a_densite_nette_N1!=0) : 0</t>
+          <t>roundNumber(michel_7b_extension_N1 / michel_8a_densite_nette_N1,2)  if (michel_8a_densite_nette_N1!=0) else 0</t>
         </is>
       </c>
       <c r="AEL6" t="inlineStr">
         <is>
-          <t>roundNumber(michel_7b_extension_N2 / michel_8a_densite_nette_N2,2) if (michel_8a_densite_nette_N2!=0) : 0</t>
+          <t>roundNumber(michel_7b_extension_N2 / michel_8a_densite_nette_N2,2) if (michel_8a_densite_nette_N2!=0) else 0</t>
         </is>
       </c>
       <c r="AEM6" t="inlineStr">
         <is>
-          <t>roundNumber(michel_7b_extension_N3 / michel_8a_densite_nette_N3,2) if (michel_8a_densite_nette_N3!=0) : 0</t>
+          <t>roundNumber(michel_7b_extension_N3 / michel_8a_densite_nette_N3,2) if (michel_8a_densite_nette_N3!=0) else 0</t>
         </is>
       </c>
       <c r="AEN6" t="inlineStr">
         <is>
-          <t>roundNumber(michel_7b_extension_N4 / michel_8a_densite_nette_N4,2) if (michel_8a_densite_nette_N4!=0) : 0</t>
+          <t>roundNumber(michel_7b_extension_N4 / michel_8a_densite_nette_N4,2) if (michel_8a_densite_nette_N4!=0) else 0</t>
         </is>
       </c>
       <c r="AEO6" t="inlineStr">
         <is>
-          <t>roundNumber(michel_7b_extension_N5 / michel_8a_densite_nette_N5,2) if (michel_8a_densite_nette_N5!=0) : 0</t>
+          <t>roundNumber(michel_7b_extension_N5 / michel_8a_densite_nette_N5,2) if (michel_8a_densite_nette_N5!=0) else 0</t>
         </is>
       </c>
       <c r="AEP6" t="inlineStr">
         <is>
-          <t>roundNumber(michel_7b_extension_N6 / michel_8a_densite_nette_N6,2) if (michel_8a_densite_nette_N6!=0) : 0</t>
+          <t>roundNumber(michel_7b_extension_N6 / michel_8a_densite_nette_N6,2) if (michel_8a_densite_nette_N6!=0) else 0</t>
         </is>
       </c>
       <c r="AEQ6" t="inlineStr">
@@ -22107,12 +22061,12 @@
       </c>
       <c r="AFO6" t="inlineStr">
         <is>
-          <t>roundNumber (michel_8d_hectares_necessaires_Total / michel_duree,2) if (michel_duree!=0) : 0</t>
+          <t>roundNumber (michel_8d_hectares_necessaires_Total / michel_duree,2) if (michel_duree!=0) else 0</t>
         </is>
       </c>
       <c r="AFP6" t="inlineStr">
         <is>
-          <t>roundNumber((michel_8c_consomation_prevue_annuelle / michel_8b_consomation_cerema_annuelle) * 100,0) if (michel_8b_consomation_cerema_annuelle!=0) : 0</t>
+          <t>roundNumber((michel_8c_consomation_prevue_annuelle / michel_8b_consomation_cerema_annuelle) * 100,0) if (michel_8b_consomation_cerema_annuelle!=0) else 0</t>
         </is>
       </c>
       <c r="AFQ6" t="inlineStr">
@@ -61172,10 +61126,8 @@
           <t>michel_8b_surface_nette_N1</t>
         </is>
       </c>
-      <c r="B817" t="inlineStr">
-        <is>
-          <t>Error evaluating Calcul : Line 571 Key = michel_8b_surface_nette_N1 + expr : roundNumber(michel_7b_extension_N1 / michel_8a_densite_nette_N1,2)  if (michel_8a_densite_nette_N1!=0) : 0 - Error : invalid syntax (&lt;string&gt;, line 1)</t>
-        </is>
+      <c r="B817" t="n">
+        <v>7</v>
       </c>
       <c r="C817" t="inlineStr">
         <is>
@@ -61185,12 +61137,12 @@
       <c r="D817" t="inlineStr"/>
       <c r="E817" t="inlineStr">
         <is>
-          <t>roundNumber(michel_7b_extension_N1 / michel_8a_densite_nette_N1,2)  if (michel_8a_densite_nette_N1!=0) : 0</t>
+          <t>$JS:(michel_8a_densite_nette_N1==0) ? 0 : roundNumber(michel_7b_extension_N1 / michel_8a_densite_nette_N1,2)</t>
         </is>
       </c>
       <c r="F817" t="inlineStr">
         <is>
-          <t>roundNumber(michel_7b_extension_N1 / michel_8a_densite_nette_N1,2)  if (michel_8a_densite_nette_N1!=0) : 0</t>
+          <t>roundNumber(michel_7b_extension_N1 / michel_8a_densite_nette_N1,2)  if (michel_8a_densite_nette_N1!=0) else 0</t>
         </is>
       </c>
       <c r="G817" t="inlineStr">
@@ -61210,10 +61162,8 @@
           <t>michel_8b_surface_nette_N2</t>
         </is>
       </c>
-      <c r="B818" t="inlineStr">
-        <is>
-          <t>Error evaluating Calcul : Line 572 Key = michel_8b_surface_nette_N2 + expr : roundNumber(michel_7b_extension_N2 / michel_8a_densite_nette_N2,2) if (michel_8a_densite_nette_N2!=0) : 0 - Error : invalid syntax (&lt;string&gt;, line 1)</t>
-        </is>
+      <c r="B818" t="n">
+        <v>5</v>
       </c>
       <c r="C818" t="inlineStr">
         <is>
@@ -61223,12 +61173,12 @@
       <c r="D818" t="inlineStr"/>
       <c r="E818" t="inlineStr">
         <is>
-          <t>roundNumber(michel_7b_extension_N2 / michel_8a_densite_nette_N2,2) if (michel_8a_densite_nette_N2!=0) : 0</t>
+          <t>$JS:(michel_8a_densite_nette_N2==0) ? 0 :roundNumber(michel_7b_extension_N2 / michel_8a_densite_nette_N2,2)</t>
         </is>
       </c>
       <c r="F818" t="inlineStr">
         <is>
-          <t>roundNumber(michel_7b_extension_N2 / michel_8a_densite_nette_N2,2) if (michel_8a_densite_nette_N2!=0) : 0</t>
+          <t>roundNumber(michel_7b_extension_N2 / michel_8a_densite_nette_N2,2) if (michel_8a_densite_nette_N2!=0) else 0</t>
         </is>
       </c>
       <c r="G818" t="inlineStr">
@@ -61248,10 +61198,8 @@
           <t>michel_8b_surface_nette_N3</t>
         </is>
       </c>
-      <c r="B819" t="inlineStr">
-        <is>
-          <t>Error evaluating Calcul : Line 573 Key = michel_8b_surface_nette_N3 + expr : roundNumber(michel_7b_extension_N3 / michel_8a_densite_nette_N3,2) if (michel_8a_densite_nette_N3!=0) : 0 - Error : invalid syntax (&lt;string&gt;, line 1)</t>
-        </is>
+      <c r="B819" t="n">
+        <v>5</v>
       </c>
       <c r="C819" t="inlineStr">
         <is>
@@ -61261,12 +61209,12 @@
       <c r="D819" t="inlineStr"/>
       <c r="E819" t="inlineStr">
         <is>
-          <t>roundNumber(michel_7b_extension_N3 / michel_8a_densite_nette_N3,2) if (michel_8a_densite_nette_N3!=0) : 0</t>
+          <t>$JS:(michel_8a_densite_nette_N3==0) ? 0 :roundNumber(michel_7b_extension_N3 / michel_8a_densite_nette_N3,2)</t>
         </is>
       </c>
       <c r="F819" t="inlineStr">
         <is>
-          <t>roundNumber(michel_7b_extension_N3 / michel_8a_densite_nette_N3,2) if (michel_8a_densite_nette_N3!=0) : 0</t>
+          <t>roundNumber(michel_7b_extension_N3 / michel_8a_densite_nette_N3,2) if (michel_8a_densite_nette_N3!=0) else 0</t>
         </is>
       </c>
       <c r="G819" t="inlineStr">
@@ -61286,10 +61234,8 @@
           <t>michel_8b_surface_nette_N4</t>
         </is>
       </c>
-      <c r="B820" t="inlineStr">
-        <is>
-          <t>Error evaluating Calcul : Line 574 Key = michel_8b_surface_nette_N4 + expr : roundNumber(michel_7b_extension_N4 / michel_8a_densite_nette_N4,2) if (michel_8a_densite_nette_N4!=0) : 0 - Error : invalid syntax (&lt;string&gt;, line 1)</t>
-        </is>
+      <c r="B820" t="n">
+        <v>14</v>
       </c>
       <c r="C820" t="inlineStr">
         <is>
@@ -61299,12 +61245,12 @@
       <c r="D820" t="inlineStr"/>
       <c r="E820" t="inlineStr">
         <is>
-          <t>roundNumber(michel_7b_extension_N4 / michel_8a_densite_nette_N4,2) if (michel_8a_densite_nette_N4!=0) : 0</t>
+          <t>$JS:(michel_8a_densite_nette_N4==0) ? 0 :roundNumber(michel_7b_extension_N4 / michel_8a_densite_nette_N4,2)</t>
         </is>
       </c>
       <c r="F820" t="inlineStr">
         <is>
-          <t>roundNumber(michel_7b_extension_N4 / michel_8a_densite_nette_N4,2) if (michel_8a_densite_nette_N4!=0) : 0</t>
+          <t>roundNumber(michel_7b_extension_N4 / michel_8a_densite_nette_N4,2) if (michel_8a_densite_nette_N4!=0) else 0</t>
         </is>
       </c>
       <c r="G820" t="inlineStr">
@@ -61324,10 +61270,8 @@
           <t>michel_8b_surface_nette_N5</t>
         </is>
       </c>
-      <c r="B821" t="inlineStr">
-        <is>
-          <t>Error evaluating Calcul : Line 575 Key = michel_8b_surface_nette_N5 + expr : roundNumber(michel_7b_extension_N5 / michel_8a_densite_nette_N5,2) if (michel_8a_densite_nette_N5!=0) : 0 - Error : invalid syntax (&lt;string&gt;, line 1)</t>
-        </is>
+      <c r="B821" t="n">
+        <v>7</v>
       </c>
       <c r="C821" t="inlineStr">
         <is>
@@ -61337,12 +61281,12 @@
       <c r="D821" t="inlineStr"/>
       <c r="E821" t="inlineStr">
         <is>
-          <t>roundNumber(michel_7b_extension_N5 / michel_8a_densite_nette_N5,2) if (michel_8a_densite_nette_N5!=0) : 0</t>
+          <t>$JS:(michel_8a_densite_nette_N5==0) ? 0 :roundNumber(michel_7b_extension_N5 / michel_8a_densite_nette_N5,2)</t>
         </is>
       </c>
       <c r="F821" t="inlineStr">
         <is>
-          <t>roundNumber(michel_7b_extension_N5 / michel_8a_densite_nette_N5,2) if (michel_8a_densite_nette_N5!=0) : 0</t>
+          <t>roundNumber(michel_7b_extension_N5 / michel_8a_densite_nette_N5,2) if (michel_8a_densite_nette_N5!=0) else 0</t>
         </is>
       </c>
       <c r="G821" t="inlineStr">
@@ -61362,10 +61306,8 @@
           <t>michel_8b_surface_nette_N6</t>
         </is>
       </c>
-      <c r="B822" t="inlineStr">
-        <is>
-          <t>Error evaluating Calcul : Line 576 Key = michel_8b_surface_nette_N6 + expr : roundNumber(michel_7b_extension_N6 / michel_8a_densite_nette_N6,2) if (michel_8a_densite_nette_N6!=0) : 0 - Error : invalid syntax (&lt;string&gt;, line 1)</t>
-        </is>
+      <c r="B822" t="n">
+        <v>4</v>
       </c>
       <c r="C822" t="inlineStr">
         <is>
@@ -61375,12 +61317,12 @@
       <c r="D822" t="inlineStr"/>
       <c r="E822" t="inlineStr">
         <is>
-          <t>roundNumber(michel_7b_extension_N6 / michel_8a_densite_nette_N6,2) if (michel_8a_densite_nette_N6!=0) : 0</t>
+          <t>$JS:(michel_8a_densite_nette_N6==0) ? 0 :roundNumber(michel_7b_extension_N6 / michel_8a_densite_nette_N6,2)</t>
         </is>
       </c>
       <c r="F822" t="inlineStr">
         <is>
-          <t>roundNumber(michel_7b_extension_N6 / michel_8a_densite_nette_N6,2) if (michel_8a_densite_nette_N6!=0) : 0</t>
+          <t>roundNumber(michel_7b_extension_N6 / michel_8a_densite_nette_N6,2) if (michel_8a_densite_nette_N6!=0) else 0</t>
         </is>
       </c>
       <c r="G822" t="inlineStr">
@@ -61400,10 +61342,8 @@
           <t>michel_8b_surface_nette_Total</t>
         </is>
       </c>
-      <c r="B823" t="inlineStr">
-        <is>
-          <t>Error evaluating Calcul : Line 577 Key = michel_8b_surface_nette_Total + expr : roundNumber(michel_8b_surface_nette_N6 + michel_8b_surface_nette_N5 + michel_8b_surface_nette_N4 + michel_8b_surface_nette_N3 + michel_8b_surface_nette_N2 + michel_8b_surface_nette_N1,2) - Error : type str doesn't define __round__ method</t>
-        </is>
+      <c r="B823" t="n">
+        <v>42</v>
       </c>
       <c r="C823" t="inlineStr">
         <is>
@@ -61413,7 +61353,7 @@
       <c r="D823" t="inlineStr"/>
       <c r="E823" t="inlineStr">
         <is>
-          <t>roundNumber(michel_8b_surface_nette_N6 + michel_8b_surface_nette_N5 + michel_8b_surface_nette_N4 + michel_8b_surface_nette_N3 + michel_8b_surface_nette_N2 + michel_8b_surface_nette_N1,2)</t>
+          <t>$JS:roundNumber(michel_8b_surface_nette_N6 + michel_8b_surface_nette_N5 + michel_8b_surface_nette_N4 + michel_8b_surface_nette_N3 + michel_8b_surface_nette_N2 + michel_8b_surface_nette_N1,2)</t>
         </is>
       </c>
       <c r="F823" t="inlineStr">
@@ -61690,10 +61630,8 @@
           <t>michel_8c2_surface_equipements_N1</t>
         </is>
       </c>
-      <c r="B831" t="inlineStr">
-        <is>
-          <t>Error evaluating Calcul : Line 585 Key = michel_8c2_surface_equipements_N1 + expr : roundNumber(michel_8b_surface_nette_N1 * michel_8c_surface_equipements_N1 / 100,2) - Error : can't multiply sequence by non-int of type 'numpy.float64'</t>
-        </is>
+      <c r="B831" t="n">
+        <v>0.35</v>
       </c>
       <c r="C831" t="inlineStr">
         <is>
@@ -61703,7 +61641,7 @@
       <c r="D831" t="inlineStr"/>
       <c r="E831" t="inlineStr">
         <is>
-          <t>roundNumber(michel_8b_surface_nette_N1 * michel_8c_surface_equipements_N1 / 100,2)</t>
+          <t>$JS:roundNumber(michel_8b_surface_nette_N1 * michel_8c_surface_equipements_N1 / 100,2)</t>
         </is>
       </c>
       <c r="F831" t="inlineStr">
@@ -61728,10 +61666,8 @@
           <t>michel_8c2_surface_equipements_N2</t>
         </is>
       </c>
-      <c r="B832" t="inlineStr">
-        <is>
-          <t>Error evaluating Calcul : Line 586 Key = michel_8c2_surface_equipements_N2 + expr : roundNumber(michel_8b_surface_nette_N2 * michel_8c_surface_equipements_N2 / 100,2) - Error : can't multiply sequence by non-int of type 'numpy.float64'</t>
-        </is>
+      <c r="B832" t="n">
+        <v>0.25</v>
       </c>
       <c r="C832" t="inlineStr">
         <is>
@@ -61741,7 +61677,7 @@
       <c r="D832" t="inlineStr"/>
       <c r="E832" t="inlineStr">
         <is>
-          <t>roundNumber(michel_8b_surface_nette_N2 * michel_8c_surface_equipements_N2 / 100,2)</t>
+          <t>$JS:roundNumber(michel_8b_surface_nette_N2 * michel_8c_surface_equipements_N2 / 100,2)</t>
         </is>
       </c>
       <c r="F832" t="inlineStr">
@@ -61766,10 +61702,8 @@
           <t>michel_8c2_surface_equipements_N3</t>
         </is>
       </c>
-      <c r="B833" t="inlineStr">
-        <is>
-          <t>Error evaluating Calcul : Line 587 Key = michel_8c2_surface_equipements_N3 + expr : roundNumber(michel_8b_surface_nette_N3 * michel_8c_surface_equipements_N3 / 100,2) - Error : can't multiply sequence by non-int of type 'numpy.float64'</t>
-        </is>
+      <c r="B833" t="n">
+        <v>0.25</v>
       </c>
       <c r="C833" t="inlineStr">
         <is>
@@ -61779,7 +61713,7 @@
       <c r="D833" t="inlineStr"/>
       <c r="E833" t="inlineStr">
         <is>
-          <t>roundNumber(michel_8b_surface_nette_N3 * michel_8c_surface_equipements_N3 / 100,2)</t>
+          <t>$JS:roundNumber(michel_8b_surface_nette_N3 * michel_8c_surface_equipements_N3 / 100,2)</t>
         </is>
       </c>
       <c r="F833" t="inlineStr">
@@ -61804,10 +61738,8 @@
           <t>michel_8c2_surface_equipements_N4</t>
         </is>
       </c>
-      <c r="B834" t="inlineStr">
-        <is>
-          <t>Error evaluating Calcul : Line 588 Key = michel_8c2_surface_equipements_N4 + expr : roundNumber(michel_8b_surface_nette_N4 * michel_8c_surface_equipements_N4 / 100,2) - Error : can't multiply sequence by non-int of type 'numpy.float64'</t>
-        </is>
+      <c r="B834" t="n">
+        <v>0.7</v>
       </c>
       <c r="C834" t="inlineStr">
         <is>
@@ -61817,7 +61749,7 @@
       <c r="D834" t="inlineStr"/>
       <c r="E834" t="inlineStr">
         <is>
-          <t>roundNumber(michel_8b_surface_nette_N4 * michel_8c_surface_equipements_N4 / 100,2)</t>
+          <t>$JS:roundNumber(michel_8b_surface_nette_N4 * michel_8c_surface_equipements_N4 / 100,2)</t>
         </is>
       </c>
       <c r="F834" t="inlineStr">
@@ -61842,10 +61774,8 @@
           <t>michel_8c2_surface_equipements_N5</t>
         </is>
       </c>
-      <c r="B835" t="inlineStr">
-        <is>
-          <t>Error evaluating Calcul : Line 589 Key = michel_8c2_surface_equipements_N5 + expr : roundNumber(michel_8b_surface_nette_N5 * michel_8c_surface_equipements_N5 / 100,2) - Error : can't multiply sequence by non-int of type 'numpy.float64'</t>
-        </is>
+      <c r="B835" t="n">
+        <v>0.7</v>
       </c>
       <c r="C835" t="inlineStr">
         <is>
@@ -61855,7 +61785,7 @@
       <c r="D835" t="inlineStr"/>
       <c r="E835" t="inlineStr">
         <is>
-          <t>roundNumber(michel_8b_surface_nette_N5 * michel_8c_surface_equipements_N5 / 100,2)</t>
+          <t>$JS:roundNumber(michel_8b_surface_nette_N5 * michel_8c_surface_equipements_N5 / 100,2)</t>
         </is>
       </c>
       <c r="F835" t="inlineStr">
@@ -61880,10 +61810,8 @@
           <t>michel_8c2_surface_equipements_N6</t>
         </is>
       </c>
-      <c r="B836" t="inlineStr">
-        <is>
-          <t>Error evaluating Calcul : Line 590 Key = michel_8c2_surface_equipements_N6 + expr : roundNumber(michel_8b_surface_nette_N6 * michel_8c_surface_equipements_N6 / 100,2) - Error : can't multiply sequence by non-int of type 'numpy.float64'</t>
-        </is>
+      <c r="B836" t="n">
+        <v>0.4</v>
       </c>
       <c r="C836" t="inlineStr">
         <is>
@@ -61893,7 +61821,7 @@
       <c r="D836" t="inlineStr"/>
       <c r="E836" t="inlineStr">
         <is>
-          <t>roundNumber(michel_8b_surface_nette_N6 * michel_8c_surface_equipements_N6 / 100,2)</t>
+          <t>$JS:roundNumber(michel_8b_surface_nette_N6 * michel_8c_surface_equipements_N6 / 100,2)</t>
         </is>
       </c>
       <c r="F836" t="inlineStr">
@@ -61918,10 +61846,8 @@
           <t>michel_8c2_surface_equipements_Total</t>
         </is>
       </c>
-      <c r="B837" t="inlineStr">
-        <is>
-          <t>Error evaluating Calcul : Line 591 Key = michel_8c2_surface_equipements_Total + expr : roundNumber(michel_8c2_surface_equipements_N6 + michel_8c2_surface_equipements_N5 + michel_8c2_surface_equipements_N4 + michel_8c2_surface_equipements_N3 + michel_8c2_surface_equipements_N2 + michel_8c2_surface_equipements_N1,2) - Error : type str doesn't define __round__ method</t>
-        </is>
+      <c r="B837" t="n">
+        <v>2.65</v>
       </c>
       <c r="C837" t="inlineStr">
         <is>
@@ -61931,7 +61857,7 @@
       <c r="D837" t="inlineStr"/>
       <c r="E837" t="inlineStr">
         <is>
-          <t>roundNumber(michel_8c2_surface_equipements_N6 + michel_8c2_surface_equipements_N5 + michel_8c2_surface_equipements_N4 + michel_8c2_surface_equipements_N3 + michel_8c2_surface_equipements_N2 + michel_8c2_surface_equipements_N1,2)</t>
+          <t>$JS:roundNumber(michel_8c2_surface_equipements_N6 + michel_8c2_surface_equipements_N5 + michel_8c2_surface_equipements_N4 + michel_8c2_surface_equipements_N3 + michel_8c2_surface_equipements_N2 + michel_8c2_surface_equipements_N1,2)</t>
         </is>
       </c>
       <c r="F837" t="inlineStr">
@@ -61956,10 +61882,8 @@
           <t>michel_8d_hectares_necessaires_N1</t>
         </is>
       </c>
-      <c r="B838" t="inlineStr">
-        <is>
-          <t>Error evaluating Calcul : Line 592 Key = michel_8d_hectares_necessaires_N1 + expr : roundNumber(michel_8b_surface_nette_N1 * ( 1 + michel_8c_surface_equipements_N1 / 100),2) - Error : can't multiply sequence by non-int of type 'numpy.float64'</t>
-        </is>
+      <c r="B838" t="n">
+        <v>7.35</v>
       </c>
       <c r="C838" t="inlineStr">
         <is>
@@ -61969,7 +61893,7 @@
       <c r="D838" t="inlineStr"/>
       <c r="E838" t="inlineStr">
         <is>
-          <t>roundNumber(michel_8b_surface_nette_N1 * ( 1 + michel_8c_surface_equipements_N1 / 100),2)</t>
+          <t>$JS:roundNumber(michel_8b_surface_nette_N1 * ( 1 + michel_8c_surface_equipements_N1 / 100),2)</t>
         </is>
       </c>
       <c r="F838" t="inlineStr">
@@ -61994,10 +61918,8 @@
           <t>michel_8d_hectares_necessaires_N2</t>
         </is>
       </c>
-      <c r="B839" t="inlineStr">
-        <is>
-          <t>Error evaluating Calcul : Line 593 Key = michel_8d_hectares_necessaires_N2 + expr : roundNumber(michel_8b_surface_nette_N2 * ( 1 + michel_8c_surface_equipements_N2/ 100),2) - Error : can't multiply sequence by non-int of type 'numpy.float64'</t>
-        </is>
+      <c r="B839" t="n">
+        <v>5.25</v>
       </c>
       <c r="C839" t="inlineStr">
         <is>
@@ -62007,7 +61929,7 @@
       <c r="D839" t="inlineStr"/>
       <c r="E839" t="inlineStr">
         <is>
-          <t>roundNumber(michel_8b_surface_nette_N2 * ( 1 + michel_8c_surface_equipements_N2/ 100),2)</t>
+          <t>$JS:roundNumber(michel_8b_surface_nette_N2 * ( 1 + michel_8c_surface_equipements_N2/ 100),2)</t>
         </is>
       </c>
       <c r="F839" t="inlineStr">
@@ -62032,10 +61954,8 @@
           <t>michel_8d_hectares_necessaires_N3</t>
         </is>
       </c>
-      <c r="B840" t="inlineStr">
-        <is>
-          <t>Error evaluating Calcul : Line 594 Key = michel_8d_hectares_necessaires_N3 + expr : roundNumber(michel_8b_surface_nette_N3 * ( 1 + michel_8c_surface_equipements_N3/ 100),2) - Error : can't multiply sequence by non-int of type 'numpy.float64'</t>
-        </is>
+      <c r="B840" t="n">
+        <v>5.25</v>
       </c>
       <c r="C840" t="inlineStr">
         <is>
@@ -62045,7 +61965,7 @@
       <c r="D840" t="inlineStr"/>
       <c r="E840" t="inlineStr">
         <is>
-          <t>roundNumber(michel_8b_surface_nette_N3 * ( 1 + michel_8c_surface_equipements_N3/ 100),2)</t>
+          <t>$JS:roundNumber(michel_8b_surface_nette_N3 * ( 1 + michel_8c_surface_equipements_N3/ 100),2)</t>
         </is>
       </c>
       <c r="F840" t="inlineStr">
@@ -62070,10 +61990,8 @@
           <t>michel_8d_hectares_necessaires_N4</t>
         </is>
       </c>
-      <c r="B841" t="inlineStr">
-        <is>
-          <t>Error evaluating Calcul : Line 595 Key = michel_8d_hectares_necessaires_N4 + expr : roundNumber(michel_8b_surface_nette_N4 * ( 1 + michel_8c_surface_equipements_N4/ 100),2) - Error : can't multiply sequence by non-int of type 'numpy.float64'</t>
-        </is>
+      <c r="B841" t="n">
+        <v>14.7</v>
       </c>
       <c r="C841" t="inlineStr">
         <is>
@@ -62083,7 +62001,7 @@
       <c r="D841" t="inlineStr"/>
       <c r="E841" t="inlineStr">
         <is>
-          <t>roundNumber(michel_8b_surface_nette_N4 * ( 1 + michel_8c_surface_equipements_N4/ 100),2)</t>
+          <t>$JS:roundNumber(michel_8b_surface_nette_N4 * ( 1 + michel_8c_surface_equipements_N4/ 100),2)</t>
         </is>
       </c>
       <c r="F841" t="inlineStr">
@@ -62108,10 +62026,8 @@
           <t>michel_8d_hectares_necessaires_N5</t>
         </is>
       </c>
-      <c r="B842" t="inlineStr">
-        <is>
-          <t>Error evaluating Calcul : Line 596 Key = michel_8d_hectares_necessaires_N5 + expr : roundNumber(michel_8b_surface_nette_N5 * ( 1 + michel_8c_surface_equipements_N5/ 100),2) - Error : can't multiply sequence by non-int of type 'numpy.float64'</t>
-        </is>
+      <c r="B842" t="n">
+        <v>7.7</v>
       </c>
       <c r="C842" t="inlineStr">
         <is>
@@ -62121,7 +62037,7 @@
       <c r="D842" t="inlineStr"/>
       <c r="E842" t="inlineStr">
         <is>
-          <t>roundNumber(michel_8b_surface_nette_N5 * ( 1 + michel_8c_surface_equipements_N5/ 100),2)</t>
+          <t>$JS:roundNumber(michel_8b_surface_nette_N5 * ( 1 + michel_8c_surface_equipements_N5/ 100),2)</t>
         </is>
       </c>
       <c r="F842" t="inlineStr">
@@ -62146,10 +62062,8 @@
           <t>michel_8d_hectares_necessaires_N6</t>
         </is>
       </c>
-      <c r="B843" t="inlineStr">
-        <is>
-          <t>Error evaluating Calcul : Line 597 Key = michel_8d_hectares_necessaires_N6 + expr : roundNumber(michel_8b_surface_nette_N6 * ( 1 + michel_8c_surface_equipements_N6/ 100),2) - Error : can't multiply sequence by non-int of type 'numpy.float64'</t>
-        </is>
+      <c r="B843" t="n">
+        <v>4.4</v>
       </c>
       <c r="C843" t="inlineStr">
         <is>
@@ -62159,7 +62073,7 @@
       <c r="D843" t="inlineStr"/>
       <c r="E843" t="inlineStr">
         <is>
-          <t>roundNumber(michel_8b_surface_nette_N6 * ( 1 + michel_8c_surface_equipements_N6/ 100),2)</t>
+          <t>$JS:roundNumber(michel_8b_surface_nette_N6 * ( 1 + michel_8c_surface_equipements_N6/ 100),2)</t>
         </is>
       </c>
       <c r="F843" t="inlineStr">
@@ -62184,10 +62098,8 @@
           <t>michel_8d_hectares_necessaires_Total</t>
         </is>
       </c>
-      <c r="B844" t="inlineStr">
-        <is>
-          <t>Error evaluating Calcul : Line 598 Key = michel_8d_hectares_necessaires_Total + expr : roundNumber(michel_8d_hectares_necessaires_N6 + michel_8d_hectares_necessaires_N5 + michel_8d_hectares_necessaires_N4 + michel_8d_hectares_necessaires_N3 + michel_8d_hectares_necessaires_N2 + michel_8d_hectares_necessaires_N1,2) - Error : type str doesn't define __round__ method</t>
-        </is>
+      <c r="B844" t="n">
+        <v>44.65</v>
       </c>
       <c r="C844" t="inlineStr">
         <is>
@@ -62197,7 +62109,7 @@
       <c r="D844" t="inlineStr"/>
       <c r="E844" t="inlineStr">
         <is>
-          <t>roundNumber(michel_8d_hectares_necessaires_N6 + michel_8d_hectares_necessaires_N5 + michel_8d_hectares_necessaires_N4 + michel_8d_hectares_necessaires_N3 + michel_8d_hectares_necessaires_N2 + michel_8d_hectares_necessaires_N1,2)</t>
+          <t>$JS:roundNumber(michel_8d_hectares_necessaires_N6 + michel_8d_hectares_necessaires_N5 + michel_8d_hectares_necessaires_N4 + michel_8d_hectares_necessaires_N3 + michel_8d_hectares_necessaires_N2 + michel_8d_hectares_necessaires_N1,2)</t>
         </is>
       </c>
       <c r="F844" t="inlineStr">
@@ -62294,10 +62206,8 @@
           <t>michel_8c_consomation_prevue_annuelle</t>
         </is>
       </c>
-      <c r="B847" t="inlineStr">
-        <is>
-          <t>Error evaluating Calcul : Line 602 Key = michel_8c_consomation_prevue_annuelle + expr : roundNumber (michel_8d_hectares_necessaires_Total / michel_duree,2) if (michel_duree!=0) : 0 - Error : invalid syntax (&lt;string&gt;, line 1)</t>
-        </is>
+      <c r="B847" t="n">
+        <v>4.96</v>
       </c>
       <c r="C847" t="inlineStr">
         <is>
@@ -62307,12 +62217,12 @@
       <c r="D847" t="inlineStr"/>
       <c r="E847" t="inlineStr">
         <is>
-          <t>roundNumber (michel_8d_hectares_necessaires_Total / michel_duree,2) if (michel_duree!=0) : 0</t>
+          <t xml:space="preserve">$JS:(michel_duree==0) : 0 ? roundNumber (michel_8d_hectares_necessaires_Total / michel_duree,2) </t>
         </is>
       </c>
       <c r="F847" t="inlineStr">
         <is>
-          <t>roundNumber (michel_8d_hectares_necessaires_Total / michel_duree,2) if (michel_duree!=0) : 0</t>
+          <t>roundNumber (michel_8d_hectares_necessaires_Total / michel_duree,2) if (michel_duree!=0) else 0</t>
         </is>
       </c>
       <c r="G847" t="inlineStr">
@@ -62332,10 +62242,8 @@
           <t>michel_8d_niveau_sobriete</t>
         </is>
       </c>
-      <c r="B848" t="inlineStr">
-        <is>
-          <t>Error evaluating Calcul : Line 603 Key = michel_8d_niveau_sobriete + expr : roundNumber((michel_8c_consomation_prevue_annuelle / michel_8b_consomation_cerema_annuelle) * 100,0) if (michel_8b_consomation_cerema_annuelle!=0) : 0 - Error : invalid syntax (&lt;string&gt;, line 1)</t>
-        </is>
+      <c r="B848" t="n">
+        <v>115</v>
       </c>
       <c r="C848" t="inlineStr">
         <is>
@@ -62345,12 +62253,12 @@
       <c r="D848" t="inlineStr"/>
       <c r="E848" t="inlineStr">
         <is>
-          <t>roundNumber((michel_8c_consomation_prevue_annuelle / michel_8b_consomation_cerema_annuelle) * 100,0) if (michel_8b_consomation_cerema_annuelle!=0) : 0</t>
+          <t>$JS:(michel_8b_consomation_cerema_annuelle==0) ? 0  : roundNumber((michel_8c_consomation_prevue_annuelle / michel_8b_consomation_cerema_annuelle) * 100,0)</t>
         </is>
       </c>
       <c r="F848" t="inlineStr">
         <is>
-          <t>roundNumber((michel_8c_consomation_prevue_annuelle / michel_8b_consomation_cerema_annuelle) * 100,0) if (michel_8b_consomation_cerema_annuelle!=0) : 0</t>
+          <t>roundNumber((michel_8c_consomation_prevue_annuelle / michel_8b_consomation_cerema_annuelle) * 100,0) if (michel_8b_consomation_cerema_annuelle!=0) else 0</t>
         </is>
       </c>
       <c r="G848" t="inlineStr">
@@ -62372,7 +62280,7 @@
       </c>
       <c r="B849" t="inlineStr">
         <is>
-          <t>Error evaluating Calcul : Line 604 Key = michel_8e_message_sobriete0 + expr : "Territoire de reconquete"  if  (michel_8d_niveau_sobriete &lt; 0 ) else "Consommation Exemplaire" - Error : '&lt;' not supported between instances of 'str' and 'int'</t>
+          <t>Consommation Exemplaire</t>
         </is>
       </c>
       <c r="C849" t="inlineStr">
@@ -62383,7 +62291,7 @@
       <c r="D849" t="inlineStr"/>
       <c r="E849" t="inlineStr">
         <is>
-          <t>"Territoire de reconquete"  if  (michel_8d_niveau_sobriete &lt; 0 ) else "Consommation Exemplaire"</t>
+          <t>$JS: (michel_8d_niveau_sobriete &lt; 0 ) ?  "Territoire de reconquete" :  "Consommation Exemplaire"</t>
         </is>
       </c>
       <c r="F849" t="inlineStr">
@@ -62410,7 +62318,7 @@
       </c>
       <c r="B850" t="inlineStr">
         <is>
-          <t>Error evaluating Calcul : Line 605 Key = michel_8e_message_sobriete1 + expr : "Objectif ZAN atteint"  if  (michel_8d_niveau_sobriete &gt; 25 ) else michel_8e_message_sobriete0 - Error : '&gt;' not supported between instances of 'str' and 'int'</t>
+          <t>Objectif ZAN atteint</t>
         </is>
       </c>
       <c r="C850" t="inlineStr">
@@ -62421,7 +62329,7 @@
       <c r="D850" t="inlineStr"/>
       <c r="E850" t="inlineStr">
         <is>
-          <t>"Objectif ZAN atteint"  if  (michel_8d_niveau_sobriete &gt; 25 ) else michel_8e_message_sobriete0</t>
+          <t>$JS: (michel_8d_niveau_sobriete &gt;= 25 ) ?  "Objectif ZAN atteint" :  michel_8e_message_sobriete0</t>
         </is>
       </c>
       <c r="F850" t="inlineStr">
@@ -62448,7 +62356,7 @@
       </c>
       <c r="B851" t="inlineStr">
         <is>
-          <t>Error evaluating Calcul : Line 606 Key = michel_8e_message_sobriete2 + expr : "Consommation Excessive"  if  (michel_8d_niveau_sobriete &gt;= 51 ) else michel_8e_message_sobriete1 - Error : '&gt;=' not supported between instances of 'str' and 'int'</t>
+          <t>Consommation Excessive</t>
         </is>
       </c>
       <c r="C851" t="inlineStr">
@@ -62459,7 +62367,7 @@
       <c r="D851" t="inlineStr"/>
       <c r="E851" t="inlineStr">
         <is>
-          <t>"Consommation Excessive"  if  (michel_8d_niveau_sobriete &gt;= 51 ) else michel_8e_message_sobriete1</t>
+          <t>$JS: (michel_8d_niveau_sobriete &gt;= 51 ) ?  "Consommation Excessive" :  michel_8e_message_sobriete1</t>
         </is>
       </c>
       <c r="F851" t="inlineStr">
@@ -62486,7 +62394,7 @@
       </c>
       <c r="B852" t="inlineStr">
         <is>
-          <t>Error evaluating Calcul : Line 607 Key = michel_8e_message_sobriete3 + expr : "Consommation Abusive"  if  (michel_8d_niveau_sobriete &gt;= 100 ) else michel_8e_message_sobriete3 - Error : '&gt;=' not supported between instances of 'str' and 'int'</t>
+          <t>Consommation Abusive</t>
         </is>
       </c>
       <c r="C852" t="inlineStr">
@@ -62497,7 +62405,7 @@
       <c r="D852" t="inlineStr"/>
       <c r="E852" t="inlineStr">
         <is>
-          <t>"Consommation Abusive"  if  (michel_8d_niveau_sobriete &gt;= 100 ) else michel_8e_message_sobriete3</t>
+          <t>$JS: (michel_8d_niveau_sobriete &gt;= 100 ) ?  "Consommation Abusive" :  michel_8e_message_sobriete2</t>
         </is>
       </c>
       <c r="F852" t="inlineStr">
@@ -62524,7 +62432,7 @@
       </c>
       <c r="B853" t="inlineStr">
         <is>
-          <t>Error evaluating Calcul : Line 607 Key = michel_8e_message_sobriete3 + expr : "Consommation Abusive"  if  (michel_8d_niveau_sobriete &gt;= 100 ) else michel_8e_message_sobriete3 - Error : '&gt;=' not supported between instances of 'str' and 'int'</t>
+          <t>Consommation Abusive</t>
         </is>
       </c>
       <c r="C853" t="inlineStr">
